--- a/docs/Plantillas/Plantilla_Rpto_Alcoholimetria_Detallado.xlsx
+++ b/docs/Plantillas/Plantilla_Rpto_Alcoholimetria_Detallado.xlsx
@@ -106,25 +106,25 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I2526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,24 +445,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
@@ -474,23 +474,23 @@
       <c r="I6" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -498,10 +498,10 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -509,10 +509,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -520,10 +520,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -531,10 +531,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -542,10 +542,10 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -553,10 +553,10 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -564,10 +564,10 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -575,10 +575,10 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -586,10 +586,10 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -597,10 +597,10 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -608,10 +608,10 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
@@ -619,10 +619,10 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -630,10 +630,10 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -641,10 +641,10 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -652,10 +652,10 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -663,10 +663,10 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -674,10 +674,10 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -685,10 +685,10 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -696,10 +696,10 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
@@ -707,10 +707,10 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -718,10 +718,10 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -729,10 +729,10 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -740,10 +740,10 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -751,10 +751,10 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
@@ -762,10 +762,10 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -773,10 +773,10 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -784,10 +784,10 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -795,10 +795,10 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -806,10 +806,10 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
@@ -817,10 +817,10 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -828,10 +828,10 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
@@ -839,10 +839,10 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -850,10 +850,10 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -861,10 +861,10 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -872,10 +872,10 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -883,10 +883,10 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -894,10 +894,10 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
@@ -905,8 +905,8 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
@@ -916,10 +916,10 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
@@ -927,10 +927,10 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
@@ -938,10 +938,10 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -949,10 +949,10 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -960,10 +960,10 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
@@ -971,10 +971,10 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
@@ -982,10 +982,10 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -993,10 +993,10 @@
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -1004,10 +1004,10 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
@@ -1015,10 +1015,10 @@
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -1026,10 +1026,10 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
@@ -1037,10 +1037,10 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
@@ -1048,10 +1048,10 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
@@ -1059,10 +1059,10 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
@@ -1070,10 +1070,10 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
@@ -1081,10 +1081,10 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -1092,10 +1092,10 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
@@ -1103,10 +1103,10 @@
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -1114,10 +1114,10 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
@@ -1125,10 +1125,10 @@
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
@@ -1136,10 +1136,10 @@
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
@@ -1147,10 +1147,10 @@
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
@@ -1158,10 +1158,10 @@
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
@@ -1169,10 +1169,10 @@
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -1180,10 +1180,10 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
@@ -1191,10 +1191,10 @@
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
@@ -1202,10 +1202,10 @@
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
@@ -1213,10 +1213,10 @@
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
@@ -1224,10 +1224,10 @@
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
@@ -1235,10 +1235,10 @@
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
@@ -1246,10 +1246,10 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
@@ -1257,10 +1257,10 @@
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
@@ -1268,10 +1268,10 @@
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
@@ -1279,10 +1279,10 @@
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
@@ -1290,10 +1290,10 @@
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
@@ -1301,10 +1301,10 @@
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
@@ -1312,10 +1312,10 @@
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
@@ -1323,10 +1323,10 @@
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
@@ -1334,10 +1334,10 @@
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
@@ -1345,10 +1345,10 @@
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
@@ -1356,10 +1356,10 @@
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
@@ -1367,10 +1367,10 @@
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
@@ -1378,10 +1378,10 @@
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
@@ -1389,10 +1389,10 @@
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
@@ -1400,10 +1400,10 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
@@ -1411,10 +1411,10 @@
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
@@ -1422,10 +1422,10 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
@@ -1433,10 +1433,10 @@
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
@@ -1444,10 +1444,10 @@
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
@@ -1455,10 +1455,10 @@
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
@@ -1466,10 +1466,10 @@
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
@@ -1477,10 +1477,10 @@
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
@@ -1488,10 +1488,10 @@
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
@@ -1499,10 +1499,10 @@
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
@@ -1510,10 +1510,10 @@
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
@@ -1521,10 +1521,10 @@
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
@@ -1532,10 +1532,10 @@
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
@@ -1543,10 +1543,10 @@
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
@@ -1554,10 +1554,10 @@
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
@@ -1565,10 +1565,10 @@
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
@@ -1576,10 +1576,10 @@
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
@@ -1587,10 +1587,10 @@
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
@@ -1598,10 +1598,10 @@
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
@@ -1609,10 +1609,10 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
@@ -1620,10 +1620,10 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
@@ -1631,10 +1631,10 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
@@ -1642,10 +1642,10 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
@@ -1653,10 +1653,10 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
@@ -1664,10 +1664,10 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
@@ -1675,10 +1675,10 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
@@ -1686,10 +1686,10 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
@@ -1697,10 +1697,10 @@
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
@@ -1708,10 +1708,10 @@
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
@@ -1719,10 +1719,10 @@
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
@@ -1730,10 +1730,10 @@
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
@@ -1741,10 +1741,10 @@
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
@@ -1752,10 +1752,10 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
@@ -1763,10 +1763,10 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
@@ -1774,10 +1774,10 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
@@ -1785,10 +1785,10 @@
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
@@ -1796,10 +1796,10 @@
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
@@ -13798,2511 +13798,336 @@
     </row>
   </sheetData>
   <mergeCells count="2882">
-    <mergeCell ref="A2522:C2522"/>
-    <mergeCell ref="A2523:C2523"/>
-    <mergeCell ref="A2524:C2524"/>
-    <mergeCell ref="A2525:C2525"/>
-    <mergeCell ref="A2526:C2526"/>
-    <mergeCell ref="A2513:C2513"/>
-    <mergeCell ref="A2514:C2514"/>
-    <mergeCell ref="A2515:C2515"/>
-    <mergeCell ref="A2516:C2516"/>
-    <mergeCell ref="A2517:C2517"/>
-    <mergeCell ref="A2518:C2518"/>
-    <mergeCell ref="A2519:C2519"/>
-    <mergeCell ref="A2520:C2520"/>
-    <mergeCell ref="A2521:C2521"/>
-    <mergeCell ref="A2504:C2504"/>
-    <mergeCell ref="A2505:C2505"/>
-    <mergeCell ref="A2506:C2506"/>
-    <mergeCell ref="A2507:C2507"/>
-    <mergeCell ref="A2508:C2508"/>
-    <mergeCell ref="A2509:C2509"/>
-    <mergeCell ref="A2510:C2510"/>
-    <mergeCell ref="A2511:C2511"/>
-    <mergeCell ref="A2512:C2512"/>
-    <mergeCell ref="A2495:C2495"/>
-    <mergeCell ref="A2496:C2496"/>
-    <mergeCell ref="A2497:C2497"/>
-    <mergeCell ref="A2498:C2498"/>
-    <mergeCell ref="A2499:C2499"/>
-    <mergeCell ref="A2500:C2500"/>
-    <mergeCell ref="A2501:C2501"/>
-    <mergeCell ref="A2502:C2502"/>
-    <mergeCell ref="A2503:C2503"/>
-    <mergeCell ref="A2486:C2486"/>
-    <mergeCell ref="A2487:C2487"/>
-    <mergeCell ref="A2488:C2488"/>
-    <mergeCell ref="A2489:C2489"/>
-    <mergeCell ref="A2490:C2490"/>
-    <mergeCell ref="A2491:C2491"/>
-    <mergeCell ref="A2492:C2492"/>
-    <mergeCell ref="A2493:C2493"/>
-    <mergeCell ref="A2494:C2494"/>
-    <mergeCell ref="A2477:C2477"/>
-    <mergeCell ref="A2478:C2478"/>
-    <mergeCell ref="A2479:C2479"/>
-    <mergeCell ref="A2480:C2480"/>
-    <mergeCell ref="A2481:C2481"/>
-    <mergeCell ref="A2482:C2482"/>
-    <mergeCell ref="A2483:C2483"/>
-    <mergeCell ref="A2484:C2484"/>
-    <mergeCell ref="A2485:C2485"/>
-    <mergeCell ref="A2468:C2468"/>
-    <mergeCell ref="A2469:C2469"/>
-    <mergeCell ref="A2470:C2470"/>
-    <mergeCell ref="A2471:C2471"/>
-    <mergeCell ref="A2472:C2472"/>
-    <mergeCell ref="A2473:C2473"/>
-    <mergeCell ref="A2474:C2474"/>
-    <mergeCell ref="A2475:C2475"/>
-    <mergeCell ref="A2476:C2476"/>
-    <mergeCell ref="A2459:C2459"/>
-    <mergeCell ref="A2460:C2460"/>
-    <mergeCell ref="A2461:C2461"/>
-    <mergeCell ref="A2462:C2462"/>
-    <mergeCell ref="A2463:C2463"/>
-    <mergeCell ref="A2464:C2464"/>
-    <mergeCell ref="A2465:C2465"/>
-    <mergeCell ref="A2466:C2466"/>
-    <mergeCell ref="A2467:C2467"/>
-    <mergeCell ref="A2450:C2450"/>
-    <mergeCell ref="A2451:C2451"/>
-    <mergeCell ref="A2452:C2452"/>
-    <mergeCell ref="A2453:C2453"/>
-    <mergeCell ref="A2454:C2454"/>
-    <mergeCell ref="A2455:C2455"/>
-    <mergeCell ref="A2456:C2456"/>
-    <mergeCell ref="A2457:C2457"/>
-    <mergeCell ref="A2458:C2458"/>
-    <mergeCell ref="A2441:C2441"/>
-    <mergeCell ref="A2442:C2442"/>
-    <mergeCell ref="A2443:C2443"/>
-    <mergeCell ref="A2444:C2444"/>
-    <mergeCell ref="A2445:C2445"/>
-    <mergeCell ref="A2446:C2446"/>
-    <mergeCell ref="A2447:C2447"/>
-    <mergeCell ref="A2448:C2448"/>
-    <mergeCell ref="A2449:C2449"/>
-    <mergeCell ref="A2432:C2432"/>
-    <mergeCell ref="A2433:C2433"/>
-    <mergeCell ref="A2434:C2434"/>
-    <mergeCell ref="A2435:C2435"/>
-    <mergeCell ref="A2436:C2436"/>
-    <mergeCell ref="A2437:C2437"/>
-    <mergeCell ref="A2438:C2438"/>
-    <mergeCell ref="A2439:C2439"/>
-    <mergeCell ref="A2440:C2440"/>
-    <mergeCell ref="A2423:C2423"/>
-    <mergeCell ref="A2424:C2424"/>
-    <mergeCell ref="A2425:C2425"/>
-    <mergeCell ref="A2426:C2426"/>
-    <mergeCell ref="A2427:C2427"/>
-    <mergeCell ref="A2428:C2428"/>
-    <mergeCell ref="A2429:C2429"/>
-    <mergeCell ref="A2430:C2430"/>
-    <mergeCell ref="A2431:C2431"/>
-    <mergeCell ref="A2414:C2414"/>
-    <mergeCell ref="A2415:C2415"/>
-    <mergeCell ref="A2416:C2416"/>
-    <mergeCell ref="A2417:C2417"/>
-    <mergeCell ref="A2418:C2418"/>
-    <mergeCell ref="A2419:C2419"/>
-    <mergeCell ref="A2420:C2420"/>
-    <mergeCell ref="A2421:C2421"/>
-    <mergeCell ref="A2422:C2422"/>
-    <mergeCell ref="A2405:C2405"/>
-    <mergeCell ref="A2406:C2406"/>
-    <mergeCell ref="A2407:C2407"/>
-    <mergeCell ref="A2408:C2408"/>
-    <mergeCell ref="A2409:C2409"/>
-    <mergeCell ref="A2410:C2410"/>
-    <mergeCell ref="A2411:C2411"/>
-    <mergeCell ref="A2412:C2412"/>
-    <mergeCell ref="A2413:C2413"/>
-    <mergeCell ref="A2396:C2396"/>
-    <mergeCell ref="A2397:C2397"/>
-    <mergeCell ref="A2398:C2398"/>
-    <mergeCell ref="A2399:C2399"/>
-    <mergeCell ref="A2400:C2400"/>
-    <mergeCell ref="A2401:C2401"/>
-    <mergeCell ref="A2402:C2402"/>
-    <mergeCell ref="A2403:C2403"/>
-    <mergeCell ref="A2404:C2404"/>
-    <mergeCell ref="A2387:C2387"/>
-    <mergeCell ref="A2388:C2388"/>
-    <mergeCell ref="A2389:C2389"/>
-    <mergeCell ref="A2390:C2390"/>
-    <mergeCell ref="A2391:C2391"/>
-    <mergeCell ref="A2392:C2392"/>
-    <mergeCell ref="A2393:C2393"/>
-    <mergeCell ref="A2394:C2394"/>
-    <mergeCell ref="A2395:C2395"/>
-    <mergeCell ref="A2378:C2378"/>
-    <mergeCell ref="A2379:C2379"/>
-    <mergeCell ref="A2380:C2380"/>
-    <mergeCell ref="A2381:C2381"/>
-    <mergeCell ref="A2382:C2382"/>
-    <mergeCell ref="A2383:C2383"/>
-    <mergeCell ref="A2384:C2384"/>
-    <mergeCell ref="A2385:C2385"/>
-    <mergeCell ref="A2386:C2386"/>
-    <mergeCell ref="A2369:C2369"/>
-    <mergeCell ref="A2370:C2370"/>
-    <mergeCell ref="A2371:C2371"/>
-    <mergeCell ref="A2372:C2372"/>
-    <mergeCell ref="A2373:C2373"/>
-    <mergeCell ref="A2374:C2374"/>
-    <mergeCell ref="A2375:C2375"/>
-    <mergeCell ref="A2376:C2376"/>
-    <mergeCell ref="A2377:C2377"/>
-    <mergeCell ref="A2360:C2360"/>
-    <mergeCell ref="A2361:C2361"/>
-    <mergeCell ref="A2362:C2362"/>
-    <mergeCell ref="A2363:C2363"/>
-    <mergeCell ref="A2364:C2364"/>
-    <mergeCell ref="A2365:C2365"/>
-    <mergeCell ref="A2366:C2366"/>
-    <mergeCell ref="A2367:C2367"/>
-    <mergeCell ref="A2368:C2368"/>
-    <mergeCell ref="A2351:C2351"/>
-    <mergeCell ref="A2352:C2352"/>
-    <mergeCell ref="A2353:C2353"/>
-    <mergeCell ref="A2354:C2354"/>
-    <mergeCell ref="A2355:C2355"/>
-    <mergeCell ref="A2356:C2356"/>
-    <mergeCell ref="A2357:C2357"/>
-    <mergeCell ref="A2358:C2358"/>
-    <mergeCell ref="A2359:C2359"/>
-    <mergeCell ref="A2342:C2342"/>
-    <mergeCell ref="A2343:C2343"/>
-    <mergeCell ref="A2344:C2344"/>
-    <mergeCell ref="A2345:C2345"/>
-    <mergeCell ref="A2346:C2346"/>
-    <mergeCell ref="A2347:C2347"/>
-    <mergeCell ref="A2348:C2348"/>
-    <mergeCell ref="A2349:C2349"/>
-    <mergeCell ref="A2350:C2350"/>
-    <mergeCell ref="A2333:C2333"/>
-    <mergeCell ref="A2334:C2334"/>
-    <mergeCell ref="A2335:C2335"/>
-    <mergeCell ref="A2336:C2336"/>
-    <mergeCell ref="A2337:C2337"/>
-    <mergeCell ref="A2338:C2338"/>
-    <mergeCell ref="A2339:C2339"/>
-    <mergeCell ref="A2340:C2340"/>
-    <mergeCell ref="A2341:C2341"/>
-    <mergeCell ref="A2324:C2324"/>
-    <mergeCell ref="A2325:C2325"/>
-    <mergeCell ref="A2326:C2326"/>
-    <mergeCell ref="A2327:C2327"/>
-    <mergeCell ref="A2328:C2328"/>
-    <mergeCell ref="A2329:C2329"/>
-    <mergeCell ref="A2330:C2330"/>
-    <mergeCell ref="A2331:C2331"/>
-    <mergeCell ref="A2332:C2332"/>
-    <mergeCell ref="A2315:C2315"/>
-    <mergeCell ref="A2316:C2316"/>
-    <mergeCell ref="A2317:C2317"/>
-    <mergeCell ref="A2318:C2318"/>
-    <mergeCell ref="A2319:C2319"/>
-    <mergeCell ref="A2320:C2320"/>
-    <mergeCell ref="A2321:C2321"/>
-    <mergeCell ref="A2322:C2322"/>
-    <mergeCell ref="A2323:C2323"/>
-    <mergeCell ref="A2306:C2306"/>
-    <mergeCell ref="A2307:C2307"/>
-    <mergeCell ref="A2308:C2308"/>
-    <mergeCell ref="A2309:C2309"/>
-    <mergeCell ref="A2310:C2310"/>
-    <mergeCell ref="A2311:C2311"/>
-    <mergeCell ref="A2312:C2312"/>
-    <mergeCell ref="A2313:C2313"/>
-    <mergeCell ref="A2314:C2314"/>
-    <mergeCell ref="A2297:C2297"/>
-    <mergeCell ref="A2298:C2298"/>
-    <mergeCell ref="A2299:C2299"/>
-    <mergeCell ref="A2300:C2300"/>
-    <mergeCell ref="A2301:C2301"/>
-    <mergeCell ref="A2302:C2302"/>
-    <mergeCell ref="A2303:C2303"/>
-    <mergeCell ref="A2304:C2304"/>
-    <mergeCell ref="A2305:C2305"/>
-    <mergeCell ref="A2288:C2288"/>
-    <mergeCell ref="A2289:C2289"/>
-    <mergeCell ref="A2290:C2290"/>
-    <mergeCell ref="A2291:C2291"/>
-    <mergeCell ref="A2292:C2292"/>
-    <mergeCell ref="A2293:C2293"/>
-    <mergeCell ref="A2294:C2294"/>
-    <mergeCell ref="A2295:C2295"/>
-    <mergeCell ref="A2296:C2296"/>
-    <mergeCell ref="A2279:C2279"/>
-    <mergeCell ref="A2280:C2280"/>
-    <mergeCell ref="A2281:C2281"/>
-    <mergeCell ref="A2282:C2282"/>
-    <mergeCell ref="A2283:C2283"/>
-    <mergeCell ref="A2284:C2284"/>
-    <mergeCell ref="A2285:C2285"/>
-    <mergeCell ref="A2286:C2286"/>
-    <mergeCell ref="A2287:C2287"/>
-    <mergeCell ref="A2270:C2270"/>
-    <mergeCell ref="A2271:C2271"/>
-    <mergeCell ref="A2272:C2272"/>
-    <mergeCell ref="A2273:C2273"/>
-    <mergeCell ref="A2274:C2274"/>
-    <mergeCell ref="A2275:C2275"/>
-    <mergeCell ref="A2276:C2276"/>
-    <mergeCell ref="A2277:C2277"/>
-    <mergeCell ref="A2278:C2278"/>
-    <mergeCell ref="A2261:C2261"/>
-    <mergeCell ref="A2262:C2262"/>
-    <mergeCell ref="A2263:C2263"/>
-    <mergeCell ref="A2264:C2264"/>
-    <mergeCell ref="A2265:C2265"/>
-    <mergeCell ref="A2266:C2266"/>
-    <mergeCell ref="A2267:C2267"/>
-    <mergeCell ref="A2268:C2268"/>
-    <mergeCell ref="A2269:C2269"/>
-    <mergeCell ref="A2252:C2252"/>
-    <mergeCell ref="A2253:C2253"/>
-    <mergeCell ref="A2254:C2254"/>
-    <mergeCell ref="A2255:C2255"/>
-    <mergeCell ref="A2256:C2256"/>
-    <mergeCell ref="A2257:C2257"/>
-    <mergeCell ref="A2258:C2258"/>
-    <mergeCell ref="A2259:C2259"/>
-    <mergeCell ref="A2260:C2260"/>
-    <mergeCell ref="A2243:C2243"/>
-    <mergeCell ref="A2244:C2244"/>
-    <mergeCell ref="A2245:C2245"/>
-    <mergeCell ref="A2246:C2246"/>
-    <mergeCell ref="A2247:C2247"/>
-    <mergeCell ref="A2248:C2248"/>
-    <mergeCell ref="A2249:C2249"/>
-    <mergeCell ref="A2250:C2250"/>
-    <mergeCell ref="A2251:C2251"/>
-    <mergeCell ref="A2234:C2234"/>
-    <mergeCell ref="A2235:C2235"/>
-    <mergeCell ref="A2236:C2236"/>
-    <mergeCell ref="A2237:C2237"/>
-    <mergeCell ref="A2238:C2238"/>
-    <mergeCell ref="A2239:C2239"/>
-    <mergeCell ref="A2240:C2240"/>
-    <mergeCell ref="A2241:C2241"/>
-    <mergeCell ref="A2242:C2242"/>
-    <mergeCell ref="A2225:C2225"/>
-    <mergeCell ref="A2226:C2226"/>
-    <mergeCell ref="A2227:C2227"/>
-    <mergeCell ref="A2228:C2228"/>
-    <mergeCell ref="A2229:C2229"/>
-    <mergeCell ref="A2230:C2230"/>
-    <mergeCell ref="A2231:C2231"/>
-    <mergeCell ref="A2232:C2232"/>
-    <mergeCell ref="A2233:C2233"/>
-    <mergeCell ref="A2216:C2216"/>
-    <mergeCell ref="A2217:C2217"/>
-    <mergeCell ref="A2218:C2218"/>
-    <mergeCell ref="A2219:C2219"/>
-    <mergeCell ref="A2220:C2220"/>
-    <mergeCell ref="A2221:C2221"/>
-    <mergeCell ref="A2222:C2222"/>
-    <mergeCell ref="A2223:C2223"/>
-    <mergeCell ref="A2224:C2224"/>
-    <mergeCell ref="A2207:C2207"/>
-    <mergeCell ref="A2208:C2208"/>
-    <mergeCell ref="A2209:C2209"/>
-    <mergeCell ref="A2210:C2210"/>
-    <mergeCell ref="A2211:C2211"/>
-    <mergeCell ref="A2212:C2212"/>
-    <mergeCell ref="A2213:C2213"/>
-    <mergeCell ref="A2214:C2214"/>
-    <mergeCell ref="A2215:C2215"/>
-    <mergeCell ref="A2198:C2198"/>
-    <mergeCell ref="A2199:C2199"/>
-    <mergeCell ref="A2200:C2200"/>
-    <mergeCell ref="A2201:C2201"/>
-    <mergeCell ref="A2202:C2202"/>
-    <mergeCell ref="A2203:C2203"/>
-    <mergeCell ref="A2204:C2204"/>
-    <mergeCell ref="A2205:C2205"/>
-    <mergeCell ref="A2206:C2206"/>
-    <mergeCell ref="A2189:C2189"/>
-    <mergeCell ref="A2190:C2190"/>
-    <mergeCell ref="A2191:C2191"/>
-    <mergeCell ref="A2192:C2192"/>
-    <mergeCell ref="A2193:C2193"/>
-    <mergeCell ref="A2194:C2194"/>
-    <mergeCell ref="A2195:C2195"/>
-    <mergeCell ref="A2196:C2196"/>
-    <mergeCell ref="A2197:C2197"/>
-    <mergeCell ref="A2180:C2180"/>
-    <mergeCell ref="A2181:C2181"/>
-    <mergeCell ref="A2182:C2182"/>
-    <mergeCell ref="A2183:C2183"/>
-    <mergeCell ref="A2184:C2184"/>
-    <mergeCell ref="A2185:C2185"/>
-    <mergeCell ref="A2186:C2186"/>
-    <mergeCell ref="A2187:C2187"/>
-    <mergeCell ref="A2188:C2188"/>
-    <mergeCell ref="A2171:C2171"/>
-    <mergeCell ref="A2172:C2172"/>
-    <mergeCell ref="A2173:C2173"/>
-    <mergeCell ref="A2174:C2174"/>
-    <mergeCell ref="A2175:C2175"/>
-    <mergeCell ref="A2176:C2176"/>
-    <mergeCell ref="A2177:C2177"/>
-    <mergeCell ref="A2178:C2178"/>
-    <mergeCell ref="A2179:C2179"/>
-    <mergeCell ref="A2162:C2162"/>
-    <mergeCell ref="A2163:C2163"/>
-    <mergeCell ref="A2164:C2164"/>
-    <mergeCell ref="A2165:C2165"/>
-    <mergeCell ref="A2166:C2166"/>
-    <mergeCell ref="A2167:C2167"/>
-    <mergeCell ref="A2168:C2168"/>
-    <mergeCell ref="A2169:C2169"/>
-    <mergeCell ref="A2170:C2170"/>
-    <mergeCell ref="A2153:C2153"/>
-    <mergeCell ref="A2154:C2154"/>
-    <mergeCell ref="A2155:C2155"/>
-    <mergeCell ref="A2156:C2156"/>
-    <mergeCell ref="A2157:C2157"/>
-    <mergeCell ref="A2158:C2158"/>
-    <mergeCell ref="A2159:C2159"/>
-    <mergeCell ref="A2160:C2160"/>
-    <mergeCell ref="A2161:C2161"/>
-    <mergeCell ref="A2144:C2144"/>
-    <mergeCell ref="A2145:C2145"/>
-    <mergeCell ref="A2146:C2146"/>
-    <mergeCell ref="A2147:C2147"/>
-    <mergeCell ref="A2148:C2148"/>
-    <mergeCell ref="A2149:C2149"/>
-    <mergeCell ref="A2150:C2150"/>
-    <mergeCell ref="A2151:C2151"/>
-    <mergeCell ref="A2152:C2152"/>
-    <mergeCell ref="A2135:C2135"/>
-    <mergeCell ref="A2136:C2136"/>
-    <mergeCell ref="A2137:C2137"/>
-    <mergeCell ref="A2138:C2138"/>
-    <mergeCell ref="A2139:C2139"/>
-    <mergeCell ref="A2140:C2140"/>
-    <mergeCell ref="A2141:C2141"/>
-    <mergeCell ref="A2142:C2142"/>
-    <mergeCell ref="A2143:C2143"/>
-    <mergeCell ref="A2126:C2126"/>
-    <mergeCell ref="A2127:C2127"/>
-    <mergeCell ref="A2128:C2128"/>
-    <mergeCell ref="A2129:C2129"/>
-    <mergeCell ref="A2130:C2130"/>
-    <mergeCell ref="A2131:C2131"/>
-    <mergeCell ref="A2132:C2132"/>
-    <mergeCell ref="A2133:C2133"/>
-    <mergeCell ref="A2134:C2134"/>
-    <mergeCell ref="A2117:C2117"/>
-    <mergeCell ref="A2118:C2118"/>
-    <mergeCell ref="A2119:C2119"/>
-    <mergeCell ref="A2120:C2120"/>
-    <mergeCell ref="A2121:C2121"/>
-    <mergeCell ref="A2122:C2122"/>
-    <mergeCell ref="A2123:C2123"/>
-    <mergeCell ref="A2124:C2124"/>
-    <mergeCell ref="A2125:C2125"/>
-    <mergeCell ref="A2108:C2108"/>
-    <mergeCell ref="A2109:C2109"/>
-    <mergeCell ref="A2110:C2110"/>
-    <mergeCell ref="A2111:C2111"/>
-    <mergeCell ref="A2112:C2112"/>
-    <mergeCell ref="A2113:C2113"/>
-    <mergeCell ref="A2114:C2114"/>
-    <mergeCell ref="A2115:C2115"/>
-    <mergeCell ref="A2116:C2116"/>
-    <mergeCell ref="A2099:C2099"/>
-    <mergeCell ref="A2100:C2100"/>
-    <mergeCell ref="A2101:C2101"/>
-    <mergeCell ref="A2102:C2102"/>
-    <mergeCell ref="A2103:C2103"/>
-    <mergeCell ref="A2104:C2104"/>
-    <mergeCell ref="A2105:C2105"/>
-    <mergeCell ref="A2106:C2106"/>
-    <mergeCell ref="A2107:C2107"/>
-    <mergeCell ref="A2090:C2090"/>
-    <mergeCell ref="A2091:C2091"/>
-    <mergeCell ref="A2092:C2092"/>
-    <mergeCell ref="A2093:C2093"/>
-    <mergeCell ref="A2094:C2094"/>
-    <mergeCell ref="A2095:C2095"/>
-    <mergeCell ref="A2096:C2096"/>
-    <mergeCell ref="A2097:C2097"/>
-    <mergeCell ref="A2098:C2098"/>
-    <mergeCell ref="A2081:C2081"/>
-    <mergeCell ref="A2082:C2082"/>
-    <mergeCell ref="A2083:C2083"/>
-    <mergeCell ref="A2084:C2084"/>
-    <mergeCell ref="A2085:C2085"/>
-    <mergeCell ref="A2086:C2086"/>
-    <mergeCell ref="A2087:C2087"/>
-    <mergeCell ref="A2088:C2088"/>
-    <mergeCell ref="A2089:C2089"/>
-    <mergeCell ref="A2072:C2072"/>
-    <mergeCell ref="A2073:C2073"/>
-    <mergeCell ref="A2074:C2074"/>
-    <mergeCell ref="A2075:C2075"/>
-    <mergeCell ref="A2076:C2076"/>
-    <mergeCell ref="A2077:C2077"/>
-    <mergeCell ref="A2078:C2078"/>
-    <mergeCell ref="A2079:C2079"/>
-    <mergeCell ref="A2080:C2080"/>
-    <mergeCell ref="A2063:C2063"/>
-    <mergeCell ref="A2064:C2064"/>
-    <mergeCell ref="A2065:C2065"/>
-    <mergeCell ref="A2066:C2066"/>
-    <mergeCell ref="A2067:C2067"/>
-    <mergeCell ref="A2068:C2068"/>
-    <mergeCell ref="A2069:C2069"/>
-    <mergeCell ref="A2070:C2070"/>
-    <mergeCell ref="A2071:C2071"/>
-    <mergeCell ref="A2054:C2054"/>
-    <mergeCell ref="A2055:C2055"/>
-    <mergeCell ref="A2056:C2056"/>
-    <mergeCell ref="A2057:C2057"/>
-    <mergeCell ref="A2058:C2058"/>
-    <mergeCell ref="A2059:C2059"/>
-    <mergeCell ref="A2060:C2060"/>
-    <mergeCell ref="A2061:C2061"/>
-    <mergeCell ref="A2062:C2062"/>
-    <mergeCell ref="A2045:C2045"/>
-    <mergeCell ref="A2046:C2046"/>
-    <mergeCell ref="A2047:C2047"/>
-    <mergeCell ref="A2048:C2048"/>
-    <mergeCell ref="A2049:C2049"/>
-    <mergeCell ref="A2050:C2050"/>
-    <mergeCell ref="A2051:C2051"/>
-    <mergeCell ref="A2052:C2052"/>
-    <mergeCell ref="A2053:C2053"/>
-    <mergeCell ref="A2036:C2036"/>
-    <mergeCell ref="A2037:C2037"/>
-    <mergeCell ref="A2038:C2038"/>
-    <mergeCell ref="A2039:C2039"/>
-    <mergeCell ref="A2040:C2040"/>
-    <mergeCell ref="A2041:C2041"/>
-    <mergeCell ref="A2042:C2042"/>
-    <mergeCell ref="A2043:C2043"/>
-    <mergeCell ref="A2044:C2044"/>
-    <mergeCell ref="A2027:C2027"/>
-    <mergeCell ref="A2028:C2028"/>
-    <mergeCell ref="A2029:C2029"/>
-    <mergeCell ref="A2030:C2030"/>
-    <mergeCell ref="A2031:C2031"/>
-    <mergeCell ref="A2032:C2032"/>
-    <mergeCell ref="A2033:C2033"/>
-    <mergeCell ref="A2034:C2034"/>
-    <mergeCell ref="A2035:C2035"/>
-    <mergeCell ref="A2018:C2018"/>
-    <mergeCell ref="A2019:C2019"/>
-    <mergeCell ref="A2020:C2020"/>
-    <mergeCell ref="A2021:C2021"/>
-    <mergeCell ref="A2022:C2022"/>
-    <mergeCell ref="A2023:C2023"/>
-    <mergeCell ref="A2024:C2024"/>
-    <mergeCell ref="A2025:C2025"/>
-    <mergeCell ref="A2026:C2026"/>
-    <mergeCell ref="A2009:C2009"/>
-    <mergeCell ref="A2010:C2010"/>
-    <mergeCell ref="A2011:C2011"/>
-    <mergeCell ref="A2012:C2012"/>
-    <mergeCell ref="A2013:C2013"/>
-    <mergeCell ref="A2014:C2014"/>
-    <mergeCell ref="A2015:C2015"/>
-    <mergeCell ref="A2016:C2016"/>
-    <mergeCell ref="A2017:C2017"/>
-    <mergeCell ref="A2000:C2000"/>
-    <mergeCell ref="A2001:C2001"/>
-    <mergeCell ref="A2002:C2002"/>
-    <mergeCell ref="A2003:C2003"/>
-    <mergeCell ref="A2004:C2004"/>
-    <mergeCell ref="A2005:C2005"/>
-    <mergeCell ref="A2006:C2006"/>
-    <mergeCell ref="A2007:C2007"/>
-    <mergeCell ref="A2008:C2008"/>
-    <mergeCell ref="A1991:C1991"/>
-    <mergeCell ref="A1992:C1992"/>
-    <mergeCell ref="A1993:C1993"/>
-    <mergeCell ref="A1994:C1994"/>
-    <mergeCell ref="A1995:C1995"/>
-    <mergeCell ref="A1996:C1996"/>
-    <mergeCell ref="A1997:C1997"/>
-    <mergeCell ref="A1998:C1998"/>
-    <mergeCell ref="A1999:C1999"/>
-    <mergeCell ref="A1982:C1982"/>
-    <mergeCell ref="A1983:C1983"/>
-    <mergeCell ref="A1984:C1984"/>
-    <mergeCell ref="A1985:C1985"/>
-    <mergeCell ref="A1986:C1986"/>
-    <mergeCell ref="A1987:C1987"/>
-    <mergeCell ref="A1988:C1988"/>
-    <mergeCell ref="A1989:C1989"/>
-    <mergeCell ref="A1990:C1990"/>
-    <mergeCell ref="A1973:C1973"/>
-    <mergeCell ref="A1974:C1974"/>
-    <mergeCell ref="A1975:C1975"/>
-    <mergeCell ref="A1976:C1976"/>
-    <mergeCell ref="A1977:C1977"/>
-    <mergeCell ref="A1978:C1978"/>
-    <mergeCell ref="A1979:C1979"/>
-    <mergeCell ref="A1980:C1980"/>
-    <mergeCell ref="A1981:C1981"/>
-    <mergeCell ref="A1964:C1964"/>
-    <mergeCell ref="A1965:C1965"/>
-    <mergeCell ref="A1966:C1966"/>
-    <mergeCell ref="A1967:C1967"/>
-    <mergeCell ref="A1968:C1968"/>
-    <mergeCell ref="A1969:C1969"/>
-    <mergeCell ref="A1970:C1970"/>
-    <mergeCell ref="A1971:C1971"/>
-    <mergeCell ref="A1972:C1972"/>
-    <mergeCell ref="A1955:C1955"/>
-    <mergeCell ref="A1956:C1956"/>
-    <mergeCell ref="A1957:C1957"/>
-    <mergeCell ref="A1958:C1958"/>
-    <mergeCell ref="A1959:C1959"/>
-    <mergeCell ref="A1960:C1960"/>
-    <mergeCell ref="A1961:C1961"/>
-    <mergeCell ref="A1962:C1962"/>
-    <mergeCell ref="A1963:C1963"/>
-    <mergeCell ref="A1946:C1946"/>
-    <mergeCell ref="A1947:C1947"/>
-    <mergeCell ref="A1948:C1948"/>
-    <mergeCell ref="A1949:C1949"/>
-    <mergeCell ref="A1950:C1950"/>
-    <mergeCell ref="A1951:C1951"/>
-    <mergeCell ref="A1952:C1952"/>
-    <mergeCell ref="A1953:C1953"/>
-    <mergeCell ref="A1954:C1954"/>
-    <mergeCell ref="A1937:C1937"/>
-    <mergeCell ref="A1938:C1938"/>
-    <mergeCell ref="A1939:C1939"/>
-    <mergeCell ref="A1940:C1940"/>
-    <mergeCell ref="A1941:C1941"/>
-    <mergeCell ref="A1942:C1942"/>
-    <mergeCell ref="A1943:C1943"/>
-    <mergeCell ref="A1944:C1944"/>
-    <mergeCell ref="A1945:C1945"/>
-    <mergeCell ref="A1928:C1928"/>
-    <mergeCell ref="A1929:C1929"/>
-    <mergeCell ref="A1930:C1930"/>
-    <mergeCell ref="A1931:C1931"/>
-    <mergeCell ref="A1932:C1932"/>
-    <mergeCell ref="A1933:C1933"/>
-    <mergeCell ref="A1934:C1934"/>
-    <mergeCell ref="A1935:C1935"/>
-    <mergeCell ref="A1936:C1936"/>
-    <mergeCell ref="A1919:C1919"/>
-    <mergeCell ref="A1920:C1920"/>
-    <mergeCell ref="A1921:C1921"/>
-    <mergeCell ref="A1922:C1922"/>
-    <mergeCell ref="A1923:C1923"/>
-    <mergeCell ref="A1924:C1924"/>
-    <mergeCell ref="A1925:C1925"/>
-    <mergeCell ref="A1926:C1926"/>
-    <mergeCell ref="A1927:C1927"/>
-    <mergeCell ref="A1910:C1910"/>
-    <mergeCell ref="A1911:C1911"/>
-    <mergeCell ref="A1912:C1912"/>
-    <mergeCell ref="A1913:C1913"/>
-    <mergeCell ref="A1914:C1914"/>
-    <mergeCell ref="A1915:C1915"/>
-    <mergeCell ref="A1916:C1916"/>
-    <mergeCell ref="A1917:C1917"/>
-    <mergeCell ref="A1918:C1918"/>
-    <mergeCell ref="A1901:C1901"/>
-    <mergeCell ref="A1902:C1902"/>
-    <mergeCell ref="A1903:C1903"/>
-    <mergeCell ref="A1904:C1904"/>
-    <mergeCell ref="A1905:C1905"/>
-    <mergeCell ref="A1906:C1906"/>
-    <mergeCell ref="A1907:C1907"/>
-    <mergeCell ref="A1908:C1908"/>
-    <mergeCell ref="A1909:C1909"/>
-    <mergeCell ref="A1892:C1892"/>
-    <mergeCell ref="A1893:C1893"/>
-    <mergeCell ref="A1894:C1894"/>
-    <mergeCell ref="A1895:C1895"/>
-    <mergeCell ref="A1896:C1896"/>
-    <mergeCell ref="A1897:C1897"/>
-    <mergeCell ref="A1898:C1898"/>
-    <mergeCell ref="A1899:C1899"/>
-    <mergeCell ref="A1900:C1900"/>
-    <mergeCell ref="A1883:C1883"/>
-    <mergeCell ref="A1884:C1884"/>
-    <mergeCell ref="A1885:C1885"/>
-    <mergeCell ref="A1886:C1886"/>
-    <mergeCell ref="A1887:C1887"/>
-    <mergeCell ref="A1888:C1888"/>
-    <mergeCell ref="A1889:C1889"/>
-    <mergeCell ref="A1890:C1890"/>
-    <mergeCell ref="A1891:C1891"/>
-    <mergeCell ref="A1874:C1874"/>
-    <mergeCell ref="A1875:C1875"/>
-    <mergeCell ref="A1876:C1876"/>
-    <mergeCell ref="A1877:C1877"/>
-    <mergeCell ref="A1878:C1878"/>
-    <mergeCell ref="A1879:C1879"/>
-    <mergeCell ref="A1880:C1880"/>
-    <mergeCell ref="A1881:C1881"/>
-    <mergeCell ref="A1882:C1882"/>
-    <mergeCell ref="A1865:C1865"/>
-    <mergeCell ref="A1866:C1866"/>
-    <mergeCell ref="A1867:C1867"/>
-    <mergeCell ref="A1868:C1868"/>
-    <mergeCell ref="A1869:C1869"/>
-    <mergeCell ref="A1870:C1870"/>
-    <mergeCell ref="A1871:C1871"/>
-    <mergeCell ref="A1872:C1872"/>
-    <mergeCell ref="A1873:C1873"/>
-    <mergeCell ref="A1856:C1856"/>
-    <mergeCell ref="A1857:C1857"/>
-    <mergeCell ref="A1858:C1858"/>
-    <mergeCell ref="A1859:C1859"/>
-    <mergeCell ref="A1860:C1860"/>
-    <mergeCell ref="A1861:C1861"/>
-    <mergeCell ref="A1862:C1862"/>
-    <mergeCell ref="A1863:C1863"/>
-    <mergeCell ref="A1864:C1864"/>
-    <mergeCell ref="A1847:C1847"/>
-    <mergeCell ref="A1848:C1848"/>
-    <mergeCell ref="A1849:C1849"/>
-    <mergeCell ref="A1850:C1850"/>
-    <mergeCell ref="A1851:C1851"/>
-    <mergeCell ref="A1852:C1852"/>
-    <mergeCell ref="A1853:C1853"/>
-    <mergeCell ref="A1854:C1854"/>
-    <mergeCell ref="A1855:C1855"/>
-    <mergeCell ref="A1838:C1838"/>
-    <mergeCell ref="A1839:C1839"/>
-    <mergeCell ref="A1840:C1840"/>
-    <mergeCell ref="A1841:C1841"/>
-    <mergeCell ref="A1842:C1842"/>
-    <mergeCell ref="A1843:C1843"/>
-    <mergeCell ref="A1844:C1844"/>
-    <mergeCell ref="A1845:C1845"/>
-    <mergeCell ref="A1846:C1846"/>
-    <mergeCell ref="A1829:C1829"/>
-    <mergeCell ref="A1830:C1830"/>
-    <mergeCell ref="A1831:C1831"/>
-    <mergeCell ref="A1832:C1832"/>
-    <mergeCell ref="A1833:C1833"/>
-    <mergeCell ref="A1834:C1834"/>
-    <mergeCell ref="A1835:C1835"/>
-    <mergeCell ref="A1836:C1836"/>
-    <mergeCell ref="A1837:C1837"/>
-    <mergeCell ref="A1820:C1820"/>
-    <mergeCell ref="A1821:C1821"/>
-    <mergeCell ref="A1822:C1822"/>
-    <mergeCell ref="A1823:C1823"/>
-    <mergeCell ref="A1824:C1824"/>
-    <mergeCell ref="A1825:C1825"/>
-    <mergeCell ref="A1826:C1826"/>
-    <mergeCell ref="A1827:C1827"/>
-    <mergeCell ref="A1828:C1828"/>
-    <mergeCell ref="A1811:C1811"/>
-    <mergeCell ref="A1812:C1812"/>
-    <mergeCell ref="A1813:C1813"/>
-    <mergeCell ref="A1814:C1814"/>
-    <mergeCell ref="A1815:C1815"/>
-    <mergeCell ref="A1816:C1816"/>
-    <mergeCell ref="A1817:C1817"/>
-    <mergeCell ref="A1818:C1818"/>
-    <mergeCell ref="A1819:C1819"/>
-    <mergeCell ref="A1802:C1802"/>
-    <mergeCell ref="A1803:C1803"/>
-    <mergeCell ref="A1804:C1804"/>
-    <mergeCell ref="A1805:C1805"/>
-    <mergeCell ref="A1806:C1806"/>
-    <mergeCell ref="A1807:C1807"/>
-    <mergeCell ref="A1808:C1808"/>
-    <mergeCell ref="A1809:C1809"/>
-    <mergeCell ref="A1810:C1810"/>
-    <mergeCell ref="A1793:C1793"/>
-    <mergeCell ref="A1794:C1794"/>
-    <mergeCell ref="A1795:C1795"/>
-    <mergeCell ref="A1796:C1796"/>
-    <mergeCell ref="A1797:C1797"/>
-    <mergeCell ref="A1798:C1798"/>
-    <mergeCell ref="A1799:C1799"/>
-    <mergeCell ref="A1800:C1800"/>
-    <mergeCell ref="A1801:C1801"/>
-    <mergeCell ref="A1784:C1784"/>
-    <mergeCell ref="A1785:C1785"/>
-    <mergeCell ref="A1786:C1786"/>
-    <mergeCell ref="A1787:C1787"/>
-    <mergeCell ref="A1788:C1788"/>
-    <mergeCell ref="A1789:C1789"/>
-    <mergeCell ref="A1790:C1790"/>
-    <mergeCell ref="A1791:C1791"/>
-    <mergeCell ref="A1792:C1792"/>
-    <mergeCell ref="A1775:C1775"/>
-    <mergeCell ref="A1776:C1776"/>
-    <mergeCell ref="A1777:C1777"/>
-    <mergeCell ref="A1778:C1778"/>
-    <mergeCell ref="A1779:C1779"/>
-    <mergeCell ref="A1780:C1780"/>
-    <mergeCell ref="A1781:C1781"/>
-    <mergeCell ref="A1782:C1782"/>
-    <mergeCell ref="A1783:C1783"/>
-    <mergeCell ref="A1766:C1766"/>
-    <mergeCell ref="A1767:C1767"/>
-    <mergeCell ref="A1768:C1768"/>
-    <mergeCell ref="A1769:C1769"/>
-    <mergeCell ref="A1770:C1770"/>
-    <mergeCell ref="A1771:C1771"/>
-    <mergeCell ref="A1772:C1772"/>
-    <mergeCell ref="A1773:C1773"/>
-    <mergeCell ref="A1774:C1774"/>
-    <mergeCell ref="A1757:C1757"/>
-    <mergeCell ref="A1758:C1758"/>
-    <mergeCell ref="A1759:C1759"/>
-    <mergeCell ref="A1760:C1760"/>
-    <mergeCell ref="A1761:C1761"/>
-    <mergeCell ref="A1762:C1762"/>
-    <mergeCell ref="A1763:C1763"/>
-    <mergeCell ref="A1764:C1764"/>
-    <mergeCell ref="A1765:C1765"/>
-    <mergeCell ref="A1748:C1748"/>
-    <mergeCell ref="A1749:C1749"/>
-    <mergeCell ref="A1750:C1750"/>
-    <mergeCell ref="A1751:C1751"/>
-    <mergeCell ref="A1752:C1752"/>
-    <mergeCell ref="A1753:C1753"/>
-    <mergeCell ref="A1754:C1754"/>
-    <mergeCell ref="A1755:C1755"/>
-    <mergeCell ref="A1756:C1756"/>
-    <mergeCell ref="A1739:C1739"/>
-    <mergeCell ref="A1740:C1740"/>
-    <mergeCell ref="A1741:C1741"/>
-    <mergeCell ref="A1742:C1742"/>
-    <mergeCell ref="A1743:C1743"/>
-    <mergeCell ref="A1744:C1744"/>
-    <mergeCell ref="A1745:C1745"/>
-    <mergeCell ref="A1746:C1746"/>
-    <mergeCell ref="A1747:C1747"/>
-    <mergeCell ref="A1730:C1730"/>
-    <mergeCell ref="A1731:C1731"/>
-    <mergeCell ref="A1732:C1732"/>
-    <mergeCell ref="A1733:C1733"/>
-    <mergeCell ref="A1734:C1734"/>
-    <mergeCell ref="A1735:C1735"/>
-    <mergeCell ref="A1736:C1736"/>
-    <mergeCell ref="A1737:C1737"/>
-    <mergeCell ref="A1738:C1738"/>
-    <mergeCell ref="A1721:C1721"/>
-    <mergeCell ref="A1722:C1722"/>
-    <mergeCell ref="A1723:C1723"/>
-    <mergeCell ref="A1724:C1724"/>
-    <mergeCell ref="A1725:C1725"/>
-    <mergeCell ref="A1726:C1726"/>
-    <mergeCell ref="A1727:C1727"/>
-    <mergeCell ref="A1728:C1728"/>
-    <mergeCell ref="A1729:C1729"/>
-    <mergeCell ref="A1712:C1712"/>
-    <mergeCell ref="A1713:C1713"/>
-    <mergeCell ref="A1714:C1714"/>
-    <mergeCell ref="A1715:C1715"/>
-    <mergeCell ref="A1716:C1716"/>
-    <mergeCell ref="A1717:C1717"/>
-    <mergeCell ref="A1718:C1718"/>
-    <mergeCell ref="A1719:C1719"/>
-    <mergeCell ref="A1720:C1720"/>
-    <mergeCell ref="A1703:C1703"/>
-    <mergeCell ref="A1704:C1704"/>
-    <mergeCell ref="A1705:C1705"/>
-    <mergeCell ref="A1706:C1706"/>
-    <mergeCell ref="A1707:C1707"/>
-    <mergeCell ref="A1708:C1708"/>
-    <mergeCell ref="A1709:C1709"/>
-    <mergeCell ref="A1710:C1710"/>
-    <mergeCell ref="A1711:C1711"/>
-    <mergeCell ref="A1694:C1694"/>
-    <mergeCell ref="A1695:C1695"/>
-    <mergeCell ref="A1696:C1696"/>
-    <mergeCell ref="A1697:C1697"/>
-    <mergeCell ref="A1698:C1698"/>
-    <mergeCell ref="A1699:C1699"/>
-    <mergeCell ref="A1700:C1700"/>
-    <mergeCell ref="A1701:C1701"/>
-    <mergeCell ref="A1702:C1702"/>
-    <mergeCell ref="A1685:C1685"/>
-    <mergeCell ref="A1686:C1686"/>
-    <mergeCell ref="A1687:C1687"/>
-    <mergeCell ref="A1688:C1688"/>
-    <mergeCell ref="A1689:C1689"/>
-    <mergeCell ref="A1690:C1690"/>
-    <mergeCell ref="A1691:C1691"/>
-    <mergeCell ref="A1692:C1692"/>
-    <mergeCell ref="A1693:C1693"/>
-    <mergeCell ref="A1676:C1676"/>
-    <mergeCell ref="A1677:C1677"/>
-    <mergeCell ref="A1678:C1678"/>
-    <mergeCell ref="A1679:C1679"/>
-    <mergeCell ref="A1680:C1680"/>
-    <mergeCell ref="A1681:C1681"/>
-    <mergeCell ref="A1682:C1682"/>
-    <mergeCell ref="A1683:C1683"/>
-    <mergeCell ref="A1684:C1684"/>
-    <mergeCell ref="A1667:C1667"/>
-    <mergeCell ref="A1668:C1668"/>
-    <mergeCell ref="A1669:C1669"/>
-    <mergeCell ref="A1670:C1670"/>
-    <mergeCell ref="A1671:C1671"/>
-    <mergeCell ref="A1672:C1672"/>
-    <mergeCell ref="A1673:C1673"/>
-    <mergeCell ref="A1674:C1674"/>
-    <mergeCell ref="A1675:C1675"/>
-    <mergeCell ref="A1658:C1658"/>
-    <mergeCell ref="A1659:C1659"/>
-    <mergeCell ref="A1660:C1660"/>
-    <mergeCell ref="A1661:C1661"/>
-    <mergeCell ref="A1662:C1662"/>
-    <mergeCell ref="A1663:C1663"/>
-    <mergeCell ref="A1664:C1664"/>
-    <mergeCell ref="A1665:C1665"/>
-    <mergeCell ref="A1666:C1666"/>
-    <mergeCell ref="A1649:C1649"/>
-    <mergeCell ref="A1650:C1650"/>
-    <mergeCell ref="A1651:C1651"/>
-    <mergeCell ref="A1652:C1652"/>
-    <mergeCell ref="A1653:C1653"/>
-    <mergeCell ref="A1654:C1654"/>
-    <mergeCell ref="A1655:C1655"/>
-    <mergeCell ref="A1656:C1656"/>
-    <mergeCell ref="A1657:C1657"/>
-    <mergeCell ref="A1640:C1640"/>
-    <mergeCell ref="A1641:C1641"/>
-    <mergeCell ref="A1642:C1642"/>
-    <mergeCell ref="A1643:C1643"/>
-    <mergeCell ref="A1644:C1644"/>
-    <mergeCell ref="A1645:C1645"/>
-    <mergeCell ref="A1646:C1646"/>
-    <mergeCell ref="A1647:C1647"/>
-    <mergeCell ref="A1648:C1648"/>
-    <mergeCell ref="A1631:C1631"/>
-    <mergeCell ref="A1632:C1632"/>
-    <mergeCell ref="A1633:C1633"/>
-    <mergeCell ref="A1634:C1634"/>
-    <mergeCell ref="A1635:C1635"/>
-    <mergeCell ref="A1636:C1636"/>
-    <mergeCell ref="A1637:C1637"/>
-    <mergeCell ref="A1638:C1638"/>
-    <mergeCell ref="A1639:C1639"/>
-    <mergeCell ref="A1622:C1622"/>
-    <mergeCell ref="A1623:C1623"/>
-    <mergeCell ref="A1624:C1624"/>
-    <mergeCell ref="A1625:C1625"/>
-    <mergeCell ref="A1626:C1626"/>
-    <mergeCell ref="A1627:C1627"/>
-    <mergeCell ref="A1628:C1628"/>
-    <mergeCell ref="A1629:C1629"/>
-    <mergeCell ref="A1630:C1630"/>
-    <mergeCell ref="A1613:C1613"/>
-    <mergeCell ref="A1614:C1614"/>
-    <mergeCell ref="A1615:C1615"/>
-    <mergeCell ref="A1616:C1616"/>
-    <mergeCell ref="A1617:C1617"/>
-    <mergeCell ref="A1618:C1618"/>
-    <mergeCell ref="A1619:C1619"/>
-    <mergeCell ref="A1620:C1620"/>
-    <mergeCell ref="A1621:C1621"/>
-    <mergeCell ref="A1604:C1604"/>
-    <mergeCell ref="A1605:C1605"/>
-    <mergeCell ref="A1606:C1606"/>
-    <mergeCell ref="A1607:C1607"/>
-    <mergeCell ref="A1608:C1608"/>
-    <mergeCell ref="A1609:C1609"/>
-    <mergeCell ref="A1610:C1610"/>
-    <mergeCell ref="A1611:C1611"/>
-    <mergeCell ref="A1612:C1612"/>
-    <mergeCell ref="A1595:C1595"/>
-    <mergeCell ref="A1596:C1596"/>
-    <mergeCell ref="A1597:C1597"/>
-    <mergeCell ref="A1598:C1598"/>
-    <mergeCell ref="A1599:C1599"/>
-    <mergeCell ref="A1600:C1600"/>
-    <mergeCell ref="A1601:C1601"/>
-    <mergeCell ref="A1602:C1602"/>
-    <mergeCell ref="A1603:C1603"/>
-    <mergeCell ref="A1586:C1586"/>
-    <mergeCell ref="A1587:C1587"/>
-    <mergeCell ref="A1588:C1588"/>
-    <mergeCell ref="A1589:C1589"/>
-    <mergeCell ref="A1590:C1590"/>
-    <mergeCell ref="A1591:C1591"/>
-    <mergeCell ref="A1592:C1592"/>
-    <mergeCell ref="A1593:C1593"/>
-    <mergeCell ref="A1594:C1594"/>
-    <mergeCell ref="A1577:C1577"/>
-    <mergeCell ref="A1578:C1578"/>
-    <mergeCell ref="A1579:C1579"/>
-    <mergeCell ref="A1580:C1580"/>
-    <mergeCell ref="A1581:C1581"/>
-    <mergeCell ref="A1582:C1582"/>
-    <mergeCell ref="A1583:C1583"/>
-    <mergeCell ref="A1584:C1584"/>
-    <mergeCell ref="A1585:C1585"/>
-    <mergeCell ref="A1568:C1568"/>
-    <mergeCell ref="A1569:C1569"/>
-    <mergeCell ref="A1570:C1570"/>
-    <mergeCell ref="A1571:C1571"/>
-    <mergeCell ref="A1572:C1572"/>
-    <mergeCell ref="A1573:C1573"/>
-    <mergeCell ref="A1574:C1574"/>
-    <mergeCell ref="A1575:C1575"/>
-    <mergeCell ref="A1576:C1576"/>
-    <mergeCell ref="A1559:C1559"/>
-    <mergeCell ref="A1560:C1560"/>
-    <mergeCell ref="A1561:C1561"/>
-    <mergeCell ref="A1562:C1562"/>
-    <mergeCell ref="A1563:C1563"/>
-    <mergeCell ref="A1564:C1564"/>
-    <mergeCell ref="A1565:C1565"/>
-    <mergeCell ref="A1566:C1566"/>
-    <mergeCell ref="A1567:C1567"/>
-    <mergeCell ref="A1550:C1550"/>
-    <mergeCell ref="A1551:C1551"/>
-    <mergeCell ref="A1552:C1552"/>
-    <mergeCell ref="A1553:C1553"/>
-    <mergeCell ref="A1554:C1554"/>
-    <mergeCell ref="A1555:C1555"/>
-    <mergeCell ref="A1556:C1556"/>
-    <mergeCell ref="A1557:C1557"/>
-    <mergeCell ref="A1558:C1558"/>
-    <mergeCell ref="A1541:C1541"/>
-    <mergeCell ref="A1542:C1542"/>
-    <mergeCell ref="A1543:C1543"/>
-    <mergeCell ref="A1544:C1544"/>
-    <mergeCell ref="A1545:C1545"/>
-    <mergeCell ref="A1546:C1546"/>
-    <mergeCell ref="A1547:C1547"/>
-    <mergeCell ref="A1548:C1548"/>
-    <mergeCell ref="A1549:C1549"/>
-    <mergeCell ref="A1532:C1532"/>
-    <mergeCell ref="A1533:C1533"/>
-    <mergeCell ref="A1534:C1534"/>
-    <mergeCell ref="A1535:C1535"/>
-    <mergeCell ref="A1536:C1536"/>
-    <mergeCell ref="A1537:C1537"/>
-    <mergeCell ref="A1538:C1538"/>
-    <mergeCell ref="A1539:C1539"/>
-    <mergeCell ref="A1540:C1540"/>
-    <mergeCell ref="A1523:C1523"/>
-    <mergeCell ref="A1524:C1524"/>
-    <mergeCell ref="A1525:C1525"/>
-    <mergeCell ref="A1526:C1526"/>
-    <mergeCell ref="A1527:C1527"/>
-    <mergeCell ref="A1528:C1528"/>
-    <mergeCell ref="A1529:C1529"/>
-    <mergeCell ref="A1530:C1530"/>
-    <mergeCell ref="A1531:C1531"/>
-    <mergeCell ref="A1514:C1514"/>
-    <mergeCell ref="A1515:C1515"/>
-    <mergeCell ref="A1516:C1516"/>
-    <mergeCell ref="A1517:C1517"/>
-    <mergeCell ref="A1518:C1518"/>
-    <mergeCell ref="A1519:C1519"/>
-    <mergeCell ref="A1520:C1520"/>
-    <mergeCell ref="A1521:C1521"/>
-    <mergeCell ref="A1522:C1522"/>
-    <mergeCell ref="A1505:C1505"/>
-    <mergeCell ref="A1506:C1506"/>
-    <mergeCell ref="A1507:C1507"/>
-    <mergeCell ref="A1508:C1508"/>
-    <mergeCell ref="A1509:C1509"/>
-    <mergeCell ref="A1510:C1510"/>
-    <mergeCell ref="A1511:C1511"/>
-    <mergeCell ref="A1512:C1512"/>
-    <mergeCell ref="A1513:C1513"/>
-    <mergeCell ref="A1496:C1496"/>
-    <mergeCell ref="A1497:C1497"/>
-    <mergeCell ref="A1498:C1498"/>
-    <mergeCell ref="A1499:C1499"/>
-    <mergeCell ref="A1500:C1500"/>
-    <mergeCell ref="A1501:C1501"/>
-    <mergeCell ref="A1502:C1502"/>
-    <mergeCell ref="A1503:C1503"/>
-    <mergeCell ref="A1504:C1504"/>
-    <mergeCell ref="A1487:C1487"/>
-    <mergeCell ref="A1488:C1488"/>
-    <mergeCell ref="A1489:C1489"/>
-    <mergeCell ref="A1490:C1490"/>
-    <mergeCell ref="A1491:C1491"/>
-    <mergeCell ref="A1492:C1492"/>
-    <mergeCell ref="A1493:C1493"/>
-    <mergeCell ref="A1494:C1494"/>
-    <mergeCell ref="A1495:C1495"/>
-    <mergeCell ref="A1478:C1478"/>
-    <mergeCell ref="A1479:C1479"/>
-    <mergeCell ref="A1480:C1480"/>
-    <mergeCell ref="A1481:C1481"/>
-    <mergeCell ref="A1482:C1482"/>
-    <mergeCell ref="A1483:C1483"/>
-    <mergeCell ref="A1484:C1484"/>
-    <mergeCell ref="A1485:C1485"/>
-    <mergeCell ref="A1486:C1486"/>
-    <mergeCell ref="A1469:C1469"/>
-    <mergeCell ref="A1470:C1470"/>
-    <mergeCell ref="A1471:C1471"/>
-    <mergeCell ref="A1472:C1472"/>
-    <mergeCell ref="A1473:C1473"/>
-    <mergeCell ref="A1474:C1474"/>
-    <mergeCell ref="A1475:C1475"/>
-    <mergeCell ref="A1476:C1476"/>
-    <mergeCell ref="A1477:C1477"/>
-    <mergeCell ref="A1460:C1460"/>
-    <mergeCell ref="A1461:C1461"/>
-    <mergeCell ref="A1462:C1462"/>
-    <mergeCell ref="A1463:C1463"/>
-    <mergeCell ref="A1464:C1464"/>
-    <mergeCell ref="A1465:C1465"/>
-    <mergeCell ref="A1466:C1466"/>
-    <mergeCell ref="A1467:C1467"/>
-    <mergeCell ref="A1468:C1468"/>
-    <mergeCell ref="A1451:C1451"/>
-    <mergeCell ref="A1452:C1452"/>
-    <mergeCell ref="A1453:C1453"/>
-    <mergeCell ref="A1454:C1454"/>
-    <mergeCell ref="A1455:C1455"/>
-    <mergeCell ref="A1456:C1456"/>
-    <mergeCell ref="A1457:C1457"/>
-    <mergeCell ref="A1458:C1458"/>
-    <mergeCell ref="A1459:C1459"/>
-    <mergeCell ref="A1442:C1442"/>
-    <mergeCell ref="A1443:C1443"/>
-    <mergeCell ref="A1444:C1444"/>
-    <mergeCell ref="A1445:C1445"/>
-    <mergeCell ref="A1446:C1446"/>
-    <mergeCell ref="A1447:C1447"/>
-    <mergeCell ref="A1448:C1448"/>
-    <mergeCell ref="A1449:C1449"/>
-    <mergeCell ref="A1450:C1450"/>
-    <mergeCell ref="A1433:C1433"/>
-    <mergeCell ref="A1434:C1434"/>
-    <mergeCell ref="A1435:C1435"/>
-    <mergeCell ref="A1436:C1436"/>
-    <mergeCell ref="A1437:C1437"/>
-    <mergeCell ref="A1438:C1438"/>
-    <mergeCell ref="A1439:C1439"/>
-    <mergeCell ref="A1440:C1440"/>
-    <mergeCell ref="A1441:C1441"/>
-    <mergeCell ref="A1424:C1424"/>
-    <mergeCell ref="A1425:C1425"/>
-    <mergeCell ref="A1426:C1426"/>
-    <mergeCell ref="A1427:C1427"/>
-    <mergeCell ref="A1428:C1428"/>
-    <mergeCell ref="A1429:C1429"/>
-    <mergeCell ref="A1430:C1430"/>
-    <mergeCell ref="A1431:C1431"/>
-    <mergeCell ref="A1432:C1432"/>
-    <mergeCell ref="A1415:C1415"/>
-    <mergeCell ref="A1416:C1416"/>
-    <mergeCell ref="A1417:C1417"/>
-    <mergeCell ref="A1418:C1418"/>
-    <mergeCell ref="A1419:C1419"/>
-    <mergeCell ref="A1420:C1420"/>
-    <mergeCell ref="A1421:C1421"/>
-    <mergeCell ref="A1422:C1422"/>
-    <mergeCell ref="A1423:C1423"/>
-    <mergeCell ref="A1406:C1406"/>
-    <mergeCell ref="A1407:C1407"/>
-    <mergeCell ref="A1408:C1408"/>
-    <mergeCell ref="A1409:C1409"/>
-    <mergeCell ref="A1410:C1410"/>
-    <mergeCell ref="A1411:C1411"/>
-    <mergeCell ref="A1412:C1412"/>
-    <mergeCell ref="A1413:C1413"/>
-    <mergeCell ref="A1414:C1414"/>
-    <mergeCell ref="A1397:C1397"/>
-    <mergeCell ref="A1398:C1398"/>
-    <mergeCell ref="A1399:C1399"/>
-    <mergeCell ref="A1400:C1400"/>
-    <mergeCell ref="A1401:C1401"/>
-    <mergeCell ref="A1402:C1402"/>
-    <mergeCell ref="A1403:C1403"/>
-    <mergeCell ref="A1404:C1404"/>
-    <mergeCell ref="A1405:C1405"/>
-    <mergeCell ref="A1388:C1388"/>
-    <mergeCell ref="A1389:C1389"/>
-    <mergeCell ref="A1390:C1390"/>
-    <mergeCell ref="A1391:C1391"/>
-    <mergeCell ref="A1392:C1392"/>
-    <mergeCell ref="A1393:C1393"/>
-    <mergeCell ref="A1394:C1394"/>
-    <mergeCell ref="A1395:C1395"/>
-    <mergeCell ref="A1396:C1396"/>
-    <mergeCell ref="A1379:C1379"/>
-    <mergeCell ref="A1380:C1380"/>
-    <mergeCell ref="A1381:C1381"/>
-    <mergeCell ref="A1382:C1382"/>
-    <mergeCell ref="A1383:C1383"/>
-    <mergeCell ref="A1384:C1384"/>
-    <mergeCell ref="A1385:C1385"/>
-    <mergeCell ref="A1386:C1386"/>
-    <mergeCell ref="A1387:C1387"/>
-    <mergeCell ref="A1370:C1370"/>
-    <mergeCell ref="A1371:C1371"/>
-    <mergeCell ref="A1372:C1372"/>
-    <mergeCell ref="A1373:C1373"/>
-    <mergeCell ref="A1374:C1374"/>
-    <mergeCell ref="A1375:C1375"/>
-    <mergeCell ref="A1376:C1376"/>
-    <mergeCell ref="A1377:C1377"/>
-    <mergeCell ref="A1378:C1378"/>
-    <mergeCell ref="A1361:C1361"/>
-    <mergeCell ref="A1362:C1362"/>
-    <mergeCell ref="A1363:C1363"/>
-    <mergeCell ref="A1364:C1364"/>
-    <mergeCell ref="A1365:C1365"/>
-    <mergeCell ref="A1366:C1366"/>
-    <mergeCell ref="A1367:C1367"/>
-    <mergeCell ref="A1368:C1368"/>
-    <mergeCell ref="A1369:C1369"/>
-    <mergeCell ref="A1352:C1352"/>
-    <mergeCell ref="A1353:C1353"/>
-    <mergeCell ref="A1354:C1354"/>
-    <mergeCell ref="A1355:C1355"/>
-    <mergeCell ref="A1356:C1356"/>
-    <mergeCell ref="A1357:C1357"/>
-    <mergeCell ref="A1358:C1358"/>
-    <mergeCell ref="A1359:C1359"/>
-    <mergeCell ref="A1360:C1360"/>
-    <mergeCell ref="A1343:C1343"/>
-    <mergeCell ref="A1344:C1344"/>
-    <mergeCell ref="A1345:C1345"/>
-    <mergeCell ref="A1346:C1346"/>
-    <mergeCell ref="A1347:C1347"/>
-    <mergeCell ref="A1348:C1348"/>
-    <mergeCell ref="A1349:C1349"/>
-    <mergeCell ref="A1350:C1350"/>
-    <mergeCell ref="A1351:C1351"/>
-    <mergeCell ref="A1334:C1334"/>
-    <mergeCell ref="A1335:C1335"/>
-    <mergeCell ref="A1336:C1336"/>
-    <mergeCell ref="A1337:C1337"/>
-    <mergeCell ref="A1338:C1338"/>
-    <mergeCell ref="A1339:C1339"/>
-    <mergeCell ref="A1340:C1340"/>
-    <mergeCell ref="A1341:C1341"/>
-    <mergeCell ref="A1342:C1342"/>
-    <mergeCell ref="A1325:C1325"/>
-    <mergeCell ref="A1326:C1326"/>
-    <mergeCell ref="A1327:C1327"/>
-    <mergeCell ref="A1328:C1328"/>
-    <mergeCell ref="A1329:C1329"/>
-    <mergeCell ref="A1330:C1330"/>
-    <mergeCell ref="A1331:C1331"/>
-    <mergeCell ref="A1332:C1332"/>
-    <mergeCell ref="A1333:C1333"/>
-    <mergeCell ref="A1316:C1316"/>
-    <mergeCell ref="A1317:C1317"/>
-    <mergeCell ref="A1318:C1318"/>
-    <mergeCell ref="A1319:C1319"/>
-    <mergeCell ref="A1320:C1320"/>
-    <mergeCell ref="A1321:C1321"/>
-    <mergeCell ref="A1322:C1322"/>
-    <mergeCell ref="A1323:C1323"/>
-    <mergeCell ref="A1324:C1324"/>
-    <mergeCell ref="A1307:C1307"/>
-    <mergeCell ref="A1308:C1308"/>
-    <mergeCell ref="A1309:C1309"/>
-    <mergeCell ref="A1310:C1310"/>
-    <mergeCell ref="A1311:C1311"/>
-    <mergeCell ref="A1312:C1312"/>
-    <mergeCell ref="A1313:C1313"/>
-    <mergeCell ref="A1314:C1314"/>
-    <mergeCell ref="A1315:C1315"/>
-    <mergeCell ref="A1298:C1298"/>
-    <mergeCell ref="A1299:C1299"/>
-    <mergeCell ref="A1300:C1300"/>
-    <mergeCell ref="A1301:C1301"/>
-    <mergeCell ref="A1302:C1302"/>
-    <mergeCell ref="A1303:C1303"/>
-    <mergeCell ref="A1304:C1304"/>
-    <mergeCell ref="A1305:C1305"/>
-    <mergeCell ref="A1306:C1306"/>
-    <mergeCell ref="A1289:C1289"/>
-    <mergeCell ref="A1290:C1290"/>
-    <mergeCell ref="A1291:C1291"/>
-    <mergeCell ref="A1292:C1292"/>
-    <mergeCell ref="A1293:C1293"/>
-    <mergeCell ref="A1294:C1294"/>
-    <mergeCell ref="A1295:C1295"/>
-    <mergeCell ref="A1296:C1296"/>
-    <mergeCell ref="A1297:C1297"/>
-    <mergeCell ref="A1280:C1280"/>
-    <mergeCell ref="A1281:C1281"/>
-    <mergeCell ref="A1282:C1282"/>
-    <mergeCell ref="A1283:C1283"/>
-    <mergeCell ref="A1284:C1284"/>
-    <mergeCell ref="A1285:C1285"/>
-    <mergeCell ref="A1286:C1286"/>
-    <mergeCell ref="A1287:C1287"/>
-    <mergeCell ref="A1288:C1288"/>
-    <mergeCell ref="A1271:C1271"/>
-    <mergeCell ref="A1272:C1272"/>
-    <mergeCell ref="A1273:C1273"/>
-    <mergeCell ref="A1274:C1274"/>
-    <mergeCell ref="A1275:C1275"/>
-    <mergeCell ref="A1276:C1276"/>
-    <mergeCell ref="A1277:C1277"/>
-    <mergeCell ref="A1278:C1278"/>
-    <mergeCell ref="A1279:C1279"/>
-    <mergeCell ref="A1262:C1262"/>
-    <mergeCell ref="A1263:C1263"/>
-    <mergeCell ref="A1264:C1264"/>
-    <mergeCell ref="A1265:C1265"/>
-    <mergeCell ref="A1266:C1266"/>
-    <mergeCell ref="A1267:C1267"/>
-    <mergeCell ref="A1268:C1268"/>
-    <mergeCell ref="A1269:C1269"/>
-    <mergeCell ref="A1270:C1270"/>
-    <mergeCell ref="A1253:C1253"/>
-    <mergeCell ref="A1254:C1254"/>
-    <mergeCell ref="A1255:C1255"/>
-    <mergeCell ref="A1256:C1256"/>
-    <mergeCell ref="A1257:C1257"/>
-    <mergeCell ref="A1258:C1258"/>
-    <mergeCell ref="A1259:C1259"/>
-    <mergeCell ref="A1260:C1260"/>
-    <mergeCell ref="A1261:C1261"/>
-    <mergeCell ref="A1244:C1244"/>
-    <mergeCell ref="A1245:C1245"/>
-    <mergeCell ref="A1246:C1246"/>
-    <mergeCell ref="A1247:C1247"/>
-    <mergeCell ref="A1248:C1248"/>
-    <mergeCell ref="A1249:C1249"/>
-    <mergeCell ref="A1250:C1250"/>
-    <mergeCell ref="A1251:C1251"/>
-    <mergeCell ref="A1252:C1252"/>
-    <mergeCell ref="A1235:C1235"/>
-    <mergeCell ref="A1236:C1236"/>
-    <mergeCell ref="A1237:C1237"/>
-    <mergeCell ref="A1238:C1238"/>
-    <mergeCell ref="A1239:C1239"/>
-    <mergeCell ref="A1240:C1240"/>
-    <mergeCell ref="A1241:C1241"/>
-    <mergeCell ref="A1242:C1242"/>
-    <mergeCell ref="A1243:C1243"/>
-    <mergeCell ref="A1226:C1226"/>
-    <mergeCell ref="A1227:C1227"/>
-    <mergeCell ref="A1228:C1228"/>
-    <mergeCell ref="A1229:C1229"/>
-    <mergeCell ref="A1230:C1230"/>
-    <mergeCell ref="A1231:C1231"/>
-    <mergeCell ref="A1232:C1232"/>
-    <mergeCell ref="A1233:C1233"/>
-    <mergeCell ref="A1234:C1234"/>
-    <mergeCell ref="A1217:C1217"/>
-    <mergeCell ref="A1218:C1218"/>
-    <mergeCell ref="A1219:C1219"/>
-    <mergeCell ref="A1220:C1220"/>
-    <mergeCell ref="A1221:C1221"/>
-    <mergeCell ref="A1222:C1222"/>
-    <mergeCell ref="A1223:C1223"/>
-    <mergeCell ref="A1224:C1224"/>
-    <mergeCell ref="A1225:C1225"/>
-    <mergeCell ref="A1208:C1208"/>
-    <mergeCell ref="A1209:C1209"/>
-    <mergeCell ref="A1210:C1210"/>
-    <mergeCell ref="A1211:C1211"/>
-    <mergeCell ref="A1212:C1212"/>
-    <mergeCell ref="A1213:C1213"/>
-    <mergeCell ref="A1214:C1214"/>
-    <mergeCell ref="A1215:C1215"/>
-    <mergeCell ref="A1216:C1216"/>
-    <mergeCell ref="A1199:C1199"/>
-    <mergeCell ref="A1200:C1200"/>
-    <mergeCell ref="A1201:C1201"/>
-    <mergeCell ref="A1202:C1202"/>
-    <mergeCell ref="A1203:C1203"/>
-    <mergeCell ref="A1204:C1204"/>
-    <mergeCell ref="A1205:C1205"/>
-    <mergeCell ref="A1206:C1206"/>
-    <mergeCell ref="A1207:C1207"/>
-    <mergeCell ref="A1190:C1190"/>
-    <mergeCell ref="A1191:C1191"/>
-    <mergeCell ref="A1192:C1192"/>
-    <mergeCell ref="A1193:C1193"/>
-    <mergeCell ref="A1194:C1194"/>
-    <mergeCell ref="A1195:C1195"/>
-    <mergeCell ref="A1196:C1196"/>
-    <mergeCell ref="A1197:C1197"/>
-    <mergeCell ref="A1198:C1198"/>
-    <mergeCell ref="A1181:C1181"/>
-    <mergeCell ref="A1182:C1182"/>
-    <mergeCell ref="A1183:C1183"/>
-    <mergeCell ref="A1184:C1184"/>
-    <mergeCell ref="A1185:C1185"/>
-    <mergeCell ref="A1186:C1186"/>
-    <mergeCell ref="A1187:C1187"/>
-    <mergeCell ref="A1188:C1188"/>
-    <mergeCell ref="A1189:C1189"/>
-    <mergeCell ref="A1172:C1172"/>
-    <mergeCell ref="A1173:C1173"/>
-    <mergeCell ref="A1174:C1174"/>
-    <mergeCell ref="A1175:C1175"/>
-    <mergeCell ref="A1176:C1176"/>
-    <mergeCell ref="A1177:C1177"/>
-    <mergeCell ref="A1178:C1178"/>
-    <mergeCell ref="A1179:C1179"/>
-    <mergeCell ref="A1180:C1180"/>
-    <mergeCell ref="A1163:C1163"/>
-    <mergeCell ref="A1164:C1164"/>
-    <mergeCell ref="A1165:C1165"/>
-    <mergeCell ref="A1166:C1166"/>
-    <mergeCell ref="A1167:C1167"/>
-    <mergeCell ref="A1168:C1168"/>
-    <mergeCell ref="A1169:C1169"/>
-    <mergeCell ref="A1170:C1170"/>
-    <mergeCell ref="A1171:C1171"/>
-    <mergeCell ref="A1154:C1154"/>
-    <mergeCell ref="A1155:C1155"/>
-    <mergeCell ref="A1156:C1156"/>
-    <mergeCell ref="A1157:C1157"/>
-    <mergeCell ref="A1158:C1158"/>
-    <mergeCell ref="A1159:C1159"/>
-    <mergeCell ref="A1160:C1160"/>
-    <mergeCell ref="A1161:C1161"/>
-    <mergeCell ref="A1162:C1162"/>
-    <mergeCell ref="A1145:C1145"/>
-    <mergeCell ref="A1146:C1146"/>
-    <mergeCell ref="A1147:C1147"/>
-    <mergeCell ref="A1148:C1148"/>
-    <mergeCell ref="A1149:C1149"/>
-    <mergeCell ref="A1150:C1150"/>
-    <mergeCell ref="A1151:C1151"/>
-    <mergeCell ref="A1152:C1152"/>
-    <mergeCell ref="A1153:C1153"/>
-    <mergeCell ref="A1136:C1136"/>
-    <mergeCell ref="A1137:C1137"/>
-    <mergeCell ref="A1138:C1138"/>
-    <mergeCell ref="A1139:C1139"/>
-    <mergeCell ref="A1140:C1140"/>
-    <mergeCell ref="A1141:C1141"/>
-    <mergeCell ref="A1142:C1142"/>
-    <mergeCell ref="A1143:C1143"/>
-    <mergeCell ref="A1144:C1144"/>
-    <mergeCell ref="A1127:C1127"/>
-    <mergeCell ref="A1128:C1128"/>
-    <mergeCell ref="A1129:C1129"/>
-    <mergeCell ref="A1130:C1130"/>
-    <mergeCell ref="A1131:C1131"/>
-    <mergeCell ref="A1132:C1132"/>
-    <mergeCell ref="A1133:C1133"/>
-    <mergeCell ref="A1134:C1134"/>
-    <mergeCell ref="A1135:C1135"/>
-    <mergeCell ref="A1118:C1118"/>
-    <mergeCell ref="A1119:C1119"/>
-    <mergeCell ref="A1120:C1120"/>
-    <mergeCell ref="A1121:C1121"/>
-    <mergeCell ref="A1122:C1122"/>
-    <mergeCell ref="A1123:C1123"/>
-    <mergeCell ref="A1124:C1124"/>
-    <mergeCell ref="A1125:C1125"/>
-    <mergeCell ref="A1126:C1126"/>
-    <mergeCell ref="A1109:C1109"/>
-    <mergeCell ref="A1110:C1110"/>
-    <mergeCell ref="A1111:C1111"/>
-    <mergeCell ref="A1112:C1112"/>
-    <mergeCell ref="A1113:C1113"/>
-    <mergeCell ref="A1114:C1114"/>
-    <mergeCell ref="A1115:C1115"/>
-    <mergeCell ref="A1116:C1116"/>
-    <mergeCell ref="A1117:C1117"/>
-    <mergeCell ref="A1100:C1100"/>
-    <mergeCell ref="A1101:C1101"/>
-    <mergeCell ref="A1102:C1102"/>
-    <mergeCell ref="A1103:C1103"/>
-    <mergeCell ref="A1104:C1104"/>
-    <mergeCell ref="A1105:C1105"/>
-    <mergeCell ref="A1106:C1106"/>
-    <mergeCell ref="A1107:C1107"/>
-    <mergeCell ref="A1108:C1108"/>
-    <mergeCell ref="A1091:C1091"/>
-    <mergeCell ref="A1092:C1092"/>
-    <mergeCell ref="A1093:C1093"/>
-    <mergeCell ref="A1094:C1094"/>
-    <mergeCell ref="A1095:C1095"/>
-    <mergeCell ref="A1096:C1096"/>
-    <mergeCell ref="A1097:C1097"/>
-    <mergeCell ref="A1098:C1098"/>
-    <mergeCell ref="A1099:C1099"/>
-    <mergeCell ref="A1082:C1082"/>
-    <mergeCell ref="A1083:C1083"/>
-    <mergeCell ref="A1084:C1084"/>
-    <mergeCell ref="A1085:C1085"/>
-    <mergeCell ref="A1086:C1086"/>
-    <mergeCell ref="A1087:C1087"/>
-    <mergeCell ref="A1088:C1088"/>
-    <mergeCell ref="A1089:C1089"/>
-    <mergeCell ref="A1090:C1090"/>
-    <mergeCell ref="A1073:C1073"/>
-    <mergeCell ref="A1074:C1074"/>
-    <mergeCell ref="A1075:C1075"/>
-    <mergeCell ref="A1076:C1076"/>
-    <mergeCell ref="A1077:C1077"/>
-    <mergeCell ref="A1078:C1078"/>
-    <mergeCell ref="A1079:C1079"/>
-    <mergeCell ref="A1080:C1080"/>
-    <mergeCell ref="A1081:C1081"/>
-    <mergeCell ref="A1064:C1064"/>
-    <mergeCell ref="A1065:C1065"/>
-    <mergeCell ref="A1066:C1066"/>
-    <mergeCell ref="A1067:C1067"/>
-    <mergeCell ref="A1068:C1068"/>
-    <mergeCell ref="A1069:C1069"/>
-    <mergeCell ref="A1070:C1070"/>
-    <mergeCell ref="A1071:C1071"/>
-    <mergeCell ref="A1072:C1072"/>
-    <mergeCell ref="A1055:C1055"/>
-    <mergeCell ref="A1056:C1056"/>
-    <mergeCell ref="A1057:C1057"/>
-    <mergeCell ref="A1058:C1058"/>
-    <mergeCell ref="A1059:C1059"/>
-    <mergeCell ref="A1060:C1060"/>
-    <mergeCell ref="A1061:C1061"/>
-    <mergeCell ref="A1062:C1062"/>
-    <mergeCell ref="A1063:C1063"/>
-    <mergeCell ref="A1046:C1046"/>
-    <mergeCell ref="A1047:C1047"/>
-    <mergeCell ref="A1048:C1048"/>
-    <mergeCell ref="A1049:C1049"/>
-    <mergeCell ref="A1050:C1050"/>
-    <mergeCell ref="A1051:C1051"/>
-    <mergeCell ref="A1052:C1052"/>
-    <mergeCell ref="A1053:C1053"/>
-    <mergeCell ref="A1054:C1054"/>
-    <mergeCell ref="A1037:C1037"/>
-    <mergeCell ref="A1038:C1038"/>
-    <mergeCell ref="A1039:C1039"/>
-    <mergeCell ref="A1040:C1040"/>
-    <mergeCell ref="A1041:C1041"/>
-    <mergeCell ref="A1042:C1042"/>
-    <mergeCell ref="A1043:C1043"/>
-    <mergeCell ref="A1044:C1044"/>
-    <mergeCell ref="A1045:C1045"/>
-    <mergeCell ref="A1028:C1028"/>
-    <mergeCell ref="A1029:C1029"/>
-    <mergeCell ref="A1030:C1030"/>
-    <mergeCell ref="A1031:C1031"/>
-    <mergeCell ref="A1032:C1032"/>
-    <mergeCell ref="A1033:C1033"/>
-    <mergeCell ref="A1034:C1034"/>
-    <mergeCell ref="A1035:C1035"/>
-    <mergeCell ref="A1036:C1036"/>
-    <mergeCell ref="A1019:C1019"/>
-    <mergeCell ref="A1020:C1020"/>
-    <mergeCell ref="A1021:C1021"/>
-    <mergeCell ref="A1022:C1022"/>
-    <mergeCell ref="A1023:C1023"/>
-    <mergeCell ref="A1024:C1024"/>
-    <mergeCell ref="A1025:C1025"/>
-    <mergeCell ref="A1026:C1026"/>
-    <mergeCell ref="A1027:C1027"/>
-    <mergeCell ref="A1010:C1010"/>
-    <mergeCell ref="A1011:C1011"/>
-    <mergeCell ref="A1012:C1012"/>
-    <mergeCell ref="A1013:C1013"/>
-    <mergeCell ref="A1014:C1014"/>
-    <mergeCell ref="A1015:C1015"/>
-    <mergeCell ref="A1016:C1016"/>
-    <mergeCell ref="A1017:C1017"/>
-    <mergeCell ref="A1018:C1018"/>
-    <mergeCell ref="A1001:C1001"/>
-    <mergeCell ref="A1002:C1002"/>
-    <mergeCell ref="A1003:C1003"/>
-    <mergeCell ref="A1004:C1004"/>
-    <mergeCell ref="A1005:C1005"/>
-    <mergeCell ref="A1006:C1006"/>
-    <mergeCell ref="A1007:C1007"/>
-    <mergeCell ref="A1008:C1008"/>
-    <mergeCell ref="A1009:C1009"/>
-    <mergeCell ref="A992:C992"/>
-    <mergeCell ref="A993:C993"/>
-    <mergeCell ref="A994:C994"/>
-    <mergeCell ref="A995:C995"/>
-    <mergeCell ref="A996:C996"/>
-    <mergeCell ref="A997:C997"/>
-    <mergeCell ref="A998:C998"/>
-    <mergeCell ref="A999:C999"/>
-    <mergeCell ref="A1000:C1000"/>
-    <mergeCell ref="A983:C983"/>
-    <mergeCell ref="A984:C984"/>
-    <mergeCell ref="A985:C985"/>
-    <mergeCell ref="A986:C986"/>
-    <mergeCell ref="A987:C987"/>
-    <mergeCell ref="A988:C988"/>
-    <mergeCell ref="A989:C989"/>
-    <mergeCell ref="A990:C990"/>
-    <mergeCell ref="A991:C991"/>
-    <mergeCell ref="A974:C974"/>
-    <mergeCell ref="A975:C975"/>
-    <mergeCell ref="A976:C976"/>
-    <mergeCell ref="A977:C977"/>
-    <mergeCell ref="A978:C978"/>
-    <mergeCell ref="A979:C979"/>
-    <mergeCell ref="A980:C980"/>
-    <mergeCell ref="A981:C981"/>
-    <mergeCell ref="A982:C982"/>
-    <mergeCell ref="A965:C965"/>
-    <mergeCell ref="A966:C966"/>
-    <mergeCell ref="A967:C967"/>
-    <mergeCell ref="A968:C968"/>
-    <mergeCell ref="A969:C969"/>
-    <mergeCell ref="A970:C970"/>
-    <mergeCell ref="A971:C971"/>
-    <mergeCell ref="A972:C972"/>
-    <mergeCell ref="A973:C973"/>
-    <mergeCell ref="A956:C956"/>
-    <mergeCell ref="A957:C957"/>
-    <mergeCell ref="A958:C958"/>
-    <mergeCell ref="A959:C959"/>
-    <mergeCell ref="A960:C960"/>
-    <mergeCell ref="A961:C961"/>
-    <mergeCell ref="A962:C962"/>
-    <mergeCell ref="A963:C963"/>
-    <mergeCell ref="A964:C964"/>
-    <mergeCell ref="A947:C947"/>
-    <mergeCell ref="A948:C948"/>
-    <mergeCell ref="A949:C949"/>
-    <mergeCell ref="A950:C950"/>
-    <mergeCell ref="A951:C951"/>
-    <mergeCell ref="A952:C952"/>
-    <mergeCell ref="A953:C953"/>
-    <mergeCell ref="A954:C954"/>
-    <mergeCell ref="A955:C955"/>
-    <mergeCell ref="A938:C938"/>
-    <mergeCell ref="A939:C939"/>
-    <mergeCell ref="A940:C940"/>
-    <mergeCell ref="A941:C941"/>
-    <mergeCell ref="A942:C942"/>
-    <mergeCell ref="A943:C943"/>
-    <mergeCell ref="A944:C944"/>
-    <mergeCell ref="A945:C945"/>
-    <mergeCell ref="A946:C946"/>
-    <mergeCell ref="A929:C929"/>
-    <mergeCell ref="A930:C930"/>
-    <mergeCell ref="A931:C931"/>
-    <mergeCell ref="A932:C932"/>
-    <mergeCell ref="A933:C933"/>
-    <mergeCell ref="A934:C934"/>
-    <mergeCell ref="A935:C935"/>
-    <mergeCell ref="A936:C936"/>
-    <mergeCell ref="A937:C937"/>
-    <mergeCell ref="A920:C920"/>
-    <mergeCell ref="A921:C921"/>
-    <mergeCell ref="A922:C922"/>
-    <mergeCell ref="A923:C923"/>
-    <mergeCell ref="A924:C924"/>
-    <mergeCell ref="A925:C925"/>
-    <mergeCell ref="A926:C926"/>
-    <mergeCell ref="A927:C927"/>
-    <mergeCell ref="A928:C928"/>
-    <mergeCell ref="A911:C911"/>
-    <mergeCell ref="A912:C912"/>
-    <mergeCell ref="A913:C913"/>
-    <mergeCell ref="A914:C914"/>
-    <mergeCell ref="A915:C915"/>
-    <mergeCell ref="A916:C916"/>
-    <mergeCell ref="A917:C917"/>
-    <mergeCell ref="A918:C918"/>
-    <mergeCell ref="A919:C919"/>
-    <mergeCell ref="A902:C902"/>
-    <mergeCell ref="A903:C903"/>
-    <mergeCell ref="A904:C904"/>
-    <mergeCell ref="A905:C905"/>
-    <mergeCell ref="A906:C906"/>
-    <mergeCell ref="A907:C907"/>
-    <mergeCell ref="A908:C908"/>
-    <mergeCell ref="A909:C909"/>
-    <mergeCell ref="A910:C910"/>
-    <mergeCell ref="A893:C893"/>
-    <mergeCell ref="A894:C894"/>
-    <mergeCell ref="A895:C895"/>
-    <mergeCell ref="A896:C896"/>
-    <mergeCell ref="A897:C897"/>
-    <mergeCell ref="A898:C898"/>
-    <mergeCell ref="A899:C899"/>
-    <mergeCell ref="A900:C900"/>
-    <mergeCell ref="A901:C901"/>
-    <mergeCell ref="A884:C884"/>
-    <mergeCell ref="A885:C885"/>
-    <mergeCell ref="A886:C886"/>
-    <mergeCell ref="A887:C887"/>
-    <mergeCell ref="A888:C888"/>
-    <mergeCell ref="A889:C889"/>
-    <mergeCell ref="A890:C890"/>
-    <mergeCell ref="A891:C891"/>
-    <mergeCell ref="A892:C892"/>
-    <mergeCell ref="A875:C875"/>
-    <mergeCell ref="A876:C876"/>
-    <mergeCell ref="A877:C877"/>
-    <mergeCell ref="A878:C878"/>
-    <mergeCell ref="A879:C879"/>
-    <mergeCell ref="A880:C880"/>
-    <mergeCell ref="A881:C881"/>
-    <mergeCell ref="A882:C882"/>
-    <mergeCell ref="A883:C883"/>
-    <mergeCell ref="A866:C866"/>
-    <mergeCell ref="A867:C867"/>
-    <mergeCell ref="A868:C868"/>
-    <mergeCell ref="A869:C869"/>
-    <mergeCell ref="A870:C870"/>
-    <mergeCell ref="A871:C871"/>
-    <mergeCell ref="A872:C872"/>
-    <mergeCell ref="A873:C873"/>
-    <mergeCell ref="A874:C874"/>
-    <mergeCell ref="A857:C857"/>
-    <mergeCell ref="A858:C858"/>
-    <mergeCell ref="A859:C859"/>
-    <mergeCell ref="A860:C860"/>
-    <mergeCell ref="A861:C861"/>
-    <mergeCell ref="A862:C862"/>
-    <mergeCell ref="A863:C863"/>
-    <mergeCell ref="A864:C864"/>
-    <mergeCell ref="A865:C865"/>
-    <mergeCell ref="A848:C848"/>
-    <mergeCell ref="A849:C849"/>
-    <mergeCell ref="A850:C850"/>
-    <mergeCell ref="A851:C851"/>
-    <mergeCell ref="A852:C852"/>
-    <mergeCell ref="A853:C853"/>
-    <mergeCell ref="A854:C854"/>
-    <mergeCell ref="A855:C855"/>
-    <mergeCell ref="A856:C856"/>
-    <mergeCell ref="A839:C839"/>
-    <mergeCell ref="A840:C840"/>
-    <mergeCell ref="A841:C841"/>
-    <mergeCell ref="A842:C842"/>
-    <mergeCell ref="A843:C843"/>
-    <mergeCell ref="A844:C844"/>
-    <mergeCell ref="A845:C845"/>
-    <mergeCell ref="A846:C846"/>
-    <mergeCell ref="A847:C847"/>
-    <mergeCell ref="A830:C830"/>
-    <mergeCell ref="A831:C831"/>
-    <mergeCell ref="A832:C832"/>
-    <mergeCell ref="A833:C833"/>
-    <mergeCell ref="A834:C834"/>
-    <mergeCell ref="A835:C835"/>
-    <mergeCell ref="A836:C836"/>
-    <mergeCell ref="A837:C837"/>
-    <mergeCell ref="A838:C838"/>
-    <mergeCell ref="A821:C821"/>
-    <mergeCell ref="A822:C822"/>
-    <mergeCell ref="A823:C823"/>
-    <mergeCell ref="A824:C824"/>
-    <mergeCell ref="A825:C825"/>
-    <mergeCell ref="A826:C826"/>
-    <mergeCell ref="A827:C827"/>
-    <mergeCell ref="A828:C828"/>
-    <mergeCell ref="A829:C829"/>
-    <mergeCell ref="A812:C812"/>
-    <mergeCell ref="A813:C813"/>
-    <mergeCell ref="A814:C814"/>
-    <mergeCell ref="A815:C815"/>
-    <mergeCell ref="A816:C816"/>
-    <mergeCell ref="A817:C817"/>
-    <mergeCell ref="A818:C818"/>
-    <mergeCell ref="A819:C819"/>
-    <mergeCell ref="A820:C820"/>
-    <mergeCell ref="A803:C803"/>
-    <mergeCell ref="A804:C804"/>
-    <mergeCell ref="A805:C805"/>
-    <mergeCell ref="A806:C806"/>
-    <mergeCell ref="A807:C807"/>
-    <mergeCell ref="A808:C808"/>
-    <mergeCell ref="A809:C809"/>
-    <mergeCell ref="A810:C810"/>
-    <mergeCell ref="A811:C811"/>
-    <mergeCell ref="A794:C794"/>
-    <mergeCell ref="A795:C795"/>
-    <mergeCell ref="A796:C796"/>
-    <mergeCell ref="A797:C797"/>
-    <mergeCell ref="A798:C798"/>
-    <mergeCell ref="A799:C799"/>
-    <mergeCell ref="A800:C800"/>
-    <mergeCell ref="A801:C801"/>
-    <mergeCell ref="A802:C802"/>
-    <mergeCell ref="A785:C785"/>
-    <mergeCell ref="A786:C786"/>
-    <mergeCell ref="A787:C787"/>
-    <mergeCell ref="A788:C788"/>
-    <mergeCell ref="A789:C789"/>
-    <mergeCell ref="A790:C790"/>
-    <mergeCell ref="A791:C791"/>
-    <mergeCell ref="A792:C792"/>
-    <mergeCell ref="A793:C793"/>
-    <mergeCell ref="A776:C776"/>
-    <mergeCell ref="A777:C777"/>
-    <mergeCell ref="A778:C778"/>
-    <mergeCell ref="A779:C779"/>
-    <mergeCell ref="A780:C780"/>
-    <mergeCell ref="A781:C781"/>
-    <mergeCell ref="A782:C782"/>
-    <mergeCell ref="A783:C783"/>
-    <mergeCell ref="A784:C784"/>
-    <mergeCell ref="A767:C767"/>
-    <mergeCell ref="A768:C768"/>
-    <mergeCell ref="A769:C769"/>
-    <mergeCell ref="A770:C770"/>
-    <mergeCell ref="A771:C771"/>
-    <mergeCell ref="A772:C772"/>
-    <mergeCell ref="A773:C773"/>
-    <mergeCell ref="A774:C774"/>
-    <mergeCell ref="A775:C775"/>
-    <mergeCell ref="A758:C758"/>
-    <mergeCell ref="A759:C759"/>
-    <mergeCell ref="A760:C760"/>
-    <mergeCell ref="A761:C761"/>
-    <mergeCell ref="A762:C762"/>
-    <mergeCell ref="A763:C763"/>
-    <mergeCell ref="A764:C764"/>
-    <mergeCell ref="A765:C765"/>
-    <mergeCell ref="A766:C766"/>
-    <mergeCell ref="A749:C749"/>
-    <mergeCell ref="A750:C750"/>
-    <mergeCell ref="A751:C751"/>
-    <mergeCell ref="A752:C752"/>
-    <mergeCell ref="A753:C753"/>
-    <mergeCell ref="A754:C754"/>
-    <mergeCell ref="A755:C755"/>
-    <mergeCell ref="A756:C756"/>
-    <mergeCell ref="A757:C757"/>
-    <mergeCell ref="A740:C740"/>
-    <mergeCell ref="A741:C741"/>
-    <mergeCell ref="A742:C742"/>
-    <mergeCell ref="A743:C743"/>
-    <mergeCell ref="A744:C744"/>
-    <mergeCell ref="A745:C745"/>
-    <mergeCell ref="A746:C746"/>
-    <mergeCell ref="A747:C747"/>
-    <mergeCell ref="A748:C748"/>
-    <mergeCell ref="A731:C731"/>
-    <mergeCell ref="A732:C732"/>
-    <mergeCell ref="A733:C733"/>
-    <mergeCell ref="A734:C734"/>
-    <mergeCell ref="A735:C735"/>
-    <mergeCell ref="A736:C736"/>
-    <mergeCell ref="A737:C737"/>
-    <mergeCell ref="A738:C738"/>
-    <mergeCell ref="A739:C739"/>
-    <mergeCell ref="A722:C722"/>
-    <mergeCell ref="A723:C723"/>
-    <mergeCell ref="A724:C724"/>
-    <mergeCell ref="A725:C725"/>
-    <mergeCell ref="A726:C726"/>
-    <mergeCell ref="A727:C727"/>
-    <mergeCell ref="A728:C728"/>
-    <mergeCell ref="A729:C729"/>
-    <mergeCell ref="A730:C730"/>
-    <mergeCell ref="A713:C713"/>
-    <mergeCell ref="A714:C714"/>
-    <mergeCell ref="A715:C715"/>
-    <mergeCell ref="A716:C716"/>
-    <mergeCell ref="A717:C717"/>
-    <mergeCell ref="A718:C718"/>
-    <mergeCell ref="A719:C719"/>
-    <mergeCell ref="A720:C720"/>
-    <mergeCell ref="A721:C721"/>
-    <mergeCell ref="A704:C704"/>
-    <mergeCell ref="A705:C705"/>
-    <mergeCell ref="A706:C706"/>
-    <mergeCell ref="A707:C707"/>
-    <mergeCell ref="A708:C708"/>
-    <mergeCell ref="A709:C709"/>
-    <mergeCell ref="A710:C710"/>
-    <mergeCell ref="A711:C711"/>
-    <mergeCell ref="A712:C712"/>
-    <mergeCell ref="A695:C695"/>
-    <mergeCell ref="A696:C696"/>
-    <mergeCell ref="A697:C697"/>
-    <mergeCell ref="A698:C698"/>
-    <mergeCell ref="A699:C699"/>
-    <mergeCell ref="A700:C700"/>
-    <mergeCell ref="A701:C701"/>
-    <mergeCell ref="A702:C702"/>
-    <mergeCell ref="A703:C703"/>
-    <mergeCell ref="A686:C686"/>
-    <mergeCell ref="A687:C687"/>
-    <mergeCell ref="A688:C688"/>
-    <mergeCell ref="A689:C689"/>
-    <mergeCell ref="A690:C690"/>
-    <mergeCell ref="A691:C691"/>
-    <mergeCell ref="A692:C692"/>
-    <mergeCell ref="A693:C693"/>
-    <mergeCell ref="A694:C694"/>
-    <mergeCell ref="A677:C677"/>
-    <mergeCell ref="A678:C678"/>
-    <mergeCell ref="A679:C679"/>
-    <mergeCell ref="A680:C680"/>
-    <mergeCell ref="A681:C681"/>
-    <mergeCell ref="A682:C682"/>
-    <mergeCell ref="A683:C683"/>
-    <mergeCell ref="A684:C684"/>
-    <mergeCell ref="A685:C685"/>
-    <mergeCell ref="A668:C668"/>
-    <mergeCell ref="A669:C669"/>
-    <mergeCell ref="A670:C670"/>
-    <mergeCell ref="A671:C671"/>
-    <mergeCell ref="A672:C672"/>
-    <mergeCell ref="A673:C673"/>
-    <mergeCell ref="A674:C674"/>
-    <mergeCell ref="A675:C675"/>
-    <mergeCell ref="A676:C676"/>
-    <mergeCell ref="A659:C659"/>
-    <mergeCell ref="A660:C660"/>
-    <mergeCell ref="A661:C661"/>
-    <mergeCell ref="A662:C662"/>
-    <mergeCell ref="A663:C663"/>
-    <mergeCell ref="A664:C664"/>
-    <mergeCell ref="A665:C665"/>
-    <mergeCell ref="A666:C666"/>
-    <mergeCell ref="A667:C667"/>
-    <mergeCell ref="A650:C650"/>
-    <mergeCell ref="A651:C651"/>
-    <mergeCell ref="A652:C652"/>
-    <mergeCell ref="A653:C653"/>
-    <mergeCell ref="A654:C654"/>
-    <mergeCell ref="A655:C655"/>
-    <mergeCell ref="A656:C656"/>
-    <mergeCell ref="A657:C657"/>
-    <mergeCell ref="A658:C658"/>
-    <mergeCell ref="A641:C641"/>
-    <mergeCell ref="A642:C642"/>
-    <mergeCell ref="A643:C643"/>
-    <mergeCell ref="A644:C644"/>
-    <mergeCell ref="A645:C645"/>
-    <mergeCell ref="A646:C646"/>
-    <mergeCell ref="A647:C647"/>
-    <mergeCell ref="A648:C648"/>
-    <mergeCell ref="A649:C649"/>
-    <mergeCell ref="A632:C632"/>
-    <mergeCell ref="A633:C633"/>
-    <mergeCell ref="A634:C634"/>
-    <mergeCell ref="A635:C635"/>
-    <mergeCell ref="A636:C636"/>
-    <mergeCell ref="A637:C637"/>
-    <mergeCell ref="A638:C638"/>
-    <mergeCell ref="A639:C639"/>
-    <mergeCell ref="A640:C640"/>
-    <mergeCell ref="A623:C623"/>
-    <mergeCell ref="A624:C624"/>
-    <mergeCell ref="A625:C625"/>
-    <mergeCell ref="A626:C626"/>
-    <mergeCell ref="A627:C627"/>
-    <mergeCell ref="A628:C628"/>
-    <mergeCell ref="A629:C629"/>
-    <mergeCell ref="A630:C630"/>
-    <mergeCell ref="A631:C631"/>
-    <mergeCell ref="A614:C614"/>
-    <mergeCell ref="A615:C615"/>
-    <mergeCell ref="A616:C616"/>
-    <mergeCell ref="A617:C617"/>
-    <mergeCell ref="A618:C618"/>
-    <mergeCell ref="A619:C619"/>
-    <mergeCell ref="A620:C620"/>
-    <mergeCell ref="A621:C621"/>
-    <mergeCell ref="A622:C622"/>
-    <mergeCell ref="A605:C605"/>
-    <mergeCell ref="A606:C606"/>
-    <mergeCell ref="A607:C607"/>
-    <mergeCell ref="A608:C608"/>
-    <mergeCell ref="A609:C609"/>
-    <mergeCell ref="A610:C610"/>
-    <mergeCell ref="A611:C611"/>
-    <mergeCell ref="A612:C612"/>
-    <mergeCell ref="A613:C613"/>
-    <mergeCell ref="A596:C596"/>
-    <mergeCell ref="A597:C597"/>
-    <mergeCell ref="A598:C598"/>
-    <mergeCell ref="A599:C599"/>
-    <mergeCell ref="A600:C600"/>
-    <mergeCell ref="A601:C601"/>
-    <mergeCell ref="A602:C602"/>
-    <mergeCell ref="A603:C603"/>
-    <mergeCell ref="A604:C604"/>
-    <mergeCell ref="A587:C587"/>
-    <mergeCell ref="A588:C588"/>
-    <mergeCell ref="A589:C589"/>
-    <mergeCell ref="A590:C590"/>
-    <mergeCell ref="A591:C591"/>
-    <mergeCell ref="A592:C592"/>
-    <mergeCell ref="A593:C593"/>
-    <mergeCell ref="A594:C594"/>
-    <mergeCell ref="A595:C595"/>
-    <mergeCell ref="A578:C578"/>
-    <mergeCell ref="A579:C579"/>
-    <mergeCell ref="A580:C580"/>
-    <mergeCell ref="A581:C581"/>
-    <mergeCell ref="A582:C582"/>
-    <mergeCell ref="A583:C583"/>
-    <mergeCell ref="A584:C584"/>
-    <mergeCell ref="A585:C585"/>
-    <mergeCell ref="A586:C586"/>
-    <mergeCell ref="A569:C569"/>
-    <mergeCell ref="A570:C570"/>
-    <mergeCell ref="A571:C571"/>
-    <mergeCell ref="A572:C572"/>
-    <mergeCell ref="A573:C573"/>
-    <mergeCell ref="A574:C574"/>
-    <mergeCell ref="A575:C575"/>
-    <mergeCell ref="A576:C576"/>
-    <mergeCell ref="A577:C577"/>
-    <mergeCell ref="A560:C560"/>
-    <mergeCell ref="A561:C561"/>
-    <mergeCell ref="A562:C562"/>
-    <mergeCell ref="A563:C563"/>
-    <mergeCell ref="A564:C564"/>
-    <mergeCell ref="A565:C565"/>
-    <mergeCell ref="A566:C566"/>
-    <mergeCell ref="A567:C567"/>
-    <mergeCell ref="A568:C568"/>
-    <mergeCell ref="A551:C551"/>
-    <mergeCell ref="A552:C552"/>
-    <mergeCell ref="A553:C553"/>
-    <mergeCell ref="A554:C554"/>
-    <mergeCell ref="A555:C555"/>
-    <mergeCell ref="A556:C556"/>
-    <mergeCell ref="A557:C557"/>
-    <mergeCell ref="A558:C558"/>
-    <mergeCell ref="A559:C559"/>
-    <mergeCell ref="A542:C542"/>
-    <mergeCell ref="A543:C543"/>
-    <mergeCell ref="A544:C544"/>
-    <mergeCell ref="A545:C545"/>
-    <mergeCell ref="A546:C546"/>
-    <mergeCell ref="A547:C547"/>
-    <mergeCell ref="A548:C548"/>
-    <mergeCell ref="A549:C549"/>
-    <mergeCell ref="A550:C550"/>
-    <mergeCell ref="A533:C533"/>
-    <mergeCell ref="A534:C534"/>
-    <mergeCell ref="A535:C535"/>
-    <mergeCell ref="A536:C536"/>
-    <mergeCell ref="A537:C537"/>
-    <mergeCell ref="A538:C538"/>
-    <mergeCell ref="A539:C539"/>
-    <mergeCell ref="A540:C540"/>
-    <mergeCell ref="A541:C541"/>
-    <mergeCell ref="A524:C524"/>
-    <mergeCell ref="A525:C525"/>
-    <mergeCell ref="A526:C526"/>
-    <mergeCell ref="A527:C527"/>
-    <mergeCell ref="A528:C528"/>
-    <mergeCell ref="A529:C529"/>
-    <mergeCell ref="A530:C530"/>
-    <mergeCell ref="A531:C531"/>
-    <mergeCell ref="A532:C532"/>
-    <mergeCell ref="A515:C515"/>
-    <mergeCell ref="A516:C516"/>
-    <mergeCell ref="A517:C517"/>
-    <mergeCell ref="A518:C518"/>
-    <mergeCell ref="A519:C519"/>
-    <mergeCell ref="A520:C520"/>
-    <mergeCell ref="A521:C521"/>
-    <mergeCell ref="A522:C522"/>
-    <mergeCell ref="A523:C523"/>
-    <mergeCell ref="A506:C506"/>
-    <mergeCell ref="A507:C507"/>
-    <mergeCell ref="A508:C508"/>
-    <mergeCell ref="A509:C509"/>
-    <mergeCell ref="A510:C510"/>
-    <mergeCell ref="A511:C511"/>
-    <mergeCell ref="A512:C512"/>
-    <mergeCell ref="A513:C513"/>
-    <mergeCell ref="A514:C514"/>
-    <mergeCell ref="A497:C497"/>
-    <mergeCell ref="A498:C498"/>
-    <mergeCell ref="A499:C499"/>
-    <mergeCell ref="A500:C500"/>
-    <mergeCell ref="A501:C501"/>
-    <mergeCell ref="A502:C502"/>
-    <mergeCell ref="A503:C503"/>
-    <mergeCell ref="A504:C504"/>
-    <mergeCell ref="A505:C505"/>
-    <mergeCell ref="A488:C488"/>
-    <mergeCell ref="A489:C489"/>
-    <mergeCell ref="A490:C490"/>
-    <mergeCell ref="A491:C491"/>
-    <mergeCell ref="A492:C492"/>
-    <mergeCell ref="A493:C493"/>
-    <mergeCell ref="A494:C494"/>
-    <mergeCell ref="A495:C495"/>
-    <mergeCell ref="A496:C496"/>
-    <mergeCell ref="A479:C479"/>
-    <mergeCell ref="A480:C480"/>
-    <mergeCell ref="A481:C481"/>
-    <mergeCell ref="A482:C482"/>
-    <mergeCell ref="A483:C483"/>
-    <mergeCell ref="A484:C484"/>
-    <mergeCell ref="A485:C485"/>
-    <mergeCell ref="A486:C486"/>
-    <mergeCell ref="A487:C487"/>
-    <mergeCell ref="A470:C470"/>
-    <mergeCell ref="A471:C471"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A473:C473"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A475:C475"/>
-    <mergeCell ref="A476:C476"/>
-    <mergeCell ref="A477:C477"/>
-    <mergeCell ref="A478:C478"/>
-    <mergeCell ref="A461:C461"/>
-    <mergeCell ref="A462:C462"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="A464:C464"/>
-    <mergeCell ref="A465:C465"/>
-    <mergeCell ref="A466:C466"/>
-    <mergeCell ref="A467:C467"/>
-    <mergeCell ref="A468:C468"/>
-    <mergeCell ref="A469:C469"/>
-    <mergeCell ref="A452:C452"/>
-    <mergeCell ref="A453:C453"/>
-    <mergeCell ref="A454:C454"/>
-    <mergeCell ref="A455:C455"/>
-    <mergeCell ref="A456:C456"/>
-    <mergeCell ref="A457:C457"/>
-    <mergeCell ref="A458:C458"/>
-    <mergeCell ref="A459:C459"/>
-    <mergeCell ref="A460:C460"/>
-    <mergeCell ref="A443:C443"/>
-    <mergeCell ref="A444:C444"/>
-    <mergeCell ref="A445:C445"/>
-    <mergeCell ref="A446:C446"/>
-    <mergeCell ref="A447:C447"/>
-    <mergeCell ref="A448:C448"/>
-    <mergeCell ref="A449:C449"/>
-    <mergeCell ref="A450:C450"/>
-    <mergeCell ref="A451:C451"/>
-    <mergeCell ref="A434:C434"/>
-    <mergeCell ref="A435:C435"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="A437:C437"/>
-    <mergeCell ref="A438:C438"/>
-    <mergeCell ref="A439:C439"/>
-    <mergeCell ref="A440:C440"/>
-    <mergeCell ref="A441:C441"/>
-    <mergeCell ref="A442:C442"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="A426:C426"/>
-    <mergeCell ref="A427:C427"/>
-    <mergeCell ref="A428:C428"/>
-    <mergeCell ref="A429:C429"/>
-    <mergeCell ref="A430:C430"/>
-    <mergeCell ref="A431:C431"/>
-    <mergeCell ref="A432:C432"/>
-    <mergeCell ref="A433:C433"/>
-    <mergeCell ref="A416:C416"/>
-    <mergeCell ref="A417:C417"/>
-    <mergeCell ref="A418:C418"/>
-    <mergeCell ref="A419:C419"/>
-    <mergeCell ref="A420:C420"/>
-    <mergeCell ref="A421:C421"/>
-    <mergeCell ref="A422:C422"/>
-    <mergeCell ref="A423:C423"/>
-    <mergeCell ref="A424:C424"/>
-    <mergeCell ref="A407:C407"/>
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="A412:C412"/>
-    <mergeCell ref="A413:C413"/>
-    <mergeCell ref="A414:C414"/>
-    <mergeCell ref="A415:C415"/>
-    <mergeCell ref="A398:C398"/>
-    <mergeCell ref="A399:C399"/>
-    <mergeCell ref="A400:C400"/>
-    <mergeCell ref="A401:C401"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A403:C403"/>
-    <mergeCell ref="A404:C404"/>
-    <mergeCell ref="A405:C405"/>
-    <mergeCell ref="A406:C406"/>
-    <mergeCell ref="A389:C389"/>
-    <mergeCell ref="A390:C390"/>
-    <mergeCell ref="A391:C391"/>
-    <mergeCell ref="A392:C392"/>
-    <mergeCell ref="A393:C393"/>
-    <mergeCell ref="A394:C394"/>
-    <mergeCell ref="A395:C395"/>
-    <mergeCell ref="A396:C396"/>
-    <mergeCell ref="A397:C397"/>
-    <mergeCell ref="A380:C380"/>
-    <mergeCell ref="A381:C381"/>
-    <mergeCell ref="A382:C382"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="A384:C384"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="A386:C386"/>
-    <mergeCell ref="A387:C387"/>
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="A371:C371"/>
-    <mergeCell ref="A372:C372"/>
-    <mergeCell ref="A373:C373"/>
-    <mergeCell ref="A374:C374"/>
-    <mergeCell ref="A375:C375"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="A377:C377"/>
-    <mergeCell ref="A378:C378"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A363:C363"/>
-    <mergeCell ref="A364:C364"/>
-    <mergeCell ref="A365:C365"/>
-    <mergeCell ref="A366:C366"/>
-    <mergeCell ref="A367:C367"/>
-    <mergeCell ref="A368:C368"/>
-    <mergeCell ref="A369:C369"/>
-    <mergeCell ref="A370:C370"/>
-    <mergeCell ref="A353:C353"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="A355:C355"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A357:C357"/>
-    <mergeCell ref="A358:C358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="A360:C360"/>
-    <mergeCell ref="A361:C361"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="A345:C345"/>
-    <mergeCell ref="A346:C346"/>
-    <mergeCell ref="A347:C347"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="A349:C349"/>
-    <mergeCell ref="A350:C350"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A335:C335"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A338:C338"/>
-    <mergeCell ref="A339:C339"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A327:C327"/>
-    <mergeCell ref="A328:C328"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A330:C330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="A317:C317"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="A322:C322"/>
-    <mergeCell ref="A323:C323"/>
-    <mergeCell ref="A324:C324"/>
-    <mergeCell ref="A325:C325"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="A311:C311"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A314:C314"/>
-    <mergeCell ref="A315:C315"/>
-    <mergeCell ref="A316:C316"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A291:C291"/>
-    <mergeCell ref="A292:C292"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A294:C294"/>
-    <mergeCell ref="A295:C295"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A284:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="A272:C272"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="A268:C268"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A260:C260"/>
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="A246:C246"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A249:C249"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A236:C236"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A244:C244"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A181:C181"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="D2:F2"/>
@@ -16335,6 +14160,23 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="D47:E47"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
@@ -16350,336 +14192,2494 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="A246:C246"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="A268:C268"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A284:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="A272:C272"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A291:C291"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A294:C294"/>
+    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A317:C317"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="A323:C323"/>
+    <mergeCell ref="A324:C324"/>
+    <mergeCell ref="A325:C325"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A314:C314"/>
+    <mergeCell ref="A315:C315"/>
+    <mergeCell ref="A316:C316"/>
+    <mergeCell ref="A335:C335"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A338:C338"/>
+    <mergeCell ref="A339:C339"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A327:C327"/>
+    <mergeCell ref="A328:C328"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A330:C330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="A353:C353"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="A355:C355"/>
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="A358:C358"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="A360:C360"/>
+    <mergeCell ref="A361:C361"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="A345:C345"/>
+    <mergeCell ref="A346:C346"/>
+    <mergeCell ref="A347:C347"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A349:C349"/>
+    <mergeCell ref="A350:C350"/>
+    <mergeCell ref="A351:C351"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A371:C371"/>
+    <mergeCell ref="A372:C372"/>
+    <mergeCell ref="A373:C373"/>
+    <mergeCell ref="A374:C374"/>
+    <mergeCell ref="A375:C375"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="A377:C377"/>
+    <mergeCell ref="A378:C378"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A363:C363"/>
+    <mergeCell ref="A364:C364"/>
+    <mergeCell ref="A365:C365"/>
+    <mergeCell ref="A366:C366"/>
+    <mergeCell ref="A367:C367"/>
+    <mergeCell ref="A368:C368"/>
+    <mergeCell ref="A369:C369"/>
+    <mergeCell ref="A370:C370"/>
+    <mergeCell ref="A389:C389"/>
+    <mergeCell ref="A390:C390"/>
+    <mergeCell ref="A391:C391"/>
+    <mergeCell ref="A392:C392"/>
+    <mergeCell ref="A393:C393"/>
+    <mergeCell ref="A394:C394"/>
+    <mergeCell ref="A395:C395"/>
+    <mergeCell ref="A396:C396"/>
+    <mergeCell ref="A397:C397"/>
+    <mergeCell ref="A380:C380"/>
+    <mergeCell ref="A381:C381"/>
+    <mergeCell ref="A382:C382"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="A384:C384"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="A386:C386"/>
+    <mergeCell ref="A387:C387"/>
+    <mergeCell ref="A388:C388"/>
+    <mergeCell ref="A407:C407"/>
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A411:C411"/>
+    <mergeCell ref="A412:C412"/>
+    <mergeCell ref="A413:C413"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="A415:C415"/>
+    <mergeCell ref="A398:C398"/>
+    <mergeCell ref="A399:C399"/>
+    <mergeCell ref="A400:C400"/>
+    <mergeCell ref="A401:C401"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A403:C403"/>
+    <mergeCell ref="A404:C404"/>
+    <mergeCell ref="A405:C405"/>
+    <mergeCell ref="A406:C406"/>
+    <mergeCell ref="A425:C425"/>
+    <mergeCell ref="A426:C426"/>
+    <mergeCell ref="A427:C427"/>
+    <mergeCell ref="A428:C428"/>
+    <mergeCell ref="A429:C429"/>
+    <mergeCell ref="A430:C430"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="A432:C432"/>
+    <mergeCell ref="A433:C433"/>
+    <mergeCell ref="A416:C416"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A418:C418"/>
+    <mergeCell ref="A419:C419"/>
+    <mergeCell ref="A420:C420"/>
+    <mergeCell ref="A421:C421"/>
+    <mergeCell ref="A422:C422"/>
+    <mergeCell ref="A423:C423"/>
+    <mergeCell ref="A424:C424"/>
+    <mergeCell ref="A443:C443"/>
+    <mergeCell ref="A444:C444"/>
+    <mergeCell ref="A445:C445"/>
+    <mergeCell ref="A446:C446"/>
+    <mergeCell ref="A447:C447"/>
+    <mergeCell ref="A448:C448"/>
+    <mergeCell ref="A449:C449"/>
+    <mergeCell ref="A450:C450"/>
+    <mergeCell ref="A451:C451"/>
+    <mergeCell ref="A434:C434"/>
+    <mergeCell ref="A435:C435"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="A437:C437"/>
+    <mergeCell ref="A438:C438"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="A440:C440"/>
+    <mergeCell ref="A441:C441"/>
+    <mergeCell ref="A442:C442"/>
+    <mergeCell ref="A461:C461"/>
+    <mergeCell ref="A462:C462"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="A464:C464"/>
+    <mergeCell ref="A465:C465"/>
+    <mergeCell ref="A466:C466"/>
+    <mergeCell ref="A467:C467"/>
+    <mergeCell ref="A468:C468"/>
+    <mergeCell ref="A469:C469"/>
+    <mergeCell ref="A452:C452"/>
+    <mergeCell ref="A453:C453"/>
+    <mergeCell ref="A454:C454"/>
+    <mergeCell ref="A455:C455"/>
+    <mergeCell ref="A456:C456"/>
+    <mergeCell ref="A457:C457"/>
+    <mergeCell ref="A458:C458"/>
+    <mergeCell ref="A459:C459"/>
+    <mergeCell ref="A460:C460"/>
+    <mergeCell ref="A479:C479"/>
+    <mergeCell ref="A480:C480"/>
+    <mergeCell ref="A481:C481"/>
+    <mergeCell ref="A482:C482"/>
+    <mergeCell ref="A483:C483"/>
+    <mergeCell ref="A484:C484"/>
+    <mergeCell ref="A485:C485"/>
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="A487:C487"/>
+    <mergeCell ref="A470:C470"/>
+    <mergeCell ref="A471:C471"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A473:C473"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A475:C475"/>
+    <mergeCell ref="A476:C476"/>
+    <mergeCell ref="A477:C477"/>
+    <mergeCell ref="A478:C478"/>
+    <mergeCell ref="A497:C497"/>
+    <mergeCell ref="A498:C498"/>
+    <mergeCell ref="A499:C499"/>
+    <mergeCell ref="A500:C500"/>
+    <mergeCell ref="A501:C501"/>
+    <mergeCell ref="A502:C502"/>
+    <mergeCell ref="A503:C503"/>
+    <mergeCell ref="A504:C504"/>
+    <mergeCell ref="A505:C505"/>
+    <mergeCell ref="A488:C488"/>
+    <mergeCell ref="A489:C489"/>
+    <mergeCell ref="A490:C490"/>
+    <mergeCell ref="A491:C491"/>
+    <mergeCell ref="A492:C492"/>
+    <mergeCell ref="A493:C493"/>
+    <mergeCell ref="A494:C494"/>
+    <mergeCell ref="A495:C495"/>
+    <mergeCell ref="A496:C496"/>
+    <mergeCell ref="A515:C515"/>
+    <mergeCell ref="A516:C516"/>
+    <mergeCell ref="A517:C517"/>
+    <mergeCell ref="A518:C518"/>
+    <mergeCell ref="A519:C519"/>
+    <mergeCell ref="A520:C520"/>
+    <mergeCell ref="A521:C521"/>
+    <mergeCell ref="A522:C522"/>
+    <mergeCell ref="A523:C523"/>
+    <mergeCell ref="A506:C506"/>
+    <mergeCell ref="A507:C507"/>
+    <mergeCell ref="A508:C508"/>
+    <mergeCell ref="A509:C509"/>
+    <mergeCell ref="A510:C510"/>
+    <mergeCell ref="A511:C511"/>
+    <mergeCell ref="A512:C512"/>
+    <mergeCell ref="A513:C513"/>
+    <mergeCell ref="A514:C514"/>
+    <mergeCell ref="A533:C533"/>
+    <mergeCell ref="A534:C534"/>
+    <mergeCell ref="A535:C535"/>
+    <mergeCell ref="A536:C536"/>
+    <mergeCell ref="A537:C537"/>
+    <mergeCell ref="A538:C538"/>
+    <mergeCell ref="A539:C539"/>
+    <mergeCell ref="A540:C540"/>
+    <mergeCell ref="A541:C541"/>
+    <mergeCell ref="A524:C524"/>
+    <mergeCell ref="A525:C525"/>
+    <mergeCell ref="A526:C526"/>
+    <mergeCell ref="A527:C527"/>
+    <mergeCell ref="A528:C528"/>
+    <mergeCell ref="A529:C529"/>
+    <mergeCell ref="A530:C530"/>
+    <mergeCell ref="A531:C531"/>
+    <mergeCell ref="A532:C532"/>
+    <mergeCell ref="A551:C551"/>
+    <mergeCell ref="A552:C552"/>
+    <mergeCell ref="A553:C553"/>
+    <mergeCell ref="A554:C554"/>
+    <mergeCell ref="A555:C555"/>
+    <mergeCell ref="A556:C556"/>
+    <mergeCell ref="A557:C557"/>
+    <mergeCell ref="A558:C558"/>
+    <mergeCell ref="A559:C559"/>
+    <mergeCell ref="A542:C542"/>
+    <mergeCell ref="A543:C543"/>
+    <mergeCell ref="A544:C544"/>
+    <mergeCell ref="A545:C545"/>
+    <mergeCell ref="A546:C546"/>
+    <mergeCell ref="A547:C547"/>
+    <mergeCell ref="A548:C548"/>
+    <mergeCell ref="A549:C549"/>
+    <mergeCell ref="A550:C550"/>
+    <mergeCell ref="A569:C569"/>
+    <mergeCell ref="A570:C570"/>
+    <mergeCell ref="A571:C571"/>
+    <mergeCell ref="A572:C572"/>
+    <mergeCell ref="A573:C573"/>
+    <mergeCell ref="A574:C574"/>
+    <mergeCell ref="A575:C575"/>
+    <mergeCell ref="A576:C576"/>
+    <mergeCell ref="A577:C577"/>
+    <mergeCell ref="A560:C560"/>
+    <mergeCell ref="A561:C561"/>
+    <mergeCell ref="A562:C562"/>
+    <mergeCell ref="A563:C563"/>
+    <mergeCell ref="A564:C564"/>
+    <mergeCell ref="A565:C565"/>
+    <mergeCell ref="A566:C566"/>
+    <mergeCell ref="A567:C567"/>
+    <mergeCell ref="A568:C568"/>
+    <mergeCell ref="A587:C587"/>
+    <mergeCell ref="A588:C588"/>
+    <mergeCell ref="A589:C589"/>
+    <mergeCell ref="A590:C590"/>
+    <mergeCell ref="A591:C591"/>
+    <mergeCell ref="A592:C592"/>
+    <mergeCell ref="A593:C593"/>
+    <mergeCell ref="A594:C594"/>
+    <mergeCell ref="A595:C595"/>
+    <mergeCell ref="A578:C578"/>
+    <mergeCell ref="A579:C579"/>
+    <mergeCell ref="A580:C580"/>
+    <mergeCell ref="A581:C581"/>
+    <mergeCell ref="A582:C582"/>
+    <mergeCell ref="A583:C583"/>
+    <mergeCell ref="A584:C584"/>
+    <mergeCell ref="A585:C585"/>
+    <mergeCell ref="A586:C586"/>
+    <mergeCell ref="A605:C605"/>
+    <mergeCell ref="A606:C606"/>
+    <mergeCell ref="A607:C607"/>
+    <mergeCell ref="A608:C608"/>
+    <mergeCell ref="A609:C609"/>
+    <mergeCell ref="A610:C610"/>
+    <mergeCell ref="A611:C611"/>
+    <mergeCell ref="A612:C612"/>
+    <mergeCell ref="A613:C613"/>
+    <mergeCell ref="A596:C596"/>
+    <mergeCell ref="A597:C597"/>
+    <mergeCell ref="A598:C598"/>
+    <mergeCell ref="A599:C599"/>
+    <mergeCell ref="A600:C600"/>
+    <mergeCell ref="A601:C601"/>
+    <mergeCell ref="A602:C602"/>
+    <mergeCell ref="A603:C603"/>
+    <mergeCell ref="A604:C604"/>
+    <mergeCell ref="A623:C623"/>
+    <mergeCell ref="A624:C624"/>
+    <mergeCell ref="A625:C625"/>
+    <mergeCell ref="A626:C626"/>
+    <mergeCell ref="A627:C627"/>
+    <mergeCell ref="A628:C628"/>
+    <mergeCell ref="A629:C629"/>
+    <mergeCell ref="A630:C630"/>
+    <mergeCell ref="A631:C631"/>
+    <mergeCell ref="A614:C614"/>
+    <mergeCell ref="A615:C615"/>
+    <mergeCell ref="A616:C616"/>
+    <mergeCell ref="A617:C617"/>
+    <mergeCell ref="A618:C618"/>
+    <mergeCell ref="A619:C619"/>
+    <mergeCell ref="A620:C620"/>
+    <mergeCell ref="A621:C621"/>
+    <mergeCell ref="A622:C622"/>
+    <mergeCell ref="A641:C641"/>
+    <mergeCell ref="A642:C642"/>
+    <mergeCell ref="A643:C643"/>
+    <mergeCell ref="A644:C644"/>
+    <mergeCell ref="A645:C645"/>
+    <mergeCell ref="A646:C646"/>
+    <mergeCell ref="A647:C647"/>
+    <mergeCell ref="A648:C648"/>
+    <mergeCell ref="A649:C649"/>
+    <mergeCell ref="A632:C632"/>
+    <mergeCell ref="A633:C633"/>
+    <mergeCell ref="A634:C634"/>
+    <mergeCell ref="A635:C635"/>
+    <mergeCell ref="A636:C636"/>
+    <mergeCell ref="A637:C637"/>
+    <mergeCell ref="A638:C638"/>
+    <mergeCell ref="A639:C639"/>
+    <mergeCell ref="A640:C640"/>
+    <mergeCell ref="A659:C659"/>
+    <mergeCell ref="A660:C660"/>
+    <mergeCell ref="A661:C661"/>
+    <mergeCell ref="A662:C662"/>
+    <mergeCell ref="A663:C663"/>
+    <mergeCell ref="A664:C664"/>
+    <mergeCell ref="A665:C665"/>
+    <mergeCell ref="A666:C666"/>
+    <mergeCell ref="A667:C667"/>
+    <mergeCell ref="A650:C650"/>
+    <mergeCell ref="A651:C651"/>
+    <mergeCell ref="A652:C652"/>
+    <mergeCell ref="A653:C653"/>
+    <mergeCell ref="A654:C654"/>
+    <mergeCell ref="A655:C655"/>
+    <mergeCell ref="A656:C656"/>
+    <mergeCell ref="A657:C657"/>
+    <mergeCell ref="A658:C658"/>
+    <mergeCell ref="A677:C677"/>
+    <mergeCell ref="A678:C678"/>
+    <mergeCell ref="A679:C679"/>
+    <mergeCell ref="A680:C680"/>
+    <mergeCell ref="A681:C681"/>
+    <mergeCell ref="A682:C682"/>
+    <mergeCell ref="A683:C683"/>
+    <mergeCell ref="A684:C684"/>
+    <mergeCell ref="A685:C685"/>
+    <mergeCell ref="A668:C668"/>
+    <mergeCell ref="A669:C669"/>
+    <mergeCell ref="A670:C670"/>
+    <mergeCell ref="A671:C671"/>
+    <mergeCell ref="A672:C672"/>
+    <mergeCell ref="A673:C673"/>
+    <mergeCell ref="A674:C674"/>
+    <mergeCell ref="A675:C675"/>
+    <mergeCell ref="A676:C676"/>
+    <mergeCell ref="A695:C695"/>
+    <mergeCell ref="A696:C696"/>
+    <mergeCell ref="A697:C697"/>
+    <mergeCell ref="A698:C698"/>
+    <mergeCell ref="A699:C699"/>
+    <mergeCell ref="A700:C700"/>
+    <mergeCell ref="A701:C701"/>
+    <mergeCell ref="A702:C702"/>
+    <mergeCell ref="A703:C703"/>
+    <mergeCell ref="A686:C686"/>
+    <mergeCell ref="A687:C687"/>
+    <mergeCell ref="A688:C688"/>
+    <mergeCell ref="A689:C689"/>
+    <mergeCell ref="A690:C690"/>
+    <mergeCell ref="A691:C691"/>
+    <mergeCell ref="A692:C692"/>
+    <mergeCell ref="A693:C693"/>
+    <mergeCell ref="A694:C694"/>
+    <mergeCell ref="A713:C713"/>
+    <mergeCell ref="A714:C714"/>
+    <mergeCell ref="A715:C715"/>
+    <mergeCell ref="A716:C716"/>
+    <mergeCell ref="A717:C717"/>
+    <mergeCell ref="A718:C718"/>
+    <mergeCell ref="A719:C719"/>
+    <mergeCell ref="A720:C720"/>
+    <mergeCell ref="A721:C721"/>
+    <mergeCell ref="A704:C704"/>
+    <mergeCell ref="A705:C705"/>
+    <mergeCell ref="A706:C706"/>
+    <mergeCell ref="A707:C707"/>
+    <mergeCell ref="A708:C708"/>
+    <mergeCell ref="A709:C709"/>
+    <mergeCell ref="A710:C710"/>
+    <mergeCell ref="A711:C711"/>
+    <mergeCell ref="A712:C712"/>
+    <mergeCell ref="A731:C731"/>
+    <mergeCell ref="A732:C732"/>
+    <mergeCell ref="A733:C733"/>
+    <mergeCell ref="A734:C734"/>
+    <mergeCell ref="A735:C735"/>
+    <mergeCell ref="A736:C736"/>
+    <mergeCell ref="A737:C737"/>
+    <mergeCell ref="A738:C738"/>
+    <mergeCell ref="A739:C739"/>
+    <mergeCell ref="A722:C722"/>
+    <mergeCell ref="A723:C723"/>
+    <mergeCell ref="A724:C724"/>
+    <mergeCell ref="A725:C725"/>
+    <mergeCell ref="A726:C726"/>
+    <mergeCell ref="A727:C727"/>
+    <mergeCell ref="A728:C728"/>
+    <mergeCell ref="A729:C729"/>
+    <mergeCell ref="A730:C730"/>
+    <mergeCell ref="A749:C749"/>
+    <mergeCell ref="A750:C750"/>
+    <mergeCell ref="A751:C751"/>
+    <mergeCell ref="A752:C752"/>
+    <mergeCell ref="A753:C753"/>
+    <mergeCell ref="A754:C754"/>
+    <mergeCell ref="A755:C755"/>
+    <mergeCell ref="A756:C756"/>
+    <mergeCell ref="A757:C757"/>
+    <mergeCell ref="A740:C740"/>
+    <mergeCell ref="A741:C741"/>
+    <mergeCell ref="A742:C742"/>
+    <mergeCell ref="A743:C743"/>
+    <mergeCell ref="A744:C744"/>
+    <mergeCell ref="A745:C745"/>
+    <mergeCell ref="A746:C746"/>
+    <mergeCell ref="A747:C747"/>
+    <mergeCell ref="A748:C748"/>
+    <mergeCell ref="A767:C767"/>
+    <mergeCell ref="A768:C768"/>
+    <mergeCell ref="A769:C769"/>
+    <mergeCell ref="A770:C770"/>
+    <mergeCell ref="A771:C771"/>
+    <mergeCell ref="A772:C772"/>
+    <mergeCell ref="A773:C773"/>
+    <mergeCell ref="A774:C774"/>
+    <mergeCell ref="A775:C775"/>
+    <mergeCell ref="A758:C758"/>
+    <mergeCell ref="A759:C759"/>
+    <mergeCell ref="A760:C760"/>
+    <mergeCell ref="A761:C761"/>
+    <mergeCell ref="A762:C762"/>
+    <mergeCell ref="A763:C763"/>
+    <mergeCell ref="A764:C764"/>
+    <mergeCell ref="A765:C765"/>
+    <mergeCell ref="A766:C766"/>
+    <mergeCell ref="A785:C785"/>
+    <mergeCell ref="A786:C786"/>
+    <mergeCell ref="A787:C787"/>
+    <mergeCell ref="A788:C788"/>
+    <mergeCell ref="A789:C789"/>
+    <mergeCell ref="A790:C790"/>
+    <mergeCell ref="A791:C791"/>
+    <mergeCell ref="A792:C792"/>
+    <mergeCell ref="A793:C793"/>
+    <mergeCell ref="A776:C776"/>
+    <mergeCell ref="A777:C777"/>
+    <mergeCell ref="A778:C778"/>
+    <mergeCell ref="A779:C779"/>
+    <mergeCell ref="A780:C780"/>
+    <mergeCell ref="A781:C781"/>
+    <mergeCell ref="A782:C782"/>
+    <mergeCell ref="A783:C783"/>
+    <mergeCell ref="A784:C784"/>
+    <mergeCell ref="A803:C803"/>
+    <mergeCell ref="A804:C804"/>
+    <mergeCell ref="A805:C805"/>
+    <mergeCell ref="A806:C806"/>
+    <mergeCell ref="A807:C807"/>
+    <mergeCell ref="A808:C808"/>
+    <mergeCell ref="A809:C809"/>
+    <mergeCell ref="A810:C810"/>
+    <mergeCell ref="A811:C811"/>
+    <mergeCell ref="A794:C794"/>
+    <mergeCell ref="A795:C795"/>
+    <mergeCell ref="A796:C796"/>
+    <mergeCell ref="A797:C797"/>
+    <mergeCell ref="A798:C798"/>
+    <mergeCell ref="A799:C799"/>
+    <mergeCell ref="A800:C800"/>
+    <mergeCell ref="A801:C801"/>
+    <mergeCell ref="A802:C802"/>
+    <mergeCell ref="A821:C821"/>
+    <mergeCell ref="A822:C822"/>
+    <mergeCell ref="A823:C823"/>
+    <mergeCell ref="A824:C824"/>
+    <mergeCell ref="A825:C825"/>
+    <mergeCell ref="A826:C826"/>
+    <mergeCell ref="A827:C827"/>
+    <mergeCell ref="A828:C828"/>
+    <mergeCell ref="A829:C829"/>
+    <mergeCell ref="A812:C812"/>
+    <mergeCell ref="A813:C813"/>
+    <mergeCell ref="A814:C814"/>
+    <mergeCell ref="A815:C815"/>
+    <mergeCell ref="A816:C816"/>
+    <mergeCell ref="A817:C817"/>
+    <mergeCell ref="A818:C818"/>
+    <mergeCell ref="A819:C819"/>
+    <mergeCell ref="A820:C820"/>
+    <mergeCell ref="A839:C839"/>
+    <mergeCell ref="A840:C840"/>
+    <mergeCell ref="A841:C841"/>
+    <mergeCell ref="A842:C842"/>
+    <mergeCell ref="A843:C843"/>
+    <mergeCell ref="A844:C844"/>
+    <mergeCell ref="A845:C845"/>
+    <mergeCell ref="A846:C846"/>
+    <mergeCell ref="A847:C847"/>
+    <mergeCell ref="A830:C830"/>
+    <mergeCell ref="A831:C831"/>
+    <mergeCell ref="A832:C832"/>
+    <mergeCell ref="A833:C833"/>
+    <mergeCell ref="A834:C834"/>
+    <mergeCell ref="A835:C835"/>
+    <mergeCell ref="A836:C836"/>
+    <mergeCell ref="A837:C837"/>
+    <mergeCell ref="A838:C838"/>
+    <mergeCell ref="A857:C857"/>
+    <mergeCell ref="A858:C858"/>
+    <mergeCell ref="A859:C859"/>
+    <mergeCell ref="A860:C860"/>
+    <mergeCell ref="A861:C861"/>
+    <mergeCell ref="A862:C862"/>
+    <mergeCell ref="A863:C863"/>
+    <mergeCell ref="A864:C864"/>
+    <mergeCell ref="A865:C865"/>
+    <mergeCell ref="A848:C848"/>
+    <mergeCell ref="A849:C849"/>
+    <mergeCell ref="A850:C850"/>
+    <mergeCell ref="A851:C851"/>
+    <mergeCell ref="A852:C852"/>
+    <mergeCell ref="A853:C853"/>
+    <mergeCell ref="A854:C854"/>
+    <mergeCell ref="A855:C855"/>
+    <mergeCell ref="A856:C856"/>
+    <mergeCell ref="A875:C875"/>
+    <mergeCell ref="A876:C876"/>
+    <mergeCell ref="A877:C877"/>
+    <mergeCell ref="A878:C878"/>
+    <mergeCell ref="A879:C879"/>
+    <mergeCell ref="A880:C880"/>
+    <mergeCell ref="A881:C881"/>
+    <mergeCell ref="A882:C882"/>
+    <mergeCell ref="A883:C883"/>
+    <mergeCell ref="A866:C866"/>
+    <mergeCell ref="A867:C867"/>
+    <mergeCell ref="A868:C868"/>
+    <mergeCell ref="A869:C869"/>
+    <mergeCell ref="A870:C870"/>
+    <mergeCell ref="A871:C871"/>
+    <mergeCell ref="A872:C872"/>
+    <mergeCell ref="A873:C873"/>
+    <mergeCell ref="A874:C874"/>
+    <mergeCell ref="A893:C893"/>
+    <mergeCell ref="A894:C894"/>
+    <mergeCell ref="A895:C895"/>
+    <mergeCell ref="A896:C896"/>
+    <mergeCell ref="A897:C897"/>
+    <mergeCell ref="A898:C898"/>
+    <mergeCell ref="A899:C899"/>
+    <mergeCell ref="A900:C900"/>
+    <mergeCell ref="A901:C901"/>
+    <mergeCell ref="A884:C884"/>
+    <mergeCell ref="A885:C885"/>
+    <mergeCell ref="A886:C886"/>
+    <mergeCell ref="A887:C887"/>
+    <mergeCell ref="A888:C888"/>
+    <mergeCell ref="A889:C889"/>
+    <mergeCell ref="A890:C890"/>
+    <mergeCell ref="A891:C891"/>
+    <mergeCell ref="A892:C892"/>
+    <mergeCell ref="A911:C911"/>
+    <mergeCell ref="A912:C912"/>
+    <mergeCell ref="A913:C913"/>
+    <mergeCell ref="A914:C914"/>
+    <mergeCell ref="A915:C915"/>
+    <mergeCell ref="A916:C916"/>
+    <mergeCell ref="A917:C917"/>
+    <mergeCell ref="A918:C918"/>
+    <mergeCell ref="A919:C919"/>
+    <mergeCell ref="A902:C902"/>
+    <mergeCell ref="A903:C903"/>
+    <mergeCell ref="A904:C904"/>
+    <mergeCell ref="A905:C905"/>
+    <mergeCell ref="A906:C906"/>
+    <mergeCell ref="A907:C907"/>
+    <mergeCell ref="A908:C908"/>
+    <mergeCell ref="A909:C909"/>
+    <mergeCell ref="A910:C910"/>
+    <mergeCell ref="A929:C929"/>
+    <mergeCell ref="A930:C930"/>
+    <mergeCell ref="A931:C931"/>
+    <mergeCell ref="A932:C932"/>
+    <mergeCell ref="A933:C933"/>
+    <mergeCell ref="A934:C934"/>
+    <mergeCell ref="A935:C935"/>
+    <mergeCell ref="A936:C936"/>
+    <mergeCell ref="A937:C937"/>
+    <mergeCell ref="A920:C920"/>
+    <mergeCell ref="A921:C921"/>
+    <mergeCell ref="A922:C922"/>
+    <mergeCell ref="A923:C923"/>
+    <mergeCell ref="A924:C924"/>
+    <mergeCell ref="A925:C925"/>
+    <mergeCell ref="A926:C926"/>
+    <mergeCell ref="A927:C927"/>
+    <mergeCell ref="A928:C928"/>
+    <mergeCell ref="A947:C947"/>
+    <mergeCell ref="A948:C948"/>
+    <mergeCell ref="A949:C949"/>
+    <mergeCell ref="A950:C950"/>
+    <mergeCell ref="A951:C951"/>
+    <mergeCell ref="A952:C952"/>
+    <mergeCell ref="A953:C953"/>
+    <mergeCell ref="A954:C954"/>
+    <mergeCell ref="A955:C955"/>
+    <mergeCell ref="A938:C938"/>
+    <mergeCell ref="A939:C939"/>
+    <mergeCell ref="A940:C940"/>
+    <mergeCell ref="A941:C941"/>
+    <mergeCell ref="A942:C942"/>
+    <mergeCell ref="A943:C943"/>
+    <mergeCell ref="A944:C944"/>
+    <mergeCell ref="A945:C945"/>
+    <mergeCell ref="A946:C946"/>
+    <mergeCell ref="A965:C965"/>
+    <mergeCell ref="A966:C966"/>
+    <mergeCell ref="A967:C967"/>
+    <mergeCell ref="A968:C968"/>
+    <mergeCell ref="A969:C969"/>
+    <mergeCell ref="A970:C970"/>
+    <mergeCell ref="A971:C971"/>
+    <mergeCell ref="A972:C972"/>
+    <mergeCell ref="A973:C973"/>
+    <mergeCell ref="A956:C956"/>
+    <mergeCell ref="A957:C957"/>
+    <mergeCell ref="A958:C958"/>
+    <mergeCell ref="A959:C959"/>
+    <mergeCell ref="A960:C960"/>
+    <mergeCell ref="A961:C961"/>
+    <mergeCell ref="A962:C962"/>
+    <mergeCell ref="A963:C963"/>
+    <mergeCell ref="A964:C964"/>
+    <mergeCell ref="A983:C983"/>
+    <mergeCell ref="A984:C984"/>
+    <mergeCell ref="A985:C985"/>
+    <mergeCell ref="A986:C986"/>
+    <mergeCell ref="A987:C987"/>
+    <mergeCell ref="A988:C988"/>
+    <mergeCell ref="A989:C989"/>
+    <mergeCell ref="A990:C990"/>
+    <mergeCell ref="A991:C991"/>
+    <mergeCell ref="A974:C974"/>
+    <mergeCell ref="A975:C975"/>
+    <mergeCell ref="A976:C976"/>
+    <mergeCell ref="A977:C977"/>
+    <mergeCell ref="A978:C978"/>
+    <mergeCell ref="A979:C979"/>
+    <mergeCell ref="A980:C980"/>
+    <mergeCell ref="A981:C981"/>
+    <mergeCell ref="A982:C982"/>
+    <mergeCell ref="A1001:C1001"/>
+    <mergeCell ref="A1002:C1002"/>
+    <mergeCell ref="A1003:C1003"/>
+    <mergeCell ref="A1004:C1004"/>
+    <mergeCell ref="A1005:C1005"/>
+    <mergeCell ref="A1006:C1006"/>
+    <mergeCell ref="A1007:C1007"/>
+    <mergeCell ref="A1008:C1008"/>
+    <mergeCell ref="A1009:C1009"/>
+    <mergeCell ref="A992:C992"/>
+    <mergeCell ref="A993:C993"/>
+    <mergeCell ref="A994:C994"/>
+    <mergeCell ref="A995:C995"/>
+    <mergeCell ref="A996:C996"/>
+    <mergeCell ref="A997:C997"/>
+    <mergeCell ref="A998:C998"/>
+    <mergeCell ref="A999:C999"/>
+    <mergeCell ref="A1000:C1000"/>
+    <mergeCell ref="A1019:C1019"/>
+    <mergeCell ref="A1020:C1020"/>
+    <mergeCell ref="A1021:C1021"/>
+    <mergeCell ref="A1022:C1022"/>
+    <mergeCell ref="A1023:C1023"/>
+    <mergeCell ref="A1024:C1024"/>
+    <mergeCell ref="A1025:C1025"/>
+    <mergeCell ref="A1026:C1026"/>
+    <mergeCell ref="A1027:C1027"/>
+    <mergeCell ref="A1010:C1010"/>
+    <mergeCell ref="A1011:C1011"/>
+    <mergeCell ref="A1012:C1012"/>
+    <mergeCell ref="A1013:C1013"/>
+    <mergeCell ref="A1014:C1014"/>
+    <mergeCell ref="A1015:C1015"/>
+    <mergeCell ref="A1016:C1016"/>
+    <mergeCell ref="A1017:C1017"/>
+    <mergeCell ref="A1018:C1018"/>
+    <mergeCell ref="A1037:C1037"/>
+    <mergeCell ref="A1038:C1038"/>
+    <mergeCell ref="A1039:C1039"/>
+    <mergeCell ref="A1040:C1040"/>
+    <mergeCell ref="A1041:C1041"/>
+    <mergeCell ref="A1042:C1042"/>
+    <mergeCell ref="A1043:C1043"/>
+    <mergeCell ref="A1044:C1044"/>
+    <mergeCell ref="A1045:C1045"/>
+    <mergeCell ref="A1028:C1028"/>
+    <mergeCell ref="A1029:C1029"/>
+    <mergeCell ref="A1030:C1030"/>
+    <mergeCell ref="A1031:C1031"/>
+    <mergeCell ref="A1032:C1032"/>
+    <mergeCell ref="A1033:C1033"/>
+    <mergeCell ref="A1034:C1034"/>
+    <mergeCell ref="A1035:C1035"/>
+    <mergeCell ref="A1036:C1036"/>
+    <mergeCell ref="A1055:C1055"/>
+    <mergeCell ref="A1056:C1056"/>
+    <mergeCell ref="A1057:C1057"/>
+    <mergeCell ref="A1058:C1058"/>
+    <mergeCell ref="A1059:C1059"/>
+    <mergeCell ref="A1060:C1060"/>
+    <mergeCell ref="A1061:C1061"/>
+    <mergeCell ref="A1062:C1062"/>
+    <mergeCell ref="A1063:C1063"/>
+    <mergeCell ref="A1046:C1046"/>
+    <mergeCell ref="A1047:C1047"/>
+    <mergeCell ref="A1048:C1048"/>
+    <mergeCell ref="A1049:C1049"/>
+    <mergeCell ref="A1050:C1050"/>
+    <mergeCell ref="A1051:C1051"/>
+    <mergeCell ref="A1052:C1052"/>
+    <mergeCell ref="A1053:C1053"/>
+    <mergeCell ref="A1054:C1054"/>
+    <mergeCell ref="A1073:C1073"/>
+    <mergeCell ref="A1074:C1074"/>
+    <mergeCell ref="A1075:C1075"/>
+    <mergeCell ref="A1076:C1076"/>
+    <mergeCell ref="A1077:C1077"/>
+    <mergeCell ref="A1078:C1078"/>
+    <mergeCell ref="A1079:C1079"/>
+    <mergeCell ref="A1080:C1080"/>
+    <mergeCell ref="A1081:C1081"/>
+    <mergeCell ref="A1064:C1064"/>
+    <mergeCell ref="A1065:C1065"/>
+    <mergeCell ref="A1066:C1066"/>
+    <mergeCell ref="A1067:C1067"/>
+    <mergeCell ref="A1068:C1068"/>
+    <mergeCell ref="A1069:C1069"/>
+    <mergeCell ref="A1070:C1070"/>
+    <mergeCell ref="A1071:C1071"/>
+    <mergeCell ref="A1072:C1072"/>
+    <mergeCell ref="A1091:C1091"/>
+    <mergeCell ref="A1092:C1092"/>
+    <mergeCell ref="A1093:C1093"/>
+    <mergeCell ref="A1094:C1094"/>
+    <mergeCell ref="A1095:C1095"/>
+    <mergeCell ref="A1096:C1096"/>
+    <mergeCell ref="A1097:C1097"/>
+    <mergeCell ref="A1098:C1098"/>
+    <mergeCell ref="A1099:C1099"/>
+    <mergeCell ref="A1082:C1082"/>
+    <mergeCell ref="A1083:C1083"/>
+    <mergeCell ref="A1084:C1084"/>
+    <mergeCell ref="A1085:C1085"/>
+    <mergeCell ref="A1086:C1086"/>
+    <mergeCell ref="A1087:C1087"/>
+    <mergeCell ref="A1088:C1088"/>
+    <mergeCell ref="A1089:C1089"/>
+    <mergeCell ref="A1090:C1090"/>
+    <mergeCell ref="A1109:C1109"/>
+    <mergeCell ref="A1110:C1110"/>
+    <mergeCell ref="A1111:C1111"/>
+    <mergeCell ref="A1112:C1112"/>
+    <mergeCell ref="A1113:C1113"/>
+    <mergeCell ref="A1114:C1114"/>
+    <mergeCell ref="A1115:C1115"/>
+    <mergeCell ref="A1116:C1116"/>
+    <mergeCell ref="A1117:C1117"/>
+    <mergeCell ref="A1100:C1100"/>
+    <mergeCell ref="A1101:C1101"/>
+    <mergeCell ref="A1102:C1102"/>
+    <mergeCell ref="A1103:C1103"/>
+    <mergeCell ref="A1104:C1104"/>
+    <mergeCell ref="A1105:C1105"/>
+    <mergeCell ref="A1106:C1106"/>
+    <mergeCell ref="A1107:C1107"/>
+    <mergeCell ref="A1108:C1108"/>
+    <mergeCell ref="A1127:C1127"/>
+    <mergeCell ref="A1128:C1128"/>
+    <mergeCell ref="A1129:C1129"/>
+    <mergeCell ref="A1130:C1130"/>
+    <mergeCell ref="A1131:C1131"/>
+    <mergeCell ref="A1132:C1132"/>
+    <mergeCell ref="A1133:C1133"/>
+    <mergeCell ref="A1134:C1134"/>
+    <mergeCell ref="A1135:C1135"/>
+    <mergeCell ref="A1118:C1118"/>
+    <mergeCell ref="A1119:C1119"/>
+    <mergeCell ref="A1120:C1120"/>
+    <mergeCell ref="A1121:C1121"/>
+    <mergeCell ref="A1122:C1122"/>
+    <mergeCell ref="A1123:C1123"/>
+    <mergeCell ref="A1124:C1124"/>
+    <mergeCell ref="A1125:C1125"/>
+    <mergeCell ref="A1126:C1126"/>
+    <mergeCell ref="A1145:C1145"/>
+    <mergeCell ref="A1146:C1146"/>
+    <mergeCell ref="A1147:C1147"/>
+    <mergeCell ref="A1148:C1148"/>
+    <mergeCell ref="A1149:C1149"/>
+    <mergeCell ref="A1150:C1150"/>
+    <mergeCell ref="A1151:C1151"/>
+    <mergeCell ref="A1152:C1152"/>
+    <mergeCell ref="A1153:C1153"/>
+    <mergeCell ref="A1136:C1136"/>
+    <mergeCell ref="A1137:C1137"/>
+    <mergeCell ref="A1138:C1138"/>
+    <mergeCell ref="A1139:C1139"/>
+    <mergeCell ref="A1140:C1140"/>
+    <mergeCell ref="A1141:C1141"/>
+    <mergeCell ref="A1142:C1142"/>
+    <mergeCell ref="A1143:C1143"/>
+    <mergeCell ref="A1144:C1144"/>
+    <mergeCell ref="A1163:C1163"/>
+    <mergeCell ref="A1164:C1164"/>
+    <mergeCell ref="A1165:C1165"/>
+    <mergeCell ref="A1166:C1166"/>
+    <mergeCell ref="A1167:C1167"/>
+    <mergeCell ref="A1168:C1168"/>
+    <mergeCell ref="A1169:C1169"/>
+    <mergeCell ref="A1170:C1170"/>
+    <mergeCell ref="A1171:C1171"/>
+    <mergeCell ref="A1154:C1154"/>
+    <mergeCell ref="A1155:C1155"/>
+    <mergeCell ref="A1156:C1156"/>
+    <mergeCell ref="A1157:C1157"/>
+    <mergeCell ref="A1158:C1158"/>
+    <mergeCell ref="A1159:C1159"/>
+    <mergeCell ref="A1160:C1160"/>
+    <mergeCell ref="A1161:C1161"/>
+    <mergeCell ref="A1162:C1162"/>
+    <mergeCell ref="A1181:C1181"/>
+    <mergeCell ref="A1182:C1182"/>
+    <mergeCell ref="A1183:C1183"/>
+    <mergeCell ref="A1184:C1184"/>
+    <mergeCell ref="A1185:C1185"/>
+    <mergeCell ref="A1186:C1186"/>
+    <mergeCell ref="A1187:C1187"/>
+    <mergeCell ref="A1188:C1188"/>
+    <mergeCell ref="A1189:C1189"/>
+    <mergeCell ref="A1172:C1172"/>
+    <mergeCell ref="A1173:C1173"/>
+    <mergeCell ref="A1174:C1174"/>
+    <mergeCell ref="A1175:C1175"/>
+    <mergeCell ref="A1176:C1176"/>
+    <mergeCell ref="A1177:C1177"/>
+    <mergeCell ref="A1178:C1178"/>
+    <mergeCell ref="A1179:C1179"/>
+    <mergeCell ref="A1180:C1180"/>
+    <mergeCell ref="A1199:C1199"/>
+    <mergeCell ref="A1200:C1200"/>
+    <mergeCell ref="A1201:C1201"/>
+    <mergeCell ref="A1202:C1202"/>
+    <mergeCell ref="A1203:C1203"/>
+    <mergeCell ref="A1204:C1204"/>
+    <mergeCell ref="A1205:C1205"/>
+    <mergeCell ref="A1206:C1206"/>
+    <mergeCell ref="A1207:C1207"/>
+    <mergeCell ref="A1190:C1190"/>
+    <mergeCell ref="A1191:C1191"/>
+    <mergeCell ref="A1192:C1192"/>
+    <mergeCell ref="A1193:C1193"/>
+    <mergeCell ref="A1194:C1194"/>
+    <mergeCell ref="A1195:C1195"/>
+    <mergeCell ref="A1196:C1196"/>
+    <mergeCell ref="A1197:C1197"/>
+    <mergeCell ref="A1198:C1198"/>
+    <mergeCell ref="A1217:C1217"/>
+    <mergeCell ref="A1218:C1218"/>
+    <mergeCell ref="A1219:C1219"/>
+    <mergeCell ref="A1220:C1220"/>
+    <mergeCell ref="A1221:C1221"/>
+    <mergeCell ref="A1222:C1222"/>
+    <mergeCell ref="A1223:C1223"/>
+    <mergeCell ref="A1224:C1224"/>
+    <mergeCell ref="A1225:C1225"/>
+    <mergeCell ref="A1208:C1208"/>
+    <mergeCell ref="A1209:C1209"/>
+    <mergeCell ref="A1210:C1210"/>
+    <mergeCell ref="A1211:C1211"/>
+    <mergeCell ref="A1212:C1212"/>
+    <mergeCell ref="A1213:C1213"/>
+    <mergeCell ref="A1214:C1214"/>
+    <mergeCell ref="A1215:C1215"/>
+    <mergeCell ref="A1216:C1216"/>
+    <mergeCell ref="A1235:C1235"/>
+    <mergeCell ref="A1236:C1236"/>
+    <mergeCell ref="A1237:C1237"/>
+    <mergeCell ref="A1238:C1238"/>
+    <mergeCell ref="A1239:C1239"/>
+    <mergeCell ref="A1240:C1240"/>
+    <mergeCell ref="A1241:C1241"/>
+    <mergeCell ref="A1242:C1242"/>
+    <mergeCell ref="A1243:C1243"/>
+    <mergeCell ref="A1226:C1226"/>
+    <mergeCell ref="A1227:C1227"/>
+    <mergeCell ref="A1228:C1228"/>
+    <mergeCell ref="A1229:C1229"/>
+    <mergeCell ref="A1230:C1230"/>
+    <mergeCell ref="A1231:C1231"/>
+    <mergeCell ref="A1232:C1232"/>
+    <mergeCell ref="A1233:C1233"/>
+    <mergeCell ref="A1234:C1234"/>
+    <mergeCell ref="A1253:C1253"/>
+    <mergeCell ref="A1254:C1254"/>
+    <mergeCell ref="A1255:C1255"/>
+    <mergeCell ref="A1256:C1256"/>
+    <mergeCell ref="A1257:C1257"/>
+    <mergeCell ref="A1258:C1258"/>
+    <mergeCell ref="A1259:C1259"/>
+    <mergeCell ref="A1260:C1260"/>
+    <mergeCell ref="A1261:C1261"/>
+    <mergeCell ref="A1244:C1244"/>
+    <mergeCell ref="A1245:C1245"/>
+    <mergeCell ref="A1246:C1246"/>
+    <mergeCell ref="A1247:C1247"/>
+    <mergeCell ref="A1248:C1248"/>
+    <mergeCell ref="A1249:C1249"/>
+    <mergeCell ref="A1250:C1250"/>
+    <mergeCell ref="A1251:C1251"/>
+    <mergeCell ref="A1252:C1252"/>
+    <mergeCell ref="A1271:C1271"/>
+    <mergeCell ref="A1272:C1272"/>
+    <mergeCell ref="A1273:C1273"/>
+    <mergeCell ref="A1274:C1274"/>
+    <mergeCell ref="A1275:C1275"/>
+    <mergeCell ref="A1276:C1276"/>
+    <mergeCell ref="A1277:C1277"/>
+    <mergeCell ref="A1278:C1278"/>
+    <mergeCell ref="A1279:C1279"/>
+    <mergeCell ref="A1262:C1262"/>
+    <mergeCell ref="A1263:C1263"/>
+    <mergeCell ref="A1264:C1264"/>
+    <mergeCell ref="A1265:C1265"/>
+    <mergeCell ref="A1266:C1266"/>
+    <mergeCell ref="A1267:C1267"/>
+    <mergeCell ref="A1268:C1268"/>
+    <mergeCell ref="A1269:C1269"/>
+    <mergeCell ref="A1270:C1270"/>
+    <mergeCell ref="A1289:C1289"/>
+    <mergeCell ref="A1290:C1290"/>
+    <mergeCell ref="A1291:C1291"/>
+    <mergeCell ref="A1292:C1292"/>
+    <mergeCell ref="A1293:C1293"/>
+    <mergeCell ref="A1294:C1294"/>
+    <mergeCell ref="A1295:C1295"/>
+    <mergeCell ref="A1296:C1296"/>
+    <mergeCell ref="A1297:C1297"/>
+    <mergeCell ref="A1280:C1280"/>
+    <mergeCell ref="A1281:C1281"/>
+    <mergeCell ref="A1282:C1282"/>
+    <mergeCell ref="A1283:C1283"/>
+    <mergeCell ref="A1284:C1284"/>
+    <mergeCell ref="A1285:C1285"/>
+    <mergeCell ref="A1286:C1286"/>
+    <mergeCell ref="A1287:C1287"/>
+    <mergeCell ref="A1288:C1288"/>
+    <mergeCell ref="A1307:C1307"/>
+    <mergeCell ref="A1308:C1308"/>
+    <mergeCell ref="A1309:C1309"/>
+    <mergeCell ref="A1310:C1310"/>
+    <mergeCell ref="A1311:C1311"/>
+    <mergeCell ref="A1312:C1312"/>
+    <mergeCell ref="A1313:C1313"/>
+    <mergeCell ref="A1314:C1314"/>
+    <mergeCell ref="A1315:C1315"/>
+    <mergeCell ref="A1298:C1298"/>
+    <mergeCell ref="A1299:C1299"/>
+    <mergeCell ref="A1300:C1300"/>
+    <mergeCell ref="A1301:C1301"/>
+    <mergeCell ref="A1302:C1302"/>
+    <mergeCell ref="A1303:C1303"/>
+    <mergeCell ref="A1304:C1304"/>
+    <mergeCell ref="A1305:C1305"/>
+    <mergeCell ref="A1306:C1306"/>
+    <mergeCell ref="A1325:C1325"/>
+    <mergeCell ref="A1326:C1326"/>
+    <mergeCell ref="A1327:C1327"/>
+    <mergeCell ref="A1328:C1328"/>
+    <mergeCell ref="A1329:C1329"/>
+    <mergeCell ref="A1330:C1330"/>
+    <mergeCell ref="A1331:C1331"/>
+    <mergeCell ref="A1332:C1332"/>
+    <mergeCell ref="A1333:C1333"/>
+    <mergeCell ref="A1316:C1316"/>
+    <mergeCell ref="A1317:C1317"/>
+    <mergeCell ref="A1318:C1318"/>
+    <mergeCell ref="A1319:C1319"/>
+    <mergeCell ref="A1320:C1320"/>
+    <mergeCell ref="A1321:C1321"/>
+    <mergeCell ref="A1322:C1322"/>
+    <mergeCell ref="A1323:C1323"/>
+    <mergeCell ref="A1324:C1324"/>
+    <mergeCell ref="A1343:C1343"/>
+    <mergeCell ref="A1344:C1344"/>
+    <mergeCell ref="A1345:C1345"/>
+    <mergeCell ref="A1346:C1346"/>
+    <mergeCell ref="A1347:C1347"/>
+    <mergeCell ref="A1348:C1348"/>
+    <mergeCell ref="A1349:C1349"/>
+    <mergeCell ref="A1350:C1350"/>
+    <mergeCell ref="A1351:C1351"/>
+    <mergeCell ref="A1334:C1334"/>
+    <mergeCell ref="A1335:C1335"/>
+    <mergeCell ref="A1336:C1336"/>
+    <mergeCell ref="A1337:C1337"/>
+    <mergeCell ref="A1338:C1338"/>
+    <mergeCell ref="A1339:C1339"/>
+    <mergeCell ref="A1340:C1340"/>
+    <mergeCell ref="A1341:C1341"/>
+    <mergeCell ref="A1342:C1342"/>
+    <mergeCell ref="A1361:C1361"/>
+    <mergeCell ref="A1362:C1362"/>
+    <mergeCell ref="A1363:C1363"/>
+    <mergeCell ref="A1364:C1364"/>
+    <mergeCell ref="A1365:C1365"/>
+    <mergeCell ref="A1366:C1366"/>
+    <mergeCell ref="A1367:C1367"/>
+    <mergeCell ref="A1368:C1368"/>
+    <mergeCell ref="A1369:C1369"/>
+    <mergeCell ref="A1352:C1352"/>
+    <mergeCell ref="A1353:C1353"/>
+    <mergeCell ref="A1354:C1354"/>
+    <mergeCell ref="A1355:C1355"/>
+    <mergeCell ref="A1356:C1356"/>
+    <mergeCell ref="A1357:C1357"/>
+    <mergeCell ref="A1358:C1358"/>
+    <mergeCell ref="A1359:C1359"/>
+    <mergeCell ref="A1360:C1360"/>
+    <mergeCell ref="A1379:C1379"/>
+    <mergeCell ref="A1380:C1380"/>
+    <mergeCell ref="A1381:C1381"/>
+    <mergeCell ref="A1382:C1382"/>
+    <mergeCell ref="A1383:C1383"/>
+    <mergeCell ref="A1384:C1384"/>
+    <mergeCell ref="A1385:C1385"/>
+    <mergeCell ref="A1386:C1386"/>
+    <mergeCell ref="A1387:C1387"/>
+    <mergeCell ref="A1370:C1370"/>
+    <mergeCell ref="A1371:C1371"/>
+    <mergeCell ref="A1372:C1372"/>
+    <mergeCell ref="A1373:C1373"/>
+    <mergeCell ref="A1374:C1374"/>
+    <mergeCell ref="A1375:C1375"/>
+    <mergeCell ref="A1376:C1376"/>
+    <mergeCell ref="A1377:C1377"/>
+    <mergeCell ref="A1378:C1378"/>
+    <mergeCell ref="A1397:C1397"/>
+    <mergeCell ref="A1398:C1398"/>
+    <mergeCell ref="A1399:C1399"/>
+    <mergeCell ref="A1400:C1400"/>
+    <mergeCell ref="A1401:C1401"/>
+    <mergeCell ref="A1402:C1402"/>
+    <mergeCell ref="A1403:C1403"/>
+    <mergeCell ref="A1404:C1404"/>
+    <mergeCell ref="A1405:C1405"/>
+    <mergeCell ref="A1388:C1388"/>
+    <mergeCell ref="A1389:C1389"/>
+    <mergeCell ref="A1390:C1390"/>
+    <mergeCell ref="A1391:C1391"/>
+    <mergeCell ref="A1392:C1392"/>
+    <mergeCell ref="A1393:C1393"/>
+    <mergeCell ref="A1394:C1394"/>
+    <mergeCell ref="A1395:C1395"/>
+    <mergeCell ref="A1396:C1396"/>
+    <mergeCell ref="A1415:C1415"/>
+    <mergeCell ref="A1416:C1416"/>
+    <mergeCell ref="A1417:C1417"/>
+    <mergeCell ref="A1418:C1418"/>
+    <mergeCell ref="A1419:C1419"/>
+    <mergeCell ref="A1420:C1420"/>
+    <mergeCell ref="A1421:C1421"/>
+    <mergeCell ref="A1422:C1422"/>
+    <mergeCell ref="A1423:C1423"/>
+    <mergeCell ref="A1406:C1406"/>
+    <mergeCell ref="A1407:C1407"/>
+    <mergeCell ref="A1408:C1408"/>
+    <mergeCell ref="A1409:C1409"/>
+    <mergeCell ref="A1410:C1410"/>
+    <mergeCell ref="A1411:C1411"/>
+    <mergeCell ref="A1412:C1412"/>
+    <mergeCell ref="A1413:C1413"/>
+    <mergeCell ref="A1414:C1414"/>
+    <mergeCell ref="A1433:C1433"/>
+    <mergeCell ref="A1434:C1434"/>
+    <mergeCell ref="A1435:C1435"/>
+    <mergeCell ref="A1436:C1436"/>
+    <mergeCell ref="A1437:C1437"/>
+    <mergeCell ref="A1438:C1438"/>
+    <mergeCell ref="A1439:C1439"/>
+    <mergeCell ref="A1440:C1440"/>
+    <mergeCell ref="A1441:C1441"/>
+    <mergeCell ref="A1424:C1424"/>
+    <mergeCell ref="A1425:C1425"/>
+    <mergeCell ref="A1426:C1426"/>
+    <mergeCell ref="A1427:C1427"/>
+    <mergeCell ref="A1428:C1428"/>
+    <mergeCell ref="A1429:C1429"/>
+    <mergeCell ref="A1430:C1430"/>
+    <mergeCell ref="A1431:C1431"/>
+    <mergeCell ref="A1432:C1432"/>
+    <mergeCell ref="A1451:C1451"/>
+    <mergeCell ref="A1452:C1452"/>
+    <mergeCell ref="A1453:C1453"/>
+    <mergeCell ref="A1454:C1454"/>
+    <mergeCell ref="A1455:C1455"/>
+    <mergeCell ref="A1456:C1456"/>
+    <mergeCell ref="A1457:C1457"/>
+    <mergeCell ref="A1458:C1458"/>
+    <mergeCell ref="A1459:C1459"/>
+    <mergeCell ref="A1442:C1442"/>
+    <mergeCell ref="A1443:C1443"/>
+    <mergeCell ref="A1444:C1444"/>
+    <mergeCell ref="A1445:C1445"/>
+    <mergeCell ref="A1446:C1446"/>
+    <mergeCell ref="A1447:C1447"/>
+    <mergeCell ref="A1448:C1448"/>
+    <mergeCell ref="A1449:C1449"/>
+    <mergeCell ref="A1450:C1450"/>
+    <mergeCell ref="A1469:C1469"/>
+    <mergeCell ref="A1470:C1470"/>
+    <mergeCell ref="A1471:C1471"/>
+    <mergeCell ref="A1472:C1472"/>
+    <mergeCell ref="A1473:C1473"/>
+    <mergeCell ref="A1474:C1474"/>
+    <mergeCell ref="A1475:C1475"/>
+    <mergeCell ref="A1476:C1476"/>
+    <mergeCell ref="A1477:C1477"/>
+    <mergeCell ref="A1460:C1460"/>
+    <mergeCell ref="A1461:C1461"/>
+    <mergeCell ref="A1462:C1462"/>
+    <mergeCell ref="A1463:C1463"/>
+    <mergeCell ref="A1464:C1464"/>
+    <mergeCell ref="A1465:C1465"/>
+    <mergeCell ref="A1466:C1466"/>
+    <mergeCell ref="A1467:C1467"/>
+    <mergeCell ref="A1468:C1468"/>
+    <mergeCell ref="A1487:C1487"/>
+    <mergeCell ref="A1488:C1488"/>
+    <mergeCell ref="A1489:C1489"/>
+    <mergeCell ref="A1490:C1490"/>
+    <mergeCell ref="A1491:C1491"/>
+    <mergeCell ref="A1492:C1492"/>
+    <mergeCell ref="A1493:C1493"/>
+    <mergeCell ref="A1494:C1494"/>
+    <mergeCell ref="A1495:C1495"/>
+    <mergeCell ref="A1478:C1478"/>
+    <mergeCell ref="A1479:C1479"/>
+    <mergeCell ref="A1480:C1480"/>
+    <mergeCell ref="A1481:C1481"/>
+    <mergeCell ref="A1482:C1482"/>
+    <mergeCell ref="A1483:C1483"/>
+    <mergeCell ref="A1484:C1484"/>
+    <mergeCell ref="A1485:C1485"/>
+    <mergeCell ref="A1486:C1486"/>
+    <mergeCell ref="A1505:C1505"/>
+    <mergeCell ref="A1506:C1506"/>
+    <mergeCell ref="A1507:C1507"/>
+    <mergeCell ref="A1508:C1508"/>
+    <mergeCell ref="A1509:C1509"/>
+    <mergeCell ref="A1510:C1510"/>
+    <mergeCell ref="A1511:C1511"/>
+    <mergeCell ref="A1512:C1512"/>
+    <mergeCell ref="A1513:C1513"/>
+    <mergeCell ref="A1496:C1496"/>
+    <mergeCell ref="A1497:C1497"/>
+    <mergeCell ref="A1498:C1498"/>
+    <mergeCell ref="A1499:C1499"/>
+    <mergeCell ref="A1500:C1500"/>
+    <mergeCell ref="A1501:C1501"/>
+    <mergeCell ref="A1502:C1502"/>
+    <mergeCell ref="A1503:C1503"/>
+    <mergeCell ref="A1504:C1504"/>
+    <mergeCell ref="A1523:C1523"/>
+    <mergeCell ref="A1524:C1524"/>
+    <mergeCell ref="A1525:C1525"/>
+    <mergeCell ref="A1526:C1526"/>
+    <mergeCell ref="A1527:C1527"/>
+    <mergeCell ref="A1528:C1528"/>
+    <mergeCell ref="A1529:C1529"/>
+    <mergeCell ref="A1530:C1530"/>
+    <mergeCell ref="A1531:C1531"/>
+    <mergeCell ref="A1514:C1514"/>
+    <mergeCell ref="A1515:C1515"/>
+    <mergeCell ref="A1516:C1516"/>
+    <mergeCell ref="A1517:C1517"/>
+    <mergeCell ref="A1518:C1518"/>
+    <mergeCell ref="A1519:C1519"/>
+    <mergeCell ref="A1520:C1520"/>
+    <mergeCell ref="A1521:C1521"/>
+    <mergeCell ref="A1522:C1522"/>
+    <mergeCell ref="A1541:C1541"/>
+    <mergeCell ref="A1542:C1542"/>
+    <mergeCell ref="A1543:C1543"/>
+    <mergeCell ref="A1544:C1544"/>
+    <mergeCell ref="A1545:C1545"/>
+    <mergeCell ref="A1546:C1546"/>
+    <mergeCell ref="A1547:C1547"/>
+    <mergeCell ref="A1548:C1548"/>
+    <mergeCell ref="A1549:C1549"/>
+    <mergeCell ref="A1532:C1532"/>
+    <mergeCell ref="A1533:C1533"/>
+    <mergeCell ref="A1534:C1534"/>
+    <mergeCell ref="A1535:C1535"/>
+    <mergeCell ref="A1536:C1536"/>
+    <mergeCell ref="A1537:C1537"/>
+    <mergeCell ref="A1538:C1538"/>
+    <mergeCell ref="A1539:C1539"/>
+    <mergeCell ref="A1540:C1540"/>
+    <mergeCell ref="A1559:C1559"/>
+    <mergeCell ref="A1560:C1560"/>
+    <mergeCell ref="A1561:C1561"/>
+    <mergeCell ref="A1562:C1562"/>
+    <mergeCell ref="A1563:C1563"/>
+    <mergeCell ref="A1564:C1564"/>
+    <mergeCell ref="A1565:C1565"/>
+    <mergeCell ref="A1566:C1566"/>
+    <mergeCell ref="A1567:C1567"/>
+    <mergeCell ref="A1550:C1550"/>
+    <mergeCell ref="A1551:C1551"/>
+    <mergeCell ref="A1552:C1552"/>
+    <mergeCell ref="A1553:C1553"/>
+    <mergeCell ref="A1554:C1554"/>
+    <mergeCell ref="A1555:C1555"/>
+    <mergeCell ref="A1556:C1556"/>
+    <mergeCell ref="A1557:C1557"/>
+    <mergeCell ref="A1558:C1558"/>
+    <mergeCell ref="A1577:C1577"/>
+    <mergeCell ref="A1578:C1578"/>
+    <mergeCell ref="A1579:C1579"/>
+    <mergeCell ref="A1580:C1580"/>
+    <mergeCell ref="A1581:C1581"/>
+    <mergeCell ref="A1582:C1582"/>
+    <mergeCell ref="A1583:C1583"/>
+    <mergeCell ref="A1584:C1584"/>
+    <mergeCell ref="A1585:C1585"/>
+    <mergeCell ref="A1568:C1568"/>
+    <mergeCell ref="A1569:C1569"/>
+    <mergeCell ref="A1570:C1570"/>
+    <mergeCell ref="A1571:C1571"/>
+    <mergeCell ref="A1572:C1572"/>
+    <mergeCell ref="A1573:C1573"/>
+    <mergeCell ref="A1574:C1574"/>
+    <mergeCell ref="A1575:C1575"/>
+    <mergeCell ref="A1576:C1576"/>
+    <mergeCell ref="A1595:C1595"/>
+    <mergeCell ref="A1596:C1596"/>
+    <mergeCell ref="A1597:C1597"/>
+    <mergeCell ref="A1598:C1598"/>
+    <mergeCell ref="A1599:C1599"/>
+    <mergeCell ref="A1600:C1600"/>
+    <mergeCell ref="A1601:C1601"/>
+    <mergeCell ref="A1602:C1602"/>
+    <mergeCell ref="A1603:C1603"/>
+    <mergeCell ref="A1586:C1586"/>
+    <mergeCell ref="A1587:C1587"/>
+    <mergeCell ref="A1588:C1588"/>
+    <mergeCell ref="A1589:C1589"/>
+    <mergeCell ref="A1590:C1590"/>
+    <mergeCell ref="A1591:C1591"/>
+    <mergeCell ref="A1592:C1592"/>
+    <mergeCell ref="A1593:C1593"/>
+    <mergeCell ref="A1594:C1594"/>
+    <mergeCell ref="A1613:C1613"/>
+    <mergeCell ref="A1614:C1614"/>
+    <mergeCell ref="A1615:C1615"/>
+    <mergeCell ref="A1616:C1616"/>
+    <mergeCell ref="A1617:C1617"/>
+    <mergeCell ref="A1618:C1618"/>
+    <mergeCell ref="A1619:C1619"/>
+    <mergeCell ref="A1620:C1620"/>
+    <mergeCell ref="A1621:C1621"/>
+    <mergeCell ref="A1604:C1604"/>
+    <mergeCell ref="A1605:C1605"/>
+    <mergeCell ref="A1606:C1606"/>
+    <mergeCell ref="A1607:C1607"/>
+    <mergeCell ref="A1608:C1608"/>
+    <mergeCell ref="A1609:C1609"/>
+    <mergeCell ref="A1610:C1610"/>
+    <mergeCell ref="A1611:C1611"/>
+    <mergeCell ref="A1612:C1612"/>
+    <mergeCell ref="A1631:C1631"/>
+    <mergeCell ref="A1632:C1632"/>
+    <mergeCell ref="A1633:C1633"/>
+    <mergeCell ref="A1634:C1634"/>
+    <mergeCell ref="A1635:C1635"/>
+    <mergeCell ref="A1636:C1636"/>
+    <mergeCell ref="A1637:C1637"/>
+    <mergeCell ref="A1638:C1638"/>
+    <mergeCell ref="A1639:C1639"/>
+    <mergeCell ref="A1622:C1622"/>
+    <mergeCell ref="A1623:C1623"/>
+    <mergeCell ref="A1624:C1624"/>
+    <mergeCell ref="A1625:C1625"/>
+    <mergeCell ref="A1626:C1626"/>
+    <mergeCell ref="A1627:C1627"/>
+    <mergeCell ref="A1628:C1628"/>
+    <mergeCell ref="A1629:C1629"/>
+    <mergeCell ref="A1630:C1630"/>
+    <mergeCell ref="A1649:C1649"/>
+    <mergeCell ref="A1650:C1650"/>
+    <mergeCell ref="A1651:C1651"/>
+    <mergeCell ref="A1652:C1652"/>
+    <mergeCell ref="A1653:C1653"/>
+    <mergeCell ref="A1654:C1654"/>
+    <mergeCell ref="A1655:C1655"/>
+    <mergeCell ref="A1656:C1656"/>
+    <mergeCell ref="A1657:C1657"/>
+    <mergeCell ref="A1640:C1640"/>
+    <mergeCell ref="A1641:C1641"/>
+    <mergeCell ref="A1642:C1642"/>
+    <mergeCell ref="A1643:C1643"/>
+    <mergeCell ref="A1644:C1644"/>
+    <mergeCell ref="A1645:C1645"/>
+    <mergeCell ref="A1646:C1646"/>
+    <mergeCell ref="A1647:C1647"/>
+    <mergeCell ref="A1648:C1648"/>
+    <mergeCell ref="A1667:C1667"/>
+    <mergeCell ref="A1668:C1668"/>
+    <mergeCell ref="A1669:C1669"/>
+    <mergeCell ref="A1670:C1670"/>
+    <mergeCell ref="A1671:C1671"/>
+    <mergeCell ref="A1672:C1672"/>
+    <mergeCell ref="A1673:C1673"/>
+    <mergeCell ref="A1674:C1674"/>
+    <mergeCell ref="A1675:C1675"/>
+    <mergeCell ref="A1658:C1658"/>
+    <mergeCell ref="A1659:C1659"/>
+    <mergeCell ref="A1660:C1660"/>
+    <mergeCell ref="A1661:C1661"/>
+    <mergeCell ref="A1662:C1662"/>
+    <mergeCell ref="A1663:C1663"/>
+    <mergeCell ref="A1664:C1664"/>
+    <mergeCell ref="A1665:C1665"/>
+    <mergeCell ref="A1666:C1666"/>
+    <mergeCell ref="A1685:C1685"/>
+    <mergeCell ref="A1686:C1686"/>
+    <mergeCell ref="A1687:C1687"/>
+    <mergeCell ref="A1688:C1688"/>
+    <mergeCell ref="A1689:C1689"/>
+    <mergeCell ref="A1690:C1690"/>
+    <mergeCell ref="A1691:C1691"/>
+    <mergeCell ref="A1692:C1692"/>
+    <mergeCell ref="A1693:C1693"/>
+    <mergeCell ref="A1676:C1676"/>
+    <mergeCell ref="A1677:C1677"/>
+    <mergeCell ref="A1678:C1678"/>
+    <mergeCell ref="A1679:C1679"/>
+    <mergeCell ref="A1680:C1680"/>
+    <mergeCell ref="A1681:C1681"/>
+    <mergeCell ref="A1682:C1682"/>
+    <mergeCell ref="A1683:C1683"/>
+    <mergeCell ref="A1684:C1684"/>
+    <mergeCell ref="A1703:C1703"/>
+    <mergeCell ref="A1704:C1704"/>
+    <mergeCell ref="A1705:C1705"/>
+    <mergeCell ref="A1706:C1706"/>
+    <mergeCell ref="A1707:C1707"/>
+    <mergeCell ref="A1708:C1708"/>
+    <mergeCell ref="A1709:C1709"/>
+    <mergeCell ref="A1710:C1710"/>
+    <mergeCell ref="A1711:C1711"/>
+    <mergeCell ref="A1694:C1694"/>
+    <mergeCell ref="A1695:C1695"/>
+    <mergeCell ref="A1696:C1696"/>
+    <mergeCell ref="A1697:C1697"/>
+    <mergeCell ref="A1698:C1698"/>
+    <mergeCell ref="A1699:C1699"/>
+    <mergeCell ref="A1700:C1700"/>
+    <mergeCell ref="A1701:C1701"/>
+    <mergeCell ref="A1702:C1702"/>
+    <mergeCell ref="A1721:C1721"/>
+    <mergeCell ref="A1722:C1722"/>
+    <mergeCell ref="A1723:C1723"/>
+    <mergeCell ref="A1724:C1724"/>
+    <mergeCell ref="A1725:C1725"/>
+    <mergeCell ref="A1726:C1726"/>
+    <mergeCell ref="A1727:C1727"/>
+    <mergeCell ref="A1728:C1728"/>
+    <mergeCell ref="A1729:C1729"/>
+    <mergeCell ref="A1712:C1712"/>
+    <mergeCell ref="A1713:C1713"/>
+    <mergeCell ref="A1714:C1714"/>
+    <mergeCell ref="A1715:C1715"/>
+    <mergeCell ref="A1716:C1716"/>
+    <mergeCell ref="A1717:C1717"/>
+    <mergeCell ref="A1718:C1718"/>
+    <mergeCell ref="A1719:C1719"/>
+    <mergeCell ref="A1720:C1720"/>
+    <mergeCell ref="A1739:C1739"/>
+    <mergeCell ref="A1740:C1740"/>
+    <mergeCell ref="A1741:C1741"/>
+    <mergeCell ref="A1742:C1742"/>
+    <mergeCell ref="A1743:C1743"/>
+    <mergeCell ref="A1744:C1744"/>
+    <mergeCell ref="A1745:C1745"/>
+    <mergeCell ref="A1746:C1746"/>
+    <mergeCell ref="A1747:C1747"/>
+    <mergeCell ref="A1730:C1730"/>
+    <mergeCell ref="A1731:C1731"/>
+    <mergeCell ref="A1732:C1732"/>
+    <mergeCell ref="A1733:C1733"/>
+    <mergeCell ref="A1734:C1734"/>
+    <mergeCell ref="A1735:C1735"/>
+    <mergeCell ref="A1736:C1736"/>
+    <mergeCell ref="A1737:C1737"/>
+    <mergeCell ref="A1738:C1738"/>
+    <mergeCell ref="A1757:C1757"/>
+    <mergeCell ref="A1758:C1758"/>
+    <mergeCell ref="A1759:C1759"/>
+    <mergeCell ref="A1760:C1760"/>
+    <mergeCell ref="A1761:C1761"/>
+    <mergeCell ref="A1762:C1762"/>
+    <mergeCell ref="A1763:C1763"/>
+    <mergeCell ref="A1764:C1764"/>
+    <mergeCell ref="A1765:C1765"/>
+    <mergeCell ref="A1748:C1748"/>
+    <mergeCell ref="A1749:C1749"/>
+    <mergeCell ref="A1750:C1750"/>
+    <mergeCell ref="A1751:C1751"/>
+    <mergeCell ref="A1752:C1752"/>
+    <mergeCell ref="A1753:C1753"/>
+    <mergeCell ref="A1754:C1754"/>
+    <mergeCell ref="A1755:C1755"/>
+    <mergeCell ref="A1756:C1756"/>
+    <mergeCell ref="A1775:C1775"/>
+    <mergeCell ref="A1776:C1776"/>
+    <mergeCell ref="A1777:C1777"/>
+    <mergeCell ref="A1778:C1778"/>
+    <mergeCell ref="A1779:C1779"/>
+    <mergeCell ref="A1780:C1780"/>
+    <mergeCell ref="A1781:C1781"/>
+    <mergeCell ref="A1782:C1782"/>
+    <mergeCell ref="A1783:C1783"/>
+    <mergeCell ref="A1766:C1766"/>
+    <mergeCell ref="A1767:C1767"/>
+    <mergeCell ref="A1768:C1768"/>
+    <mergeCell ref="A1769:C1769"/>
+    <mergeCell ref="A1770:C1770"/>
+    <mergeCell ref="A1771:C1771"/>
+    <mergeCell ref="A1772:C1772"/>
+    <mergeCell ref="A1773:C1773"/>
+    <mergeCell ref="A1774:C1774"/>
+    <mergeCell ref="A1793:C1793"/>
+    <mergeCell ref="A1794:C1794"/>
+    <mergeCell ref="A1795:C1795"/>
+    <mergeCell ref="A1796:C1796"/>
+    <mergeCell ref="A1797:C1797"/>
+    <mergeCell ref="A1798:C1798"/>
+    <mergeCell ref="A1799:C1799"/>
+    <mergeCell ref="A1800:C1800"/>
+    <mergeCell ref="A1801:C1801"/>
+    <mergeCell ref="A1784:C1784"/>
+    <mergeCell ref="A1785:C1785"/>
+    <mergeCell ref="A1786:C1786"/>
+    <mergeCell ref="A1787:C1787"/>
+    <mergeCell ref="A1788:C1788"/>
+    <mergeCell ref="A1789:C1789"/>
+    <mergeCell ref="A1790:C1790"/>
+    <mergeCell ref="A1791:C1791"/>
+    <mergeCell ref="A1792:C1792"/>
+    <mergeCell ref="A1811:C1811"/>
+    <mergeCell ref="A1812:C1812"/>
+    <mergeCell ref="A1813:C1813"/>
+    <mergeCell ref="A1814:C1814"/>
+    <mergeCell ref="A1815:C1815"/>
+    <mergeCell ref="A1816:C1816"/>
+    <mergeCell ref="A1817:C1817"/>
+    <mergeCell ref="A1818:C1818"/>
+    <mergeCell ref="A1819:C1819"/>
+    <mergeCell ref="A1802:C1802"/>
+    <mergeCell ref="A1803:C1803"/>
+    <mergeCell ref="A1804:C1804"/>
+    <mergeCell ref="A1805:C1805"/>
+    <mergeCell ref="A1806:C1806"/>
+    <mergeCell ref="A1807:C1807"/>
+    <mergeCell ref="A1808:C1808"/>
+    <mergeCell ref="A1809:C1809"/>
+    <mergeCell ref="A1810:C1810"/>
+    <mergeCell ref="A1829:C1829"/>
+    <mergeCell ref="A1830:C1830"/>
+    <mergeCell ref="A1831:C1831"/>
+    <mergeCell ref="A1832:C1832"/>
+    <mergeCell ref="A1833:C1833"/>
+    <mergeCell ref="A1834:C1834"/>
+    <mergeCell ref="A1835:C1835"/>
+    <mergeCell ref="A1836:C1836"/>
+    <mergeCell ref="A1837:C1837"/>
+    <mergeCell ref="A1820:C1820"/>
+    <mergeCell ref="A1821:C1821"/>
+    <mergeCell ref="A1822:C1822"/>
+    <mergeCell ref="A1823:C1823"/>
+    <mergeCell ref="A1824:C1824"/>
+    <mergeCell ref="A1825:C1825"/>
+    <mergeCell ref="A1826:C1826"/>
+    <mergeCell ref="A1827:C1827"/>
+    <mergeCell ref="A1828:C1828"/>
+    <mergeCell ref="A1847:C1847"/>
+    <mergeCell ref="A1848:C1848"/>
+    <mergeCell ref="A1849:C1849"/>
+    <mergeCell ref="A1850:C1850"/>
+    <mergeCell ref="A1851:C1851"/>
+    <mergeCell ref="A1852:C1852"/>
+    <mergeCell ref="A1853:C1853"/>
+    <mergeCell ref="A1854:C1854"/>
+    <mergeCell ref="A1855:C1855"/>
+    <mergeCell ref="A1838:C1838"/>
+    <mergeCell ref="A1839:C1839"/>
+    <mergeCell ref="A1840:C1840"/>
+    <mergeCell ref="A1841:C1841"/>
+    <mergeCell ref="A1842:C1842"/>
+    <mergeCell ref="A1843:C1843"/>
+    <mergeCell ref="A1844:C1844"/>
+    <mergeCell ref="A1845:C1845"/>
+    <mergeCell ref="A1846:C1846"/>
+    <mergeCell ref="A1865:C1865"/>
+    <mergeCell ref="A1866:C1866"/>
+    <mergeCell ref="A1867:C1867"/>
+    <mergeCell ref="A1868:C1868"/>
+    <mergeCell ref="A1869:C1869"/>
+    <mergeCell ref="A1870:C1870"/>
+    <mergeCell ref="A1871:C1871"/>
+    <mergeCell ref="A1872:C1872"/>
+    <mergeCell ref="A1873:C1873"/>
+    <mergeCell ref="A1856:C1856"/>
+    <mergeCell ref="A1857:C1857"/>
+    <mergeCell ref="A1858:C1858"/>
+    <mergeCell ref="A1859:C1859"/>
+    <mergeCell ref="A1860:C1860"/>
+    <mergeCell ref="A1861:C1861"/>
+    <mergeCell ref="A1862:C1862"/>
+    <mergeCell ref="A1863:C1863"/>
+    <mergeCell ref="A1864:C1864"/>
+    <mergeCell ref="A1883:C1883"/>
+    <mergeCell ref="A1884:C1884"/>
+    <mergeCell ref="A1885:C1885"/>
+    <mergeCell ref="A1886:C1886"/>
+    <mergeCell ref="A1887:C1887"/>
+    <mergeCell ref="A1888:C1888"/>
+    <mergeCell ref="A1889:C1889"/>
+    <mergeCell ref="A1890:C1890"/>
+    <mergeCell ref="A1891:C1891"/>
+    <mergeCell ref="A1874:C1874"/>
+    <mergeCell ref="A1875:C1875"/>
+    <mergeCell ref="A1876:C1876"/>
+    <mergeCell ref="A1877:C1877"/>
+    <mergeCell ref="A1878:C1878"/>
+    <mergeCell ref="A1879:C1879"/>
+    <mergeCell ref="A1880:C1880"/>
+    <mergeCell ref="A1881:C1881"/>
+    <mergeCell ref="A1882:C1882"/>
+    <mergeCell ref="A1901:C1901"/>
+    <mergeCell ref="A1902:C1902"/>
+    <mergeCell ref="A1903:C1903"/>
+    <mergeCell ref="A1904:C1904"/>
+    <mergeCell ref="A1905:C1905"/>
+    <mergeCell ref="A1906:C1906"/>
+    <mergeCell ref="A1907:C1907"/>
+    <mergeCell ref="A1908:C1908"/>
+    <mergeCell ref="A1909:C1909"/>
+    <mergeCell ref="A1892:C1892"/>
+    <mergeCell ref="A1893:C1893"/>
+    <mergeCell ref="A1894:C1894"/>
+    <mergeCell ref="A1895:C1895"/>
+    <mergeCell ref="A1896:C1896"/>
+    <mergeCell ref="A1897:C1897"/>
+    <mergeCell ref="A1898:C1898"/>
+    <mergeCell ref="A1899:C1899"/>
+    <mergeCell ref="A1900:C1900"/>
+    <mergeCell ref="A1919:C1919"/>
+    <mergeCell ref="A1920:C1920"/>
+    <mergeCell ref="A1921:C1921"/>
+    <mergeCell ref="A1922:C1922"/>
+    <mergeCell ref="A1923:C1923"/>
+    <mergeCell ref="A1924:C1924"/>
+    <mergeCell ref="A1925:C1925"/>
+    <mergeCell ref="A1926:C1926"/>
+    <mergeCell ref="A1927:C1927"/>
+    <mergeCell ref="A1910:C1910"/>
+    <mergeCell ref="A1911:C1911"/>
+    <mergeCell ref="A1912:C1912"/>
+    <mergeCell ref="A1913:C1913"/>
+    <mergeCell ref="A1914:C1914"/>
+    <mergeCell ref="A1915:C1915"/>
+    <mergeCell ref="A1916:C1916"/>
+    <mergeCell ref="A1917:C1917"/>
+    <mergeCell ref="A1918:C1918"/>
+    <mergeCell ref="A1937:C1937"/>
+    <mergeCell ref="A1938:C1938"/>
+    <mergeCell ref="A1939:C1939"/>
+    <mergeCell ref="A1940:C1940"/>
+    <mergeCell ref="A1941:C1941"/>
+    <mergeCell ref="A1942:C1942"/>
+    <mergeCell ref="A1943:C1943"/>
+    <mergeCell ref="A1944:C1944"/>
+    <mergeCell ref="A1945:C1945"/>
+    <mergeCell ref="A1928:C1928"/>
+    <mergeCell ref="A1929:C1929"/>
+    <mergeCell ref="A1930:C1930"/>
+    <mergeCell ref="A1931:C1931"/>
+    <mergeCell ref="A1932:C1932"/>
+    <mergeCell ref="A1933:C1933"/>
+    <mergeCell ref="A1934:C1934"/>
+    <mergeCell ref="A1935:C1935"/>
+    <mergeCell ref="A1936:C1936"/>
+    <mergeCell ref="A1955:C1955"/>
+    <mergeCell ref="A1956:C1956"/>
+    <mergeCell ref="A1957:C1957"/>
+    <mergeCell ref="A1958:C1958"/>
+    <mergeCell ref="A1959:C1959"/>
+    <mergeCell ref="A1960:C1960"/>
+    <mergeCell ref="A1961:C1961"/>
+    <mergeCell ref="A1962:C1962"/>
+    <mergeCell ref="A1963:C1963"/>
+    <mergeCell ref="A1946:C1946"/>
+    <mergeCell ref="A1947:C1947"/>
+    <mergeCell ref="A1948:C1948"/>
+    <mergeCell ref="A1949:C1949"/>
+    <mergeCell ref="A1950:C1950"/>
+    <mergeCell ref="A1951:C1951"/>
+    <mergeCell ref="A1952:C1952"/>
+    <mergeCell ref="A1953:C1953"/>
+    <mergeCell ref="A1954:C1954"/>
+    <mergeCell ref="A1973:C1973"/>
+    <mergeCell ref="A1974:C1974"/>
+    <mergeCell ref="A1975:C1975"/>
+    <mergeCell ref="A1976:C1976"/>
+    <mergeCell ref="A1977:C1977"/>
+    <mergeCell ref="A1978:C1978"/>
+    <mergeCell ref="A1979:C1979"/>
+    <mergeCell ref="A1980:C1980"/>
+    <mergeCell ref="A1981:C1981"/>
+    <mergeCell ref="A1964:C1964"/>
+    <mergeCell ref="A1965:C1965"/>
+    <mergeCell ref="A1966:C1966"/>
+    <mergeCell ref="A1967:C1967"/>
+    <mergeCell ref="A1968:C1968"/>
+    <mergeCell ref="A1969:C1969"/>
+    <mergeCell ref="A1970:C1970"/>
+    <mergeCell ref="A1971:C1971"/>
+    <mergeCell ref="A1972:C1972"/>
+    <mergeCell ref="A1991:C1991"/>
+    <mergeCell ref="A1992:C1992"/>
+    <mergeCell ref="A1993:C1993"/>
+    <mergeCell ref="A1994:C1994"/>
+    <mergeCell ref="A1995:C1995"/>
+    <mergeCell ref="A1996:C1996"/>
+    <mergeCell ref="A1997:C1997"/>
+    <mergeCell ref="A1998:C1998"/>
+    <mergeCell ref="A1999:C1999"/>
+    <mergeCell ref="A1982:C1982"/>
+    <mergeCell ref="A1983:C1983"/>
+    <mergeCell ref="A1984:C1984"/>
+    <mergeCell ref="A1985:C1985"/>
+    <mergeCell ref="A1986:C1986"/>
+    <mergeCell ref="A1987:C1987"/>
+    <mergeCell ref="A1988:C1988"/>
+    <mergeCell ref="A1989:C1989"/>
+    <mergeCell ref="A1990:C1990"/>
+    <mergeCell ref="A2009:C2009"/>
+    <mergeCell ref="A2010:C2010"/>
+    <mergeCell ref="A2011:C2011"/>
+    <mergeCell ref="A2012:C2012"/>
+    <mergeCell ref="A2013:C2013"/>
+    <mergeCell ref="A2014:C2014"/>
+    <mergeCell ref="A2015:C2015"/>
+    <mergeCell ref="A2016:C2016"/>
+    <mergeCell ref="A2017:C2017"/>
+    <mergeCell ref="A2000:C2000"/>
+    <mergeCell ref="A2001:C2001"/>
+    <mergeCell ref="A2002:C2002"/>
+    <mergeCell ref="A2003:C2003"/>
+    <mergeCell ref="A2004:C2004"/>
+    <mergeCell ref="A2005:C2005"/>
+    <mergeCell ref="A2006:C2006"/>
+    <mergeCell ref="A2007:C2007"/>
+    <mergeCell ref="A2008:C2008"/>
+    <mergeCell ref="A2027:C2027"/>
+    <mergeCell ref="A2028:C2028"/>
+    <mergeCell ref="A2029:C2029"/>
+    <mergeCell ref="A2030:C2030"/>
+    <mergeCell ref="A2031:C2031"/>
+    <mergeCell ref="A2032:C2032"/>
+    <mergeCell ref="A2033:C2033"/>
+    <mergeCell ref="A2034:C2034"/>
+    <mergeCell ref="A2035:C2035"/>
+    <mergeCell ref="A2018:C2018"/>
+    <mergeCell ref="A2019:C2019"/>
+    <mergeCell ref="A2020:C2020"/>
+    <mergeCell ref="A2021:C2021"/>
+    <mergeCell ref="A2022:C2022"/>
+    <mergeCell ref="A2023:C2023"/>
+    <mergeCell ref="A2024:C2024"/>
+    <mergeCell ref="A2025:C2025"/>
+    <mergeCell ref="A2026:C2026"/>
+    <mergeCell ref="A2045:C2045"/>
+    <mergeCell ref="A2046:C2046"/>
+    <mergeCell ref="A2047:C2047"/>
+    <mergeCell ref="A2048:C2048"/>
+    <mergeCell ref="A2049:C2049"/>
+    <mergeCell ref="A2050:C2050"/>
+    <mergeCell ref="A2051:C2051"/>
+    <mergeCell ref="A2052:C2052"/>
+    <mergeCell ref="A2053:C2053"/>
+    <mergeCell ref="A2036:C2036"/>
+    <mergeCell ref="A2037:C2037"/>
+    <mergeCell ref="A2038:C2038"/>
+    <mergeCell ref="A2039:C2039"/>
+    <mergeCell ref="A2040:C2040"/>
+    <mergeCell ref="A2041:C2041"/>
+    <mergeCell ref="A2042:C2042"/>
+    <mergeCell ref="A2043:C2043"/>
+    <mergeCell ref="A2044:C2044"/>
+    <mergeCell ref="A2063:C2063"/>
+    <mergeCell ref="A2064:C2064"/>
+    <mergeCell ref="A2065:C2065"/>
+    <mergeCell ref="A2066:C2066"/>
+    <mergeCell ref="A2067:C2067"/>
+    <mergeCell ref="A2068:C2068"/>
+    <mergeCell ref="A2069:C2069"/>
+    <mergeCell ref="A2070:C2070"/>
+    <mergeCell ref="A2071:C2071"/>
+    <mergeCell ref="A2054:C2054"/>
+    <mergeCell ref="A2055:C2055"/>
+    <mergeCell ref="A2056:C2056"/>
+    <mergeCell ref="A2057:C2057"/>
+    <mergeCell ref="A2058:C2058"/>
+    <mergeCell ref="A2059:C2059"/>
+    <mergeCell ref="A2060:C2060"/>
+    <mergeCell ref="A2061:C2061"/>
+    <mergeCell ref="A2062:C2062"/>
+    <mergeCell ref="A2081:C2081"/>
+    <mergeCell ref="A2082:C2082"/>
+    <mergeCell ref="A2083:C2083"/>
+    <mergeCell ref="A2084:C2084"/>
+    <mergeCell ref="A2085:C2085"/>
+    <mergeCell ref="A2086:C2086"/>
+    <mergeCell ref="A2087:C2087"/>
+    <mergeCell ref="A2088:C2088"/>
+    <mergeCell ref="A2089:C2089"/>
+    <mergeCell ref="A2072:C2072"/>
+    <mergeCell ref="A2073:C2073"/>
+    <mergeCell ref="A2074:C2074"/>
+    <mergeCell ref="A2075:C2075"/>
+    <mergeCell ref="A2076:C2076"/>
+    <mergeCell ref="A2077:C2077"/>
+    <mergeCell ref="A2078:C2078"/>
+    <mergeCell ref="A2079:C2079"/>
+    <mergeCell ref="A2080:C2080"/>
+    <mergeCell ref="A2099:C2099"/>
+    <mergeCell ref="A2100:C2100"/>
+    <mergeCell ref="A2101:C2101"/>
+    <mergeCell ref="A2102:C2102"/>
+    <mergeCell ref="A2103:C2103"/>
+    <mergeCell ref="A2104:C2104"/>
+    <mergeCell ref="A2105:C2105"/>
+    <mergeCell ref="A2106:C2106"/>
+    <mergeCell ref="A2107:C2107"/>
+    <mergeCell ref="A2090:C2090"/>
+    <mergeCell ref="A2091:C2091"/>
+    <mergeCell ref="A2092:C2092"/>
+    <mergeCell ref="A2093:C2093"/>
+    <mergeCell ref="A2094:C2094"/>
+    <mergeCell ref="A2095:C2095"/>
+    <mergeCell ref="A2096:C2096"/>
+    <mergeCell ref="A2097:C2097"/>
+    <mergeCell ref="A2098:C2098"/>
+    <mergeCell ref="A2117:C2117"/>
+    <mergeCell ref="A2118:C2118"/>
+    <mergeCell ref="A2119:C2119"/>
+    <mergeCell ref="A2120:C2120"/>
+    <mergeCell ref="A2121:C2121"/>
+    <mergeCell ref="A2122:C2122"/>
+    <mergeCell ref="A2123:C2123"/>
+    <mergeCell ref="A2124:C2124"/>
+    <mergeCell ref="A2125:C2125"/>
+    <mergeCell ref="A2108:C2108"/>
+    <mergeCell ref="A2109:C2109"/>
+    <mergeCell ref="A2110:C2110"/>
+    <mergeCell ref="A2111:C2111"/>
+    <mergeCell ref="A2112:C2112"/>
+    <mergeCell ref="A2113:C2113"/>
+    <mergeCell ref="A2114:C2114"/>
+    <mergeCell ref="A2115:C2115"/>
+    <mergeCell ref="A2116:C2116"/>
+    <mergeCell ref="A2135:C2135"/>
+    <mergeCell ref="A2136:C2136"/>
+    <mergeCell ref="A2137:C2137"/>
+    <mergeCell ref="A2138:C2138"/>
+    <mergeCell ref="A2139:C2139"/>
+    <mergeCell ref="A2140:C2140"/>
+    <mergeCell ref="A2141:C2141"/>
+    <mergeCell ref="A2142:C2142"/>
+    <mergeCell ref="A2143:C2143"/>
+    <mergeCell ref="A2126:C2126"/>
+    <mergeCell ref="A2127:C2127"/>
+    <mergeCell ref="A2128:C2128"/>
+    <mergeCell ref="A2129:C2129"/>
+    <mergeCell ref="A2130:C2130"/>
+    <mergeCell ref="A2131:C2131"/>
+    <mergeCell ref="A2132:C2132"/>
+    <mergeCell ref="A2133:C2133"/>
+    <mergeCell ref="A2134:C2134"/>
+    <mergeCell ref="A2153:C2153"/>
+    <mergeCell ref="A2154:C2154"/>
+    <mergeCell ref="A2155:C2155"/>
+    <mergeCell ref="A2156:C2156"/>
+    <mergeCell ref="A2157:C2157"/>
+    <mergeCell ref="A2158:C2158"/>
+    <mergeCell ref="A2159:C2159"/>
+    <mergeCell ref="A2160:C2160"/>
+    <mergeCell ref="A2161:C2161"/>
+    <mergeCell ref="A2144:C2144"/>
+    <mergeCell ref="A2145:C2145"/>
+    <mergeCell ref="A2146:C2146"/>
+    <mergeCell ref="A2147:C2147"/>
+    <mergeCell ref="A2148:C2148"/>
+    <mergeCell ref="A2149:C2149"/>
+    <mergeCell ref="A2150:C2150"/>
+    <mergeCell ref="A2151:C2151"/>
+    <mergeCell ref="A2152:C2152"/>
+    <mergeCell ref="A2171:C2171"/>
+    <mergeCell ref="A2172:C2172"/>
+    <mergeCell ref="A2173:C2173"/>
+    <mergeCell ref="A2174:C2174"/>
+    <mergeCell ref="A2175:C2175"/>
+    <mergeCell ref="A2176:C2176"/>
+    <mergeCell ref="A2177:C2177"/>
+    <mergeCell ref="A2178:C2178"/>
+    <mergeCell ref="A2179:C2179"/>
+    <mergeCell ref="A2162:C2162"/>
+    <mergeCell ref="A2163:C2163"/>
+    <mergeCell ref="A2164:C2164"/>
+    <mergeCell ref="A2165:C2165"/>
+    <mergeCell ref="A2166:C2166"/>
+    <mergeCell ref="A2167:C2167"/>
+    <mergeCell ref="A2168:C2168"/>
+    <mergeCell ref="A2169:C2169"/>
+    <mergeCell ref="A2170:C2170"/>
+    <mergeCell ref="A2189:C2189"/>
+    <mergeCell ref="A2190:C2190"/>
+    <mergeCell ref="A2191:C2191"/>
+    <mergeCell ref="A2192:C2192"/>
+    <mergeCell ref="A2193:C2193"/>
+    <mergeCell ref="A2194:C2194"/>
+    <mergeCell ref="A2195:C2195"/>
+    <mergeCell ref="A2196:C2196"/>
+    <mergeCell ref="A2197:C2197"/>
+    <mergeCell ref="A2180:C2180"/>
+    <mergeCell ref="A2181:C2181"/>
+    <mergeCell ref="A2182:C2182"/>
+    <mergeCell ref="A2183:C2183"/>
+    <mergeCell ref="A2184:C2184"/>
+    <mergeCell ref="A2185:C2185"/>
+    <mergeCell ref="A2186:C2186"/>
+    <mergeCell ref="A2187:C2187"/>
+    <mergeCell ref="A2188:C2188"/>
+    <mergeCell ref="A2207:C2207"/>
+    <mergeCell ref="A2208:C2208"/>
+    <mergeCell ref="A2209:C2209"/>
+    <mergeCell ref="A2210:C2210"/>
+    <mergeCell ref="A2211:C2211"/>
+    <mergeCell ref="A2212:C2212"/>
+    <mergeCell ref="A2213:C2213"/>
+    <mergeCell ref="A2214:C2214"/>
+    <mergeCell ref="A2215:C2215"/>
+    <mergeCell ref="A2198:C2198"/>
+    <mergeCell ref="A2199:C2199"/>
+    <mergeCell ref="A2200:C2200"/>
+    <mergeCell ref="A2201:C2201"/>
+    <mergeCell ref="A2202:C2202"/>
+    <mergeCell ref="A2203:C2203"/>
+    <mergeCell ref="A2204:C2204"/>
+    <mergeCell ref="A2205:C2205"/>
+    <mergeCell ref="A2206:C2206"/>
+    <mergeCell ref="A2225:C2225"/>
+    <mergeCell ref="A2226:C2226"/>
+    <mergeCell ref="A2227:C2227"/>
+    <mergeCell ref="A2228:C2228"/>
+    <mergeCell ref="A2229:C2229"/>
+    <mergeCell ref="A2230:C2230"/>
+    <mergeCell ref="A2231:C2231"/>
+    <mergeCell ref="A2232:C2232"/>
+    <mergeCell ref="A2233:C2233"/>
+    <mergeCell ref="A2216:C2216"/>
+    <mergeCell ref="A2217:C2217"/>
+    <mergeCell ref="A2218:C2218"/>
+    <mergeCell ref="A2219:C2219"/>
+    <mergeCell ref="A2220:C2220"/>
+    <mergeCell ref="A2221:C2221"/>
+    <mergeCell ref="A2222:C2222"/>
+    <mergeCell ref="A2223:C2223"/>
+    <mergeCell ref="A2224:C2224"/>
+    <mergeCell ref="A2243:C2243"/>
+    <mergeCell ref="A2244:C2244"/>
+    <mergeCell ref="A2245:C2245"/>
+    <mergeCell ref="A2246:C2246"/>
+    <mergeCell ref="A2247:C2247"/>
+    <mergeCell ref="A2248:C2248"/>
+    <mergeCell ref="A2249:C2249"/>
+    <mergeCell ref="A2250:C2250"/>
+    <mergeCell ref="A2251:C2251"/>
+    <mergeCell ref="A2234:C2234"/>
+    <mergeCell ref="A2235:C2235"/>
+    <mergeCell ref="A2236:C2236"/>
+    <mergeCell ref="A2237:C2237"/>
+    <mergeCell ref="A2238:C2238"/>
+    <mergeCell ref="A2239:C2239"/>
+    <mergeCell ref="A2240:C2240"/>
+    <mergeCell ref="A2241:C2241"/>
+    <mergeCell ref="A2242:C2242"/>
+    <mergeCell ref="A2261:C2261"/>
+    <mergeCell ref="A2262:C2262"/>
+    <mergeCell ref="A2263:C2263"/>
+    <mergeCell ref="A2264:C2264"/>
+    <mergeCell ref="A2265:C2265"/>
+    <mergeCell ref="A2266:C2266"/>
+    <mergeCell ref="A2267:C2267"/>
+    <mergeCell ref="A2268:C2268"/>
+    <mergeCell ref="A2269:C2269"/>
+    <mergeCell ref="A2252:C2252"/>
+    <mergeCell ref="A2253:C2253"/>
+    <mergeCell ref="A2254:C2254"/>
+    <mergeCell ref="A2255:C2255"/>
+    <mergeCell ref="A2256:C2256"/>
+    <mergeCell ref="A2257:C2257"/>
+    <mergeCell ref="A2258:C2258"/>
+    <mergeCell ref="A2259:C2259"/>
+    <mergeCell ref="A2260:C2260"/>
+    <mergeCell ref="A2279:C2279"/>
+    <mergeCell ref="A2280:C2280"/>
+    <mergeCell ref="A2281:C2281"/>
+    <mergeCell ref="A2282:C2282"/>
+    <mergeCell ref="A2283:C2283"/>
+    <mergeCell ref="A2284:C2284"/>
+    <mergeCell ref="A2285:C2285"/>
+    <mergeCell ref="A2286:C2286"/>
+    <mergeCell ref="A2287:C2287"/>
+    <mergeCell ref="A2270:C2270"/>
+    <mergeCell ref="A2271:C2271"/>
+    <mergeCell ref="A2272:C2272"/>
+    <mergeCell ref="A2273:C2273"/>
+    <mergeCell ref="A2274:C2274"/>
+    <mergeCell ref="A2275:C2275"/>
+    <mergeCell ref="A2276:C2276"/>
+    <mergeCell ref="A2277:C2277"/>
+    <mergeCell ref="A2278:C2278"/>
+    <mergeCell ref="A2297:C2297"/>
+    <mergeCell ref="A2298:C2298"/>
+    <mergeCell ref="A2299:C2299"/>
+    <mergeCell ref="A2300:C2300"/>
+    <mergeCell ref="A2301:C2301"/>
+    <mergeCell ref="A2302:C2302"/>
+    <mergeCell ref="A2303:C2303"/>
+    <mergeCell ref="A2304:C2304"/>
+    <mergeCell ref="A2305:C2305"/>
+    <mergeCell ref="A2288:C2288"/>
+    <mergeCell ref="A2289:C2289"/>
+    <mergeCell ref="A2290:C2290"/>
+    <mergeCell ref="A2291:C2291"/>
+    <mergeCell ref="A2292:C2292"/>
+    <mergeCell ref="A2293:C2293"/>
+    <mergeCell ref="A2294:C2294"/>
+    <mergeCell ref="A2295:C2295"/>
+    <mergeCell ref="A2296:C2296"/>
+    <mergeCell ref="A2315:C2315"/>
+    <mergeCell ref="A2316:C2316"/>
+    <mergeCell ref="A2317:C2317"/>
+    <mergeCell ref="A2318:C2318"/>
+    <mergeCell ref="A2319:C2319"/>
+    <mergeCell ref="A2320:C2320"/>
+    <mergeCell ref="A2321:C2321"/>
+    <mergeCell ref="A2322:C2322"/>
+    <mergeCell ref="A2323:C2323"/>
+    <mergeCell ref="A2306:C2306"/>
+    <mergeCell ref="A2307:C2307"/>
+    <mergeCell ref="A2308:C2308"/>
+    <mergeCell ref="A2309:C2309"/>
+    <mergeCell ref="A2310:C2310"/>
+    <mergeCell ref="A2311:C2311"/>
+    <mergeCell ref="A2312:C2312"/>
+    <mergeCell ref="A2313:C2313"/>
+    <mergeCell ref="A2314:C2314"/>
+    <mergeCell ref="A2333:C2333"/>
+    <mergeCell ref="A2334:C2334"/>
+    <mergeCell ref="A2335:C2335"/>
+    <mergeCell ref="A2336:C2336"/>
+    <mergeCell ref="A2337:C2337"/>
+    <mergeCell ref="A2338:C2338"/>
+    <mergeCell ref="A2339:C2339"/>
+    <mergeCell ref="A2340:C2340"/>
+    <mergeCell ref="A2341:C2341"/>
+    <mergeCell ref="A2324:C2324"/>
+    <mergeCell ref="A2325:C2325"/>
+    <mergeCell ref="A2326:C2326"/>
+    <mergeCell ref="A2327:C2327"/>
+    <mergeCell ref="A2328:C2328"/>
+    <mergeCell ref="A2329:C2329"/>
+    <mergeCell ref="A2330:C2330"/>
+    <mergeCell ref="A2331:C2331"/>
+    <mergeCell ref="A2332:C2332"/>
+    <mergeCell ref="A2351:C2351"/>
+    <mergeCell ref="A2352:C2352"/>
+    <mergeCell ref="A2353:C2353"/>
+    <mergeCell ref="A2354:C2354"/>
+    <mergeCell ref="A2355:C2355"/>
+    <mergeCell ref="A2356:C2356"/>
+    <mergeCell ref="A2357:C2357"/>
+    <mergeCell ref="A2358:C2358"/>
+    <mergeCell ref="A2359:C2359"/>
+    <mergeCell ref="A2342:C2342"/>
+    <mergeCell ref="A2343:C2343"/>
+    <mergeCell ref="A2344:C2344"/>
+    <mergeCell ref="A2345:C2345"/>
+    <mergeCell ref="A2346:C2346"/>
+    <mergeCell ref="A2347:C2347"/>
+    <mergeCell ref="A2348:C2348"/>
+    <mergeCell ref="A2349:C2349"/>
+    <mergeCell ref="A2350:C2350"/>
+    <mergeCell ref="A2369:C2369"/>
+    <mergeCell ref="A2370:C2370"/>
+    <mergeCell ref="A2371:C2371"/>
+    <mergeCell ref="A2372:C2372"/>
+    <mergeCell ref="A2373:C2373"/>
+    <mergeCell ref="A2374:C2374"/>
+    <mergeCell ref="A2375:C2375"/>
+    <mergeCell ref="A2376:C2376"/>
+    <mergeCell ref="A2377:C2377"/>
+    <mergeCell ref="A2360:C2360"/>
+    <mergeCell ref="A2361:C2361"/>
+    <mergeCell ref="A2362:C2362"/>
+    <mergeCell ref="A2363:C2363"/>
+    <mergeCell ref="A2364:C2364"/>
+    <mergeCell ref="A2365:C2365"/>
+    <mergeCell ref="A2366:C2366"/>
+    <mergeCell ref="A2367:C2367"/>
+    <mergeCell ref="A2368:C2368"/>
+    <mergeCell ref="A2387:C2387"/>
+    <mergeCell ref="A2388:C2388"/>
+    <mergeCell ref="A2389:C2389"/>
+    <mergeCell ref="A2390:C2390"/>
+    <mergeCell ref="A2391:C2391"/>
+    <mergeCell ref="A2392:C2392"/>
+    <mergeCell ref="A2393:C2393"/>
+    <mergeCell ref="A2394:C2394"/>
+    <mergeCell ref="A2395:C2395"/>
+    <mergeCell ref="A2378:C2378"/>
+    <mergeCell ref="A2379:C2379"/>
+    <mergeCell ref="A2380:C2380"/>
+    <mergeCell ref="A2381:C2381"/>
+    <mergeCell ref="A2382:C2382"/>
+    <mergeCell ref="A2383:C2383"/>
+    <mergeCell ref="A2384:C2384"/>
+    <mergeCell ref="A2385:C2385"/>
+    <mergeCell ref="A2386:C2386"/>
+    <mergeCell ref="A2405:C2405"/>
+    <mergeCell ref="A2406:C2406"/>
+    <mergeCell ref="A2407:C2407"/>
+    <mergeCell ref="A2408:C2408"/>
+    <mergeCell ref="A2409:C2409"/>
+    <mergeCell ref="A2410:C2410"/>
+    <mergeCell ref="A2411:C2411"/>
+    <mergeCell ref="A2412:C2412"/>
+    <mergeCell ref="A2413:C2413"/>
+    <mergeCell ref="A2396:C2396"/>
+    <mergeCell ref="A2397:C2397"/>
+    <mergeCell ref="A2398:C2398"/>
+    <mergeCell ref="A2399:C2399"/>
+    <mergeCell ref="A2400:C2400"/>
+    <mergeCell ref="A2401:C2401"/>
+    <mergeCell ref="A2402:C2402"/>
+    <mergeCell ref="A2403:C2403"/>
+    <mergeCell ref="A2404:C2404"/>
+    <mergeCell ref="A2423:C2423"/>
+    <mergeCell ref="A2424:C2424"/>
+    <mergeCell ref="A2425:C2425"/>
+    <mergeCell ref="A2426:C2426"/>
+    <mergeCell ref="A2427:C2427"/>
+    <mergeCell ref="A2428:C2428"/>
+    <mergeCell ref="A2429:C2429"/>
+    <mergeCell ref="A2430:C2430"/>
+    <mergeCell ref="A2431:C2431"/>
+    <mergeCell ref="A2414:C2414"/>
+    <mergeCell ref="A2415:C2415"/>
+    <mergeCell ref="A2416:C2416"/>
+    <mergeCell ref="A2417:C2417"/>
+    <mergeCell ref="A2418:C2418"/>
+    <mergeCell ref="A2419:C2419"/>
+    <mergeCell ref="A2420:C2420"/>
+    <mergeCell ref="A2421:C2421"/>
+    <mergeCell ref="A2422:C2422"/>
+    <mergeCell ref="A2441:C2441"/>
+    <mergeCell ref="A2442:C2442"/>
+    <mergeCell ref="A2443:C2443"/>
+    <mergeCell ref="A2444:C2444"/>
+    <mergeCell ref="A2445:C2445"/>
+    <mergeCell ref="A2446:C2446"/>
+    <mergeCell ref="A2447:C2447"/>
+    <mergeCell ref="A2448:C2448"/>
+    <mergeCell ref="A2449:C2449"/>
+    <mergeCell ref="A2432:C2432"/>
+    <mergeCell ref="A2433:C2433"/>
+    <mergeCell ref="A2434:C2434"/>
+    <mergeCell ref="A2435:C2435"/>
+    <mergeCell ref="A2436:C2436"/>
+    <mergeCell ref="A2437:C2437"/>
+    <mergeCell ref="A2438:C2438"/>
+    <mergeCell ref="A2439:C2439"/>
+    <mergeCell ref="A2440:C2440"/>
+    <mergeCell ref="A2459:C2459"/>
+    <mergeCell ref="A2460:C2460"/>
+    <mergeCell ref="A2461:C2461"/>
+    <mergeCell ref="A2462:C2462"/>
+    <mergeCell ref="A2463:C2463"/>
+    <mergeCell ref="A2464:C2464"/>
+    <mergeCell ref="A2465:C2465"/>
+    <mergeCell ref="A2466:C2466"/>
+    <mergeCell ref="A2467:C2467"/>
+    <mergeCell ref="A2450:C2450"/>
+    <mergeCell ref="A2451:C2451"/>
+    <mergeCell ref="A2452:C2452"/>
+    <mergeCell ref="A2453:C2453"/>
+    <mergeCell ref="A2454:C2454"/>
+    <mergeCell ref="A2455:C2455"/>
+    <mergeCell ref="A2456:C2456"/>
+    <mergeCell ref="A2457:C2457"/>
+    <mergeCell ref="A2458:C2458"/>
+    <mergeCell ref="A2477:C2477"/>
+    <mergeCell ref="A2478:C2478"/>
+    <mergeCell ref="A2479:C2479"/>
+    <mergeCell ref="A2480:C2480"/>
+    <mergeCell ref="A2481:C2481"/>
+    <mergeCell ref="A2482:C2482"/>
+    <mergeCell ref="A2483:C2483"/>
+    <mergeCell ref="A2484:C2484"/>
+    <mergeCell ref="A2485:C2485"/>
+    <mergeCell ref="A2468:C2468"/>
+    <mergeCell ref="A2469:C2469"/>
+    <mergeCell ref="A2470:C2470"/>
+    <mergeCell ref="A2471:C2471"/>
+    <mergeCell ref="A2472:C2472"/>
+    <mergeCell ref="A2473:C2473"/>
+    <mergeCell ref="A2474:C2474"/>
+    <mergeCell ref="A2475:C2475"/>
+    <mergeCell ref="A2476:C2476"/>
+    <mergeCell ref="A2495:C2495"/>
+    <mergeCell ref="A2496:C2496"/>
+    <mergeCell ref="A2497:C2497"/>
+    <mergeCell ref="A2498:C2498"/>
+    <mergeCell ref="A2499:C2499"/>
+    <mergeCell ref="A2500:C2500"/>
+    <mergeCell ref="A2501:C2501"/>
+    <mergeCell ref="A2502:C2502"/>
+    <mergeCell ref="A2503:C2503"/>
+    <mergeCell ref="A2486:C2486"/>
+    <mergeCell ref="A2487:C2487"/>
+    <mergeCell ref="A2488:C2488"/>
+    <mergeCell ref="A2489:C2489"/>
+    <mergeCell ref="A2490:C2490"/>
+    <mergeCell ref="A2491:C2491"/>
+    <mergeCell ref="A2492:C2492"/>
+    <mergeCell ref="A2493:C2493"/>
+    <mergeCell ref="A2494:C2494"/>
+    <mergeCell ref="A2522:C2522"/>
+    <mergeCell ref="A2523:C2523"/>
+    <mergeCell ref="A2524:C2524"/>
+    <mergeCell ref="A2525:C2525"/>
+    <mergeCell ref="A2526:C2526"/>
+    <mergeCell ref="A2513:C2513"/>
+    <mergeCell ref="A2514:C2514"/>
+    <mergeCell ref="A2515:C2515"/>
+    <mergeCell ref="A2516:C2516"/>
+    <mergeCell ref="A2517:C2517"/>
+    <mergeCell ref="A2518:C2518"/>
+    <mergeCell ref="A2519:C2519"/>
+    <mergeCell ref="A2520:C2520"/>
+    <mergeCell ref="A2521:C2521"/>
+    <mergeCell ref="A2504:C2504"/>
+    <mergeCell ref="A2505:C2505"/>
+    <mergeCell ref="A2506:C2506"/>
+    <mergeCell ref="A2507:C2507"/>
+    <mergeCell ref="A2508:C2508"/>
+    <mergeCell ref="A2509:C2509"/>
+    <mergeCell ref="A2510:C2510"/>
+    <mergeCell ref="A2511:C2511"/>
+    <mergeCell ref="A2512:C2512"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
